--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -414,7 +414,7 @@
         <v>47.1</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>47.5</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,7 +442,7 @@
         <v>54.3</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,7 +456,7 @@
         <v>51.2</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>42.2</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>44.5</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +498,7 @@
         <v>43.9</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,7 +512,7 @@
         <v>55.3</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>44.7</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>55.3</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>52.4</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,7 +568,7 @@
         <v>53.7</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,7 +582,7 @@
         <v>50.1</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,7 +596,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,7 +610,7 @@
         <v>57.2</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,7 +624,7 @@
         <v>55.4</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,7 +638,7 @@
         <v>56.5</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,7 +652,7 @@
         <v>56.8</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,7 +666,7 @@
         <v>45.5</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,7 +680,7 @@
         <v>47.1</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,7 +694,7 @@
         <v>53.6</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,7 +708,7 @@
         <v>49.7</v>
       </c>
       <c r="D23">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,7 +722,7 @@
         <v>51.8</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,7 +736,7 @@
         <v>59.8</v>
       </c>
       <c r="D25">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,7 +750,7 @@
         <v>57.8</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,7 +764,7 @@
         <v>55.4</v>
       </c>
       <c r="D27">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,7 +778,7 @@
         <v>49.1</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,7 +792,7 @@
         <v>40.4</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,7 +806,7 @@
         <v>47</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,7 +820,7 @@
         <v>48</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,7 +834,7 @@
         <v>47.8</v>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,7 +848,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D33">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,7 +862,7 @@
         <v>46.6</v>
       </c>
       <c r="D34">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>54.5</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>49.3</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>40.8</v>
       </c>
       <c r="D37">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,7 +918,7 @@
         <v>48.7</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,7 +932,7 @@
         <v>50.8</v>
       </c>
       <c r="D39">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,7 +946,7 @@
         <v>57.5</v>
       </c>
       <c r="D40">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,7 +960,7 @@
         <v>50.8</v>
       </c>
       <c r="D41">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,7 +974,7 @@
         <v>59</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,7 +988,7 @@
         <v>44.7</v>
       </c>
       <c r="D43">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,7 +1002,7 @@
         <v>55.2</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>41.6</v>
       </c>
       <c r="D45">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>56.2</v>
       </c>
       <c r="D46">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>55.8</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>45.5</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>56.3</v>
       </c>
       <c r="D50">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>54.9</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>49.3</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>53.7</v>
       </c>
       <c r="D53">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>41.2</v>
       </c>
       <c r="D54">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>45</v>
       </c>
       <c r="D55">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>58.8</v>
       </c>
       <c r="D56">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>59.6</v>
       </c>
       <c r="D57">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>59.8</v>
       </c>
       <c r="D58">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>57.8</v>
       </c>
       <c r="D59">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D60">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>41.3</v>
       </c>
       <c r="D61">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>48.7</v>
       </c>
       <c r="D64">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>48.2</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>50.4</v>
       </c>
       <c r="D66">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>43.3</v>
       </c>
       <c r="D67">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>52.9</v>
       </c>
       <c r="D68">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D69">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>45.8</v>
       </c>
       <c r="D70">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="D71">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>52</v>
       </c>
       <c r="D72">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>56.5</v>
       </c>
       <c r="D73">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,7 +1422,7 @@
         <v>53</v>
       </c>
       <c r="D74">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>43.4</v>
       </c>
       <c r="D75">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="D76">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1464,7 +1464,7 @@
         <v>51.2</v>
       </c>
       <c r="D77">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>55.7</v>
       </c>
       <c r="D78">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>42.5</v>
       </c>
       <c r="D79">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>45.9</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>58.5</v>
       </c>
       <c r="D81">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,7 +1534,7 @@
         <v>45.3</v>
       </c>
       <c r="D82">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>59</v>
       </c>
       <c r="D83">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>44.4</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>44.4</v>
       </c>
       <c r="D85">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1590,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="D86">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>41.6</v>
       </c>
       <c r="D87">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>54.6</v>
       </c>
       <c r="D88">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1632,7 +1632,7 @@
         <v>52.7</v>
       </c>
       <c r="D89">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>59.1</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1660,7 +1660,7 @@
         <v>53.6</v>
       </c>
       <c r="D91">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D92">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>52.8</v>
       </c>
       <c r="D93">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>51.5</v>
       </c>
       <c r="D94">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1716,7 +1716,7 @@
         <v>45.1</v>
       </c>
       <c r="D95">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>44.2</v>
       </c>
       <c r="D96">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>55.6</v>
       </c>
       <c r="D97">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1758,7 +1758,7 @@
         <v>45.5</v>
       </c>
       <c r="D98">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1772,7 +1772,7 @@
         <v>41.3</v>
       </c>
       <c r="D99">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>51.1</v>
       </c>
       <c r="D100">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1800,7 +1800,7 @@
         <v>52.9</v>
       </c>
       <c r="D101">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>41.1</v>
       </c>
       <c r="D102">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1828,7 +1828,7 @@
         <v>42.4</v>
       </c>
       <c r="D103">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>49.5</v>
       </c>
       <c r="D104">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1856,7 +1856,7 @@
         <v>40.7</v>
       </c>
       <c r="D105">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>40.7</v>
       </c>
       <c r="D106">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>41.6</v>
       </c>
       <c r="D107">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>43.4</v>
       </c>
       <c r="D108">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>54.2</v>
       </c>
       <c r="D109">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1926,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="D110">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1940,7 +1940,7 @@
         <v>56.3</v>
       </c>
       <c r="D111">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>44.5</v>
       </c>
       <c r="D112">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>42.7</v>
       </c>
       <c r="D113">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1982,7 +1982,7 @@
         <v>57.8</v>
       </c>
       <c r="D114">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1996,7 +1996,7 @@
         <v>46.8</v>
       </c>
       <c r="D115">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>40</v>
       </c>
       <c r="D116">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="D117">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2038,7 +2038,7 @@
         <v>45.1</v>
       </c>
       <c r="D118">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2052,7 +2052,7 @@
         <v>41.2</v>
       </c>
       <c r="D119">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>50.4</v>
       </c>
       <c r="D120">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>43.1</v>
       </c>
       <c r="D121">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D122">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>56.7</v>
       </c>
       <c r="D124">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>57.2</v>
       </c>
       <c r="D125">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>50.5</v>
       </c>
       <c r="D126">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2164,7 +2164,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D127">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>57.2</v>
       </c>
       <c r="D128">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>56.5</v>
       </c>
       <c r="D129">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>41.8</v>
       </c>
       <c r="D130">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>46.6</v>
       </c>
       <c r="D131">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D132">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2248,7 +2248,7 @@
         <v>40.6</v>
       </c>
       <c r="D133">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>56.1</v>
       </c>
       <c r="D134">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>54.4</v>
       </c>
       <c r="D135">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>58.3</v>
       </c>
       <c r="D136">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>48.3</v>
       </c>
       <c r="D137">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2318,7 +2318,7 @@
         <v>59.2</v>
       </c>
       <c r="D138">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>45.8</v>
       </c>
       <c r="D139">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D140">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>57.6</v>
       </c>
       <c r="D141">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>42.6</v>
       </c>
       <c r="D142">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>49.5</v>
       </c>
       <c r="D143">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>46.7</v>
       </c>
       <c r="D144">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>50.8</v>
       </c>
       <c r="D145">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>47.8</v>
       </c>
       <c r="D146">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2444,7 +2444,7 @@
         <v>51.6</v>
       </c>
       <c r="D147">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>51.7</v>
       </c>
       <c r="D148">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D149">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>43.4</v>
       </c>
       <c r="D150">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>50.6</v>
       </c>
       <c r="D151">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>49.9</v>
       </c>
       <c r="D152">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>48.5</v>
       </c>
       <c r="D153">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>50.2</v>
       </c>
       <c r="D154">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>47.9</v>
       </c>
       <c r="D155">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>58.2</v>
       </c>
       <c r="D156">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>52.5</v>
       </c>
       <c r="D157">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>52.6</v>
       </c>
       <c r="D158">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="D159">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>50.9</v>
       </c>
       <c r="D160">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>58</v>
       </c>
       <c r="D161">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>40.6</v>
       </c>
       <c r="D162">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>58.3</v>
       </c>
       <c r="D163">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>46.4</v>
       </c>
       <c r="D164">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>51.2</v>
       </c>
       <c r="D165">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>43.1</v>
       </c>
       <c r="D166">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>48.2</v>
       </c>
       <c r="D167">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="D168">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2752,7 +2752,7 @@
         <v>45.1</v>
       </c>
       <c r="D169">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>51.2</v>
       </c>
       <c r="D170">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2780,7 +2780,7 @@
         <v>40.6</v>
       </c>
       <c r="D171">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>55.5</v>
       </c>
       <c r="D172">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2808,7 +2808,7 @@
         <v>50.1</v>
       </c>
       <c r="D173">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2822,7 +2822,7 @@
         <v>47.5</v>
       </c>
       <c r="D174">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>47.9</v>
       </c>
       <c r="D175">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>58.6</v>
       </c>
       <c r="D176">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>46.2</v>
       </c>
       <c r="D177">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>46.9</v>
       </c>
       <c r="D178">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2892,7 +2892,7 @@
         <v>43.5</v>
       </c>
       <c r="D179">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>54.3</v>
       </c>
       <c r="D180">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>48.2</v>
       </c>
       <c r="D181">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>54.2</v>
       </c>
       <c r="D182">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2948,7 +2948,7 @@
         <v>58.8</v>
       </c>
       <c r="D183">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>58.2</v>
       </c>
       <c r="D184">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D185">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>49.1</v>
       </c>
       <c r="D186">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>51.7</v>
       </c>
       <c r="D187">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>44.1</v>
       </c>
       <c r="D188">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>40</v>
       </c>
       <c r="D189">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3046,7 +3046,7 @@
         <v>46.1</v>
       </c>
       <c r="D190">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3060,7 +3060,7 @@
         <v>45.2</v>
       </c>
       <c r="D191">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>50.9</v>
       </c>
       <c r="D192">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>59.5</v>
       </c>
       <c r="D193">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>50.8</v>
       </c>
       <c r="D194">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>55.2</v>
       </c>
       <c r="D195">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>50.6</v>
       </c>
       <c r="D196">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>47.2</v>
       </c>
       <c r="D198">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>41.6</v>
       </c>
       <c r="D199">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>53.2</v>
       </c>
       <c r="D200">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>49.6</v>
       </c>
       <c r="D201">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3214,7 +3214,7 @@
         <v>59.2</v>
       </c>
       <c r="D202">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>52.7</v>
       </c>
       <c r="D203">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>51.2</v>
       </c>
       <c r="D204">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3256,7 +3256,7 @@
         <v>56</v>
       </c>
       <c r="D205">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3270,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="D206">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3284,7 +3284,7 @@
         <v>50</v>
       </c>
       <c r="D207">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>55.9</v>
       </c>
       <c r="D208">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>45.9</v>
       </c>
       <c r="D209">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3326,7 +3326,7 @@
         <v>43.5</v>
       </c>
       <c r="D210">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>56.6</v>
       </c>
       <c r="D211">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>41.5</v>
       </c>
       <c r="D212">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3368,7 +3368,7 @@
         <v>44.6</v>
       </c>
       <c r="D213">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>53.8</v>
       </c>
       <c r="D214">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>43.1</v>
       </c>
       <c r="D215">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3410,7 +3410,7 @@
         <v>47</v>
       </c>
       <c r="D216">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3424,7 +3424,7 @@
         <v>54</v>
       </c>
       <c r="D217">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3438,7 +3438,7 @@
         <v>51.9</v>
       </c>
       <c r="D218">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3452,7 +3452,7 @@
         <v>44.7</v>
       </c>
       <c r="D219">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>49.4</v>
       </c>
       <c r="D220">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>40.6</v>
       </c>
       <c r="D221">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>54.9</v>
       </c>
       <c r="D222">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>40.2</v>
       </c>
       <c r="D223">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3522,7 +3522,7 @@
         <v>48.4</v>
       </c>
       <c r="D224">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3536,7 +3536,7 @@
         <v>41.9</v>
       </c>
       <c r="D225">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3550,7 +3550,7 @@
         <v>48.8</v>
       </c>
       <c r="D226">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3564,7 +3564,7 @@
         <v>51.4</v>
       </c>
       <c r="D227">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>57.7</v>
       </c>
       <c r="D228">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>43</v>
       </c>
       <c r="D229">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D230">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3620,7 +3620,7 @@
         <v>48.4</v>
       </c>
       <c r="D231">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3634,7 +3634,7 @@
         <v>52.6</v>
       </c>
       <c r="D232">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3648,7 +3648,7 @@
         <v>40.5</v>
       </c>
       <c r="D233">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>40.4</v>
       </c>
       <c r="D234">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3676,7 +3676,7 @@
         <v>47.6</v>
       </c>
       <c r="D235">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3690,7 +3690,7 @@
         <v>44.3</v>
       </c>
       <c r="D236">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3704,7 +3704,7 @@
         <v>55.9</v>
       </c>
       <c r="D237">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3718,7 +3718,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D238">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3732,7 +3732,7 @@
         <v>41.8</v>
       </c>
       <c r="D239">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3746,7 +3746,7 @@
         <v>54.1</v>
       </c>
       <c r="D240">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3760,7 +3760,7 @@
         <v>54.9</v>
       </c>
       <c r="D241">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>40.1</v>
       </c>
       <c r="D243">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3802,7 +3802,7 @@
         <v>40.9</v>
       </c>
       <c r="D244">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3816,7 +3816,7 @@
         <v>51.3</v>
       </c>
       <c r="D245">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3830,7 +3830,7 @@
         <v>51.5</v>
       </c>
       <c r="D246">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3844,7 +3844,7 @@
         <v>53.9</v>
       </c>
       <c r="D247">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3858,7 +3858,7 @@
         <v>46.8</v>
       </c>
       <c r="D248">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3872,7 +3872,7 @@
         <v>51.1</v>
       </c>
       <c r="D249">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>49</v>
       </c>
       <c r="D250">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3900,7 +3900,7 @@
         <v>46.4</v>
       </c>
       <c r="D251">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3914,7 +3914,7 @@
         <v>42.3</v>
       </c>
       <c r="D252">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3928,7 +3928,7 @@
         <v>50.4</v>
       </c>
       <c r="D253">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3942,7 +3942,7 @@
         <v>49.7</v>
       </c>
       <c r="D254">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3956,7 +3956,7 @@
         <v>55.1</v>
       </c>
       <c r="D255">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3970,7 +3970,7 @@
         <v>56</v>
       </c>
       <c r="D256">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>53.4</v>
       </c>
       <c r="D257">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>50.4</v>
       </c>
       <c r="D258">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>46.3</v>
       </c>
       <c r="D259">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>42.3</v>
       </c>
       <c r="D260">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="D261">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4054,7 +4054,7 @@
         <v>58.3</v>
       </c>
       <c r="D262">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4068,7 +4068,7 @@
         <v>45.4</v>
       </c>
       <c r="D263">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>52</v>
       </c>
       <c r="D264">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>45.8</v>
       </c>
       <c r="D265">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4110,7 +4110,7 @@
         <v>44.6</v>
       </c>
       <c r="D266">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4124,7 +4124,7 @@
         <v>56.6</v>
       </c>
       <c r="D267">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4138,7 +4138,7 @@
         <v>44.4</v>
       </c>
       <c r="D268">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>54.1</v>
       </c>
       <c r="D269">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>59.3</v>
       </c>
       <c r="D270">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4180,7 +4180,7 @@
         <v>40.2</v>
       </c>
       <c r="D271">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4194,7 +4194,7 @@
         <v>54.2</v>
       </c>
       <c r="D272">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4208,7 +4208,7 @@
         <v>43</v>
       </c>
       <c r="D273">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4222,7 +4222,7 @@
         <v>45.3</v>
       </c>
       <c r="D274">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4236,7 +4236,7 @@
         <v>44.1</v>
       </c>
       <c r="D275">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4250,7 +4250,7 @@
         <v>45.3</v>
       </c>
       <c r="D276">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4264,7 +4264,7 @@
         <v>48.6</v>
       </c>
       <c r="D277">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4278,7 +4278,7 @@
         <v>49.4</v>
       </c>
       <c r="D278">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>45.7</v>
       </c>
       <c r="D279">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4306,7 +4306,7 @@
         <v>46.3</v>
       </c>
       <c r="D280">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4320,7 +4320,7 @@
         <v>59.1</v>
       </c>
       <c r="D281">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4334,7 +4334,7 @@
         <v>41.5</v>
       </c>
       <c r="D282">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4348,7 +4348,7 @@
         <v>55.4</v>
       </c>
       <c r="D283">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4376,7 +4376,7 @@
         <v>44.8</v>
       </c>
       <c r="D285">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4390,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="D286">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>58.7</v>
       </c>
       <c r="D287">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>53.9</v>
       </c>
       <c r="D288">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>46.3</v>
       </c>
       <c r="D289">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>41</v>
       </c>
       <c r="D290">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>41.7</v>
       </c>
       <c r="D291">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4474,7 +4474,7 @@
         <v>46.1</v>
       </c>
       <c r="D292">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4488,7 +4488,7 @@
         <v>51.9</v>
       </c>
       <c r="D293">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4502,7 +4502,7 @@
         <v>54.3</v>
       </c>
       <c r="D294">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>55.4</v>
       </c>
       <c r="D295">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>42</v>
       </c>
       <c r="D296">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4544,7 +4544,7 @@
         <v>45.5</v>
       </c>
       <c r="D297">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4558,7 +4558,7 @@
         <v>56.2</v>
       </c>
       <c r="D298">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4572,7 +4572,7 @@
         <v>52.7</v>
       </c>
       <c r="D299">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>56.8</v>
       </c>
       <c r="D301">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4614,7 +4614,7 @@
         <v>53.9</v>
       </c>
       <c r="D302">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4628,7 +4628,7 @@
         <v>48.1</v>
       </c>
       <c r="D303">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4642,7 +4642,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D304">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>44</v>
       </c>
       <c r="D305">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>54.1</v>
       </c>
       <c r="D306">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4698,7 +4698,7 @@
         <v>43.7</v>
       </c>
       <c r="D308">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4712,7 +4712,7 @@
         <v>42.6</v>
       </c>
       <c r="D309">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>43.2</v>
       </c>
       <c r="D310">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>57.6</v>
       </c>
       <c r="D311">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4754,7 +4754,7 @@
         <v>40.5</v>
       </c>
       <c r="D312">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>56</v>
       </c>
       <c r="D313">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>48.3</v>
       </c>
       <c r="D314">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4796,7 +4796,7 @@
         <v>46.5</v>
       </c>
       <c r="D315">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4810,7 +4810,7 @@
         <v>56.3</v>
       </c>
       <c r="D316">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4824,7 +4824,7 @@
         <v>59.8</v>
       </c>
       <c r="D317">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>53.3</v>
       </c>
       <c r="D318">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4852,7 +4852,7 @@
         <v>55.8</v>
       </c>
       <c r="D319">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4866,7 +4866,7 @@
         <v>40.3</v>
       </c>
       <c r="D320">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4880,7 +4880,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D321">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4894,7 +4894,7 @@
         <v>52.5</v>
       </c>
       <c r="D322">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D323">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4922,7 +4922,7 @@
         <v>46.5</v>
       </c>
       <c r="D324">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4936,7 +4936,7 @@
         <v>52.3</v>
       </c>
       <c r="D325">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4950,7 +4950,7 @@
         <v>41.4</v>
       </c>
       <c r="D326">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4964,7 +4964,7 @@
         <v>47.7</v>
       </c>
       <c r="D327">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4978,7 +4978,7 @@
         <v>50.3</v>
       </c>
       <c r="D328">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4992,7 +4992,7 @@
         <v>50.9</v>
       </c>
       <c r="D329">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5006,7 +5006,7 @@
         <v>56.5</v>
       </c>
       <c r="D330">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>53.2</v>
       </c>
       <c r="D331">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5034,7 +5034,7 @@
         <v>57</v>
       </c>
       <c r="D332">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5048,7 +5048,7 @@
         <v>44.3</v>
       </c>
       <c r="D333">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5062,7 +5062,7 @@
         <v>46.5</v>
       </c>
       <c r="D334">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5076,7 +5076,7 @@
         <v>50.9</v>
       </c>
       <c r="D335">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5090,7 +5090,7 @@
         <v>55.6</v>
       </c>
       <c r="D336">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5104,7 +5104,7 @@
         <v>46.5</v>
       </c>
       <c r="D337">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5118,7 +5118,7 @@
         <v>48.3</v>
       </c>
       <c r="D338">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5132,7 +5132,7 @@
         <v>57.6</v>
       </c>
       <c r="D339">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5146,7 +5146,7 @@
         <v>42.6</v>
       </c>
       <c r="D340">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>53.3</v>
       </c>
       <c r="D341">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5174,7 +5174,7 @@
         <v>53.6</v>
       </c>
       <c r="D342">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5188,7 +5188,7 @@
         <v>59</v>
       </c>
       <c r="D343">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5202,7 +5202,7 @@
         <v>47.6</v>
       </c>
       <c r="D344">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D345">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5230,7 +5230,7 @@
         <v>48.1</v>
       </c>
       <c r="D346">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5244,7 +5244,7 @@
         <v>53.1</v>
       </c>
       <c r="D347">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5258,7 +5258,7 @@
         <v>45.4</v>
       </c>
       <c r="D348">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5272,7 +5272,7 @@
         <v>54.6</v>
       </c>
       <c r="D349">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5286,7 +5286,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D350">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5300,7 +5300,7 @@
         <v>40.8</v>
       </c>
       <c r="D351">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5314,7 +5314,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D352">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>47.4</v>
       </c>
       <c r="D353">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5342,7 +5342,7 @@
         <v>52.9</v>
       </c>
       <c r="D354">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5356,7 +5356,7 @@
         <v>51.8</v>
       </c>
       <c r="D355">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5370,7 +5370,7 @@
         <v>46.8</v>
       </c>
       <c r="D356">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5384,7 +5384,7 @@
         <v>52.4</v>
       </c>
       <c r="D357">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5398,7 +5398,7 @@
         <v>42.1</v>
       </c>
       <c r="D358">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5412,7 +5412,7 @@
         <v>45.2</v>
       </c>
       <c r="D359">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5426,7 +5426,7 @@
         <v>41.9</v>
       </c>
       <c r="D360">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5440,7 +5440,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D361">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5454,7 +5454,7 @@
         <v>46.2</v>
       </c>
       <c r="D362">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5468,7 +5468,7 @@
         <v>43.3</v>
       </c>
       <c r="D363">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5482,7 +5482,7 @@
         <v>54.8</v>
       </c>
       <c r="D364">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>59.2</v>
       </c>
       <c r="D365">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5524,7 +5524,7 @@
         <v>40.9</v>
       </c>
       <c r="D367">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5538,7 +5538,7 @@
         <v>49.9</v>
       </c>
       <c r="D368">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5552,7 +5552,7 @@
         <v>54.8</v>
       </c>
       <c r="D369">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5566,7 +5566,7 @@
         <v>42.8</v>
       </c>
       <c r="D370">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5580,7 +5580,7 @@
         <v>58.2</v>
       </c>
       <c r="D371">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5594,7 +5594,7 @@
         <v>55</v>
       </c>
       <c r="D372">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5608,7 +5608,7 @@
         <v>43.9</v>
       </c>
       <c r="D373">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5622,7 +5622,7 @@
         <v>47.8</v>
       </c>
       <c r="D374">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5636,7 +5636,7 @@
         <v>44.6</v>
       </c>
       <c r="D375">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5650,7 +5650,7 @@
         <v>44.8</v>
       </c>
       <c r="D376">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>42</v>
       </c>
       <c r="D377">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5678,7 +5678,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D378">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5692,7 +5692,7 @@
         <v>56</v>
       </c>
       <c r="D379">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>42.4</v>
       </c>
       <c r="D380">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5720,7 +5720,7 @@
         <v>47.3</v>
       </c>
       <c r="D381">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5734,7 +5734,7 @@
         <v>43</v>
       </c>
       <c r="D382">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5748,7 +5748,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D383">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5762,7 +5762,7 @@
         <v>57.8</v>
       </c>
       <c r="D384">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5776,7 +5776,7 @@
         <v>40.3</v>
       </c>
       <c r="D385">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5790,7 +5790,7 @@
         <v>51.9</v>
       </c>
       <c r="D386">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5804,7 +5804,7 @@
         <v>48.5</v>
       </c>
       <c r="D387">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5818,7 +5818,7 @@
         <v>49.3</v>
       </c>
       <c r="D388">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5832,7 +5832,7 @@
         <v>55.4</v>
       </c>
       <c r="D389">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5846,7 +5846,7 @@
         <v>47.1</v>
       </c>
       <c r="D390">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5860,7 +5860,7 @@
         <v>57.8</v>
       </c>
       <c r="D391">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>42.5</v>
       </c>
       <c r="D392">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5902,7 +5902,7 @@
         <v>53.4</v>
       </c>
       <c r="D394">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5916,7 +5916,7 @@
         <v>56.6</v>
       </c>
       <c r="D395">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5930,7 +5930,7 @@
         <v>40.7</v>
       </c>
       <c r="D396">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5944,7 +5944,7 @@
         <v>53.3</v>
       </c>
       <c r="D397">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>46.6</v>
       </c>
       <c r="D398">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5972,7 +5972,7 @@
         <v>52.7</v>
       </c>
       <c r="D399">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5986,7 +5986,7 @@
         <v>54.6</v>
       </c>
       <c r="D400">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>55.7</v>
       </c>
       <c r="D401">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>54.6</v>
       </c>
       <c r="D402">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6028,7 +6028,7 @@
         <v>44.3</v>
       </c>
       <c r="D403">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6056,7 +6056,7 @@
         <v>47.1</v>
       </c>
       <c r="D405">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6084,7 +6084,7 @@
         <v>42.1</v>
       </c>
       <c r="D407">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6098,7 +6098,7 @@
         <v>47.9</v>
       </c>
       <c r="D408">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6112,7 +6112,7 @@
         <v>53.6</v>
       </c>
       <c r="D409">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6126,7 +6126,7 @@
         <v>52.8</v>
       </c>
       <c r="D410">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6140,7 +6140,7 @@
         <v>47.2</v>
       </c>
       <c r="D411">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6154,7 +6154,7 @@
         <v>54.9</v>
       </c>
       <c r="D412">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6168,7 +6168,7 @@
         <v>46.8</v>
       </c>
       <c r="D413">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6182,7 +6182,7 @@
         <v>43.1</v>
       </c>
       <c r="D414">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6196,7 +6196,7 @@
         <v>42</v>
       </c>
       <c r="D415">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6210,7 +6210,7 @@
         <v>50.7</v>
       </c>
       <c r="D416">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6224,7 +6224,7 @@
         <v>40.2</v>
       </c>
       <c r="D417">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6238,7 +6238,7 @@
         <v>51.4</v>
       </c>
       <c r="D418">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>55.2</v>
       </c>
       <c r="D419">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6266,7 +6266,7 @@
         <v>41.5</v>
       </c>
       <c r="D420">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6280,7 +6280,7 @@
         <v>41.1</v>
       </c>
       <c r="D421">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>50.8</v>
       </c>
       <c r="D422">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6308,7 +6308,7 @@
         <v>50</v>
       </c>
       <c r="D423">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>48.2</v>
       </c>
       <c r="D424">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6336,7 +6336,7 @@
         <v>48.1</v>
       </c>
       <c r="D425">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6350,7 +6350,7 @@
         <v>51.3</v>
       </c>
       <c r="D426">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6364,7 +6364,7 @@
         <v>51.6</v>
       </c>
       <c r="D427">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6378,7 +6378,7 @@
         <v>52.5</v>
       </c>
       <c r="D428">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6392,7 +6392,7 @@
         <v>41.3</v>
       </c>
       <c r="D429">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>55.5</v>
       </c>
       <c r="D430">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>40.7</v>
       </c>
       <c r="D431">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>45.5</v>
       </c>
       <c r="D432">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6448,7 +6448,7 @@
         <v>43.5</v>
       </c>
       <c r="D433">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6462,7 +6462,7 @@
         <v>44.5</v>
       </c>
       <c r="D434">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6476,7 +6476,7 @@
         <v>47</v>
       </c>
       <c r="D435">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6490,7 +6490,7 @@
         <v>58.7</v>
       </c>
       <c r="D436">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6504,7 +6504,7 @@
         <v>54.3</v>
       </c>
       <c r="D437">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6518,7 +6518,7 @@
         <v>46.9</v>
       </c>
       <c r="D438">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6532,7 +6532,7 @@
         <v>57</v>
       </c>
       <c r="D439">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6546,7 +6546,7 @@
         <v>58.8</v>
       </c>
       <c r="D440">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6560,7 +6560,7 @@
         <v>53.7</v>
       </c>
       <c r="D441">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6574,7 +6574,7 @@
         <v>49.7</v>
       </c>
       <c r="D442">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>46.4</v>
       </c>
       <c r="D443">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6602,7 +6602,7 @@
         <v>41.7</v>
       </c>
       <c r="D444">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6616,7 +6616,7 @@
         <v>43.2</v>
       </c>
       <c r="D445">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6630,7 +6630,7 @@
         <v>58.3</v>
       </c>
       <c r="D446">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6644,7 +6644,7 @@
         <v>46.7</v>
       </c>
       <c r="D447">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6658,7 +6658,7 @@
         <v>40.8</v>
       </c>
       <c r="D448">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6672,7 +6672,7 @@
         <v>49.6</v>
       </c>
       <c r="D449">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6686,7 +6686,7 @@
         <v>54.8</v>
       </c>
       <c r="D450">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6700,7 +6700,7 @@
         <v>57.3</v>
       </c>
       <c r="D451">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6714,7 +6714,7 @@
         <v>43.7</v>
       </c>
       <c r="D452">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6728,7 +6728,7 @@
         <v>56.1</v>
       </c>
       <c r="D453">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6742,7 +6742,7 @@
         <v>52.9</v>
       </c>
       <c r="D454">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6756,7 +6756,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D455">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6770,7 +6770,7 @@
         <v>58.1</v>
       </c>
       <c r="D456">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6784,7 +6784,7 @@
         <v>48.4</v>
       </c>
       <c r="D457">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6798,7 +6798,7 @@
         <v>57.8</v>
       </c>
       <c r="D458">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6826,7 +6826,7 @@
         <v>47.5</v>
       </c>
       <c r="D460">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6840,7 +6840,7 @@
         <v>47.2</v>
       </c>
       <c r="D461">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6854,7 +6854,7 @@
         <v>52.1</v>
       </c>
       <c r="D462">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6868,7 +6868,7 @@
         <v>50.1</v>
       </c>
       <c r="D463">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6882,7 +6882,7 @@
         <v>49.8</v>
       </c>
       <c r="D464">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>52.1</v>
       </c>
       <c r="D465">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6910,7 +6910,7 @@
         <v>48.9</v>
       </c>
       <c r="D466">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6924,7 +6924,7 @@
         <v>45.3</v>
       </c>
       <c r="D467">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6938,7 +6938,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D468">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6952,7 +6952,7 @@
         <v>53.5</v>
       </c>
       <c r="D469">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6966,7 +6966,7 @@
         <v>51.3</v>
       </c>
       <c r="D470">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6980,7 +6980,7 @@
         <v>54.5</v>
       </c>
       <c r="D471">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>55.9</v>
       </c>
       <c r="D472">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7008,7 +7008,7 @@
         <v>41.6</v>
       </c>
       <c r="D473">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7022,7 +7022,7 @@
         <v>51.3</v>
       </c>
       <c r="D474">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7036,7 +7036,7 @@
         <v>53.4</v>
       </c>
       <c r="D475">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7050,7 +7050,7 @@
         <v>50.5</v>
       </c>
       <c r="D476">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>49.9</v>
       </c>
       <c r="D477">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7078,7 +7078,7 @@
         <v>50.5</v>
       </c>
       <c r="D478">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7092,7 +7092,7 @@
         <v>46.1</v>
       </c>
       <c r="D479">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7106,7 +7106,7 @@
         <v>49</v>
       </c>
       <c r="D480">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7120,7 +7120,7 @@
         <v>43.6</v>
       </c>
       <c r="D481">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7134,7 +7134,7 @@
         <v>47.4</v>
       </c>
       <c r="D482">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7148,7 +7148,7 @@
         <v>58.1</v>
       </c>
       <c r="D483">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7162,7 +7162,7 @@
         <v>49.7</v>
       </c>
       <c r="D484">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>51.9</v>
       </c>
       <c r="D485">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7190,7 +7190,7 @@
         <v>58.1</v>
       </c>
       <c r="D486">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7204,7 +7204,7 @@
         <v>52.3</v>
       </c>
       <c r="D487">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7218,7 +7218,7 @@
         <v>56.8</v>
       </c>
       <c r="D488">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7232,7 +7232,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D489">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7246,7 +7246,7 @@
         <v>45.9</v>
       </c>
       <c r="D490">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7260,7 +7260,7 @@
         <v>50.1</v>
       </c>
       <c r="D491">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7274,7 +7274,7 @@
         <v>50.3</v>
       </c>
       <c r="D492">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7288,7 +7288,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D493">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7302,7 +7302,7 @@
         <v>56.8</v>
       </c>
       <c r="D494">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>45.2</v>
       </c>
       <c r="D495">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7330,7 +7330,7 @@
         <v>45.6</v>
       </c>
       <c r="D496">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7344,7 +7344,7 @@
         <v>50</v>
       </c>
       <c r="D497">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7358,7 +7358,7 @@
         <v>47.7</v>
       </c>
       <c r="D498">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7372,7 +7372,7 @@
         <v>43.9</v>
       </c>
       <c r="D499">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7386,7 +7386,7 @@
         <v>59.8</v>
       </c>
       <c r="D500">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7400,7 +7400,7 @@
         <v>50.6</v>
       </c>
       <c r="D501">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7414,7 +7414,7 @@
         <v>49.5</v>
       </c>
       <c r="D502">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7428,7 +7428,7 @@
         <v>53</v>
       </c>
       <c r="D503">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7442,7 +7442,7 @@
         <v>46.4</v>
       </c>
       <c r="D504">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7456,7 +7456,7 @@
         <v>49.6</v>
       </c>
       <c r="D505">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7470,7 +7470,7 @@
         <v>46.9</v>
       </c>
       <c r="D506">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7484,7 +7484,7 @@
         <v>52.5</v>
       </c>
       <c r="D507">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7498,7 +7498,7 @@
         <v>55.9</v>
       </c>
       <c r="D508">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7512,7 +7512,7 @@
         <v>56.1</v>
       </c>
       <c r="D509">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7526,7 +7526,7 @@
         <v>41.8</v>
       </c>
       <c r="D510">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7540,7 +7540,7 @@
         <v>47.9</v>
       </c>
       <c r="D511">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7554,7 +7554,7 @@
         <v>46.1</v>
       </c>
       <c r="D512">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7568,7 +7568,7 @@
         <v>55.2</v>
       </c>
       <c r="D513">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7582,7 +7582,7 @@
         <v>48.2</v>
       </c>
       <c r="D514">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7596,7 +7596,7 @@
         <v>54.8</v>
       </c>
       <c r="D515">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7610,7 +7610,7 @@
         <v>53.8</v>
       </c>
       <c r="D516">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7624,7 +7624,7 @@
         <v>46.8</v>
       </c>
       <c r="D517">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7638,7 +7638,7 @@
         <v>58.1</v>
       </c>
       <c r="D518">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7652,7 +7652,7 @@
         <v>41.7</v>
       </c>
       <c r="D519">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7666,7 +7666,7 @@
         <v>42.1</v>
       </c>
       <c r="D520">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7680,7 +7680,7 @@
         <v>55.5</v>
       </c>
       <c r="D521">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7694,7 +7694,7 @@
         <v>54.1</v>
       </c>
       <c r="D522">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7708,7 +7708,7 @@
         <v>57.7</v>
       </c>
       <c r="D523">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7722,7 +7722,7 @@
         <v>40.3</v>
       </c>
       <c r="D524">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7736,7 +7736,7 @@
         <v>42.8</v>
       </c>
       <c r="D525">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7750,7 +7750,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D526">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7764,7 +7764,7 @@
         <v>54.4</v>
       </c>
       <c r="D527">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7778,7 +7778,7 @@
         <v>42.6</v>
       </c>
       <c r="D528">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7792,7 +7792,7 @@
         <v>57.3</v>
       </c>
       <c r="D529">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7806,7 +7806,7 @@
         <v>54.9</v>
       </c>
       <c r="D530">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7820,7 +7820,7 @@
         <v>51</v>
       </c>
       <c r="D531">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7834,7 +7834,7 @@
         <v>43.6</v>
       </c>
       <c r="D532">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7848,7 +7848,7 @@
         <v>46.8</v>
       </c>
       <c r="D533">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7862,7 +7862,7 @@
         <v>55.6</v>
       </c>
       <c r="D534">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7876,7 +7876,7 @@
         <v>43.7</v>
       </c>
       <c r="D535">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7890,7 +7890,7 @@
         <v>51</v>
       </c>
       <c r="D536">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7904,7 +7904,7 @@
         <v>55.8</v>
       </c>
       <c r="D537">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7918,7 +7918,7 @@
         <v>55.1</v>
       </c>
       <c r="D538">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7932,7 +7932,7 @@
         <v>58.6</v>
       </c>
       <c r="D539">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7946,7 +7946,7 @@
         <v>49.5</v>
       </c>
       <c r="D540">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7960,7 +7960,7 @@
         <v>52.8</v>
       </c>
       <c r="D541">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7974,7 +7974,7 @@
         <v>42.9</v>
       </c>
       <c r="D542">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -7988,7 +7988,7 @@
         <v>42.7</v>
       </c>
       <c r="D543">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8002,7 +8002,7 @@
         <v>46</v>
       </c>
       <c r="D544">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8016,7 +8016,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D545">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8030,7 +8030,7 @@
         <v>50.3</v>
       </c>
       <c r="D546">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>54.7</v>
       </c>
       <c r="D547">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8058,7 +8058,7 @@
         <v>53.4</v>
       </c>
       <c r="D548">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8072,7 +8072,7 @@
         <v>58.2</v>
       </c>
       <c r="D549">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8086,7 +8086,7 @@
         <v>40.1</v>
       </c>
       <c r="D550">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8100,7 +8100,7 @@
         <v>42.9</v>
       </c>
       <c r="D551">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>48.8</v>
       </c>
       <c r="D552">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8128,7 +8128,7 @@
         <v>56.2</v>
       </c>
       <c r="D553">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8142,7 +8142,7 @@
         <v>52.1</v>
       </c>
       <c r="D554">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8156,7 +8156,7 @@
         <v>58.8</v>
       </c>
       <c r="D555">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8170,7 +8170,7 @@
         <v>60</v>
       </c>
       <c r="D556">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8184,7 +8184,7 @@
         <v>59.1</v>
       </c>
       <c r="D557">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8198,7 +8198,7 @@
         <v>53.3</v>
       </c>
       <c r="D558">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8212,7 +8212,7 @@
         <v>44.4</v>
       </c>
       <c r="D559">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8226,7 +8226,7 @@
         <v>48.5</v>
       </c>
       <c r="D560">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8240,7 +8240,7 @@
         <v>40.6</v>
       </c>
       <c r="D561">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8254,7 +8254,7 @@
         <v>57.5</v>
       </c>
       <c r="D562">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8268,7 +8268,7 @@
         <v>40.8</v>
       </c>
       <c r="D563">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8282,7 +8282,7 @@
         <v>52.9</v>
       </c>
       <c r="D564">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8296,7 +8296,7 @@
         <v>53.7</v>
       </c>
       <c r="D565">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8310,7 +8310,7 @@
         <v>44.4</v>
       </c>
       <c r="D566">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8324,7 +8324,7 @@
         <v>54.7</v>
       </c>
       <c r="D567">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8338,7 +8338,7 @@
         <v>52.9</v>
       </c>
       <c r="D568">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8352,7 +8352,7 @@
         <v>45.7</v>
       </c>
       <c r="D569">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8366,7 +8366,7 @@
         <v>57.1</v>
       </c>
       <c r="D570">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8380,7 +8380,7 @@
         <v>40.5</v>
       </c>
       <c r="D571">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8408,7 +8408,7 @@
         <v>41.2</v>
       </c>
       <c r="D573">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8422,7 +8422,7 @@
         <v>40.4</v>
       </c>
       <c r="D574">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8436,7 +8436,7 @@
         <v>49.2</v>
       </c>
       <c r="D575">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -8450,7 +8450,7 @@
         <v>48.7</v>
       </c>
       <c r="D576">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8464,7 +8464,7 @@
         <v>53.7</v>
       </c>
       <c r="D577">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8478,7 +8478,7 @@
         <v>59.7</v>
       </c>
       <c r="D578">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8492,7 +8492,7 @@
         <v>58.6</v>
       </c>
       <c r="D579">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -8506,7 +8506,7 @@
         <v>60</v>
       </c>
       <c r="D580">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8520,7 +8520,7 @@
         <v>54.8</v>
       </c>
       <c r="D581">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8534,7 +8534,7 @@
         <v>42.4</v>
       </c>
       <c r="D582">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -8548,7 +8548,7 @@
         <v>57.3</v>
       </c>
       <c r="D583">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -8562,7 +8562,7 @@
         <v>41.4</v>
       </c>
       <c r="D584">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8576,7 +8576,7 @@
         <v>48</v>
       </c>
       <c r="D585">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -8590,7 +8590,7 @@
         <v>52.1</v>
       </c>
       <c r="D586">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -8604,7 +8604,7 @@
         <v>53</v>
       </c>
       <c r="D587">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -8618,7 +8618,7 @@
         <v>41.7</v>
       </c>
       <c r="D588">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -8632,7 +8632,7 @@
         <v>50.4</v>
       </c>
       <c r="D589">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8646,7 +8646,7 @@
         <v>56.1</v>
       </c>
       <c r="D590">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8674,7 +8674,7 @@
         <v>45</v>
       </c>
       <c r="D592">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -8688,7 +8688,7 @@
         <v>41.2</v>
       </c>
       <c r="D593">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -8702,7 +8702,7 @@
         <v>40.3</v>
       </c>
       <c r="D594">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -8716,7 +8716,7 @@
         <v>51.1</v>
       </c>
       <c r="D595">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -8730,7 +8730,7 @@
         <v>56.7</v>
       </c>
       <c r="D596">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>40.2</v>
       </c>
       <c r="D597">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -8758,7 +8758,7 @@
         <v>55</v>
       </c>
       <c r="D598">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -8772,7 +8772,7 @@
         <v>45.2</v>
       </c>
       <c r="D599">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -8786,7 +8786,7 @@
         <v>55.7</v>
       </c>
       <c r="D600">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -8800,7 +8800,7 @@
         <v>51.8</v>
       </c>
       <c r="D601">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -8814,7 +8814,7 @@
         <v>58.5</v>
       </c>
       <c r="D602">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -8828,7 +8828,7 @@
         <v>49.5</v>
       </c>
       <c r="D603">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -8842,7 +8842,7 @@
         <v>46.6</v>
       </c>
       <c r="D604">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -8856,7 +8856,7 @@
         <v>53.2</v>
       </c>
       <c r="D605">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -8870,7 +8870,7 @@
         <v>45.9</v>
       </c>
       <c r="D606">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -8884,7 +8884,7 @@
         <v>46.1</v>
       </c>
       <c r="D607">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -8898,7 +8898,7 @@
         <v>56</v>
       </c>
       <c r="D608">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -8912,7 +8912,7 @@
         <v>48.6</v>
       </c>
       <c r="D609">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -8926,7 +8926,7 @@
         <v>59.5</v>
       </c>
       <c r="D610">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -8940,7 +8940,7 @@
         <v>57.5</v>
       </c>
       <c r="D611">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -8954,7 +8954,7 @@
         <v>45.2</v>
       </c>
       <c r="D612">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -8968,7 +8968,7 @@
         <v>54.6</v>
       </c>
       <c r="D613">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -8982,7 +8982,7 @@
         <v>49.7</v>
       </c>
       <c r="D614">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -8996,7 +8996,7 @@
         <v>53.1</v>
       </c>
       <c r="D615">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9010,7 +9010,7 @@
         <v>44.8</v>
       </c>
       <c r="D616">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -9024,7 +9024,7 @@
         <v>46.6</v>
       </c>
       <c r="D617">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -9038,7 +9038,7 @@
         <v>41</v>
       </c>
       <c r="D618">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9052,7 +9052,7 @@
         <v>42.4</v>
       </c>
       <c r="D619">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -9066,7 +9066,7 @@
         <v>45.1</v>
       </c>
       <c r="D620">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -9080,7 +9080,7 @@
         <v>51.5</v>
       </c>
       <c r="D621">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -9094,7 +9094,7 @@
         <v>55.3</v>
       </c>
       <c r="D622">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>57.2</v>
       </c>
       <c r="D623">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -9122,7 +9122,7 @@
         <v>44.2</v>
       </c>
       <c r="D624">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -9136,7 +9136,7 @@
         <v>59.3</v>
       </c>
       <c r="D625">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -9150,7 +9150,7 @@
         <v>51.9</v>
       </c>
       <c r="D626">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -9164,7 +9164,7 @@
         <v>50.4</v>
       </c>
       <c r="D627">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -9178,7 +9178,7 @@
         <v>49.2</v>
       </c>
       <c r="D628">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -9192,7 +9192,7 @@
         <v>41.9</v>
       </c>
       <c r="D629">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -9206,7 +9206,7 @@
         <v>40.9</v>
       </c>
       <c r="D630">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -9220,7 +9220,7 @@
         <v>42.3</v>
       </c>
       <c r="D631">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -9234,7 +9234,7 @@
         <v>54.7</v>
       </c>
       <c r="D632">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -9248,7 +9248,7 @@
         <v>46.6</v>
       </c>
       <c r="D633">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -9262,7 +9262,7 @@
         <v>52.8</v>
       </c>
       <c r="D634">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -9290,7 +9290,7 @@
         <v>56.6</v>
       </c>
       <c r="D636">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -9304,7 +9304,7 @@
         <v>46.2</v>
       </c>
       <c r="D637">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -9318,7 +9318,7 @@
         <v>57.1</v>
       </c>
       <c r="D638">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -9346,7 +9346,7 @@
         <v>51.7</v>
       </c>
       <c r="D640">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -9360,7 +9360,7 @@
         <v>57.7</v>
       </c>
       <c r="D641">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -9374,7 +9374,7 @@
         <v>56.5</v>
       </c>
       <c r="D642">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -9388,7 +9388,7 @@
         <v>58.1</v>
       </c>
       <c r="D643">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -9402,7 +9402,7 @@
         <v>44.9</v>
       </c>
       <c r="D644">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -9416,7 +9416,7 @@
         <v>54.5</v>
       </c>
       <c r="D645">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -9430,7 +9430,7 @@
         <v>45.6</v>
       </c>
       <c r="D646">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -9444,7 +9444,7 @@
         <v>56.8</v>
       </c>
       <c r="D647">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9458,7 +9458,7 @@
         <v>45.1</v>
       </c>
       <c r="D648">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -9472,7 +9472,7 @@
         <v>40.9</v>
       </c>
       <c r="D649">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -9486,7 +9486,7 @@
         <v>41.3</v>
       </c>
       <c r="D650">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -9500,7 +9500,7 @@
         <v>43.5</v>
       </c>
       <c r="D651">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -9514,7 +9514,7 @@
         <v>55.5</v>
       </c>
       <c r="D652">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -9528,7 +9528,7 @@
         <v>59.7</v>
       </c>
       <c r="D653">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -9542,7 +9542,7 @@
         <v>44.6</v>
       </c>
       <c r="D654">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -9556,7 +9556,7 @@
         <v>45</v>
       </c>
       <c r="D655">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -9570,7 +9570,7 @@
         <v>58.5</v>
       </c>
       <c r="D656">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -9584,7 +9584,7 @@
         <v>59.5</v>
       </c>
       <c r="D657">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -9598,7 +9598,7 @@
         <v>44.5</v>
       </c>
       <c r="D658">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>45.4</v>
       </c>
       <c r="D659">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -9626,7 +9626,7 @@
         <v>52</v>
       </c>
       <c r="D660">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -9640,7 +9640,7 @@
         <v>41.5</v>
       </c>
       <c r="D661">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -9654,7 +9654,7 @@
         <v>46.3</v>
       </c>
       <c r="D662">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -9668,7 +9668,7 @@
         <v>47.8</v>
       </c>
       <c r="D663">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -9682,7 +9682,7 @@
         <v>50.3</v>
       </c>
       <c r="D664">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -9696,7 +9696,7 @@
         <v>43</v>
       </c>
       <c r="D665">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -9710,7 +9710,7 @@
         <v>43.8</v>
       </c>
       <c r="D666">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -9724,7 +9724,7 @@
         <v>50.7</v>
       </c>
       <c r="D667">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -9738,7 +9738,7 @@
         <v>45.8</v>
       </c>
       <c r="D668">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -9752,7 +9752,7 @@
         <v>49.1</v>
       </c>
       <c r="D669">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -9766,7 +9766,7 @@
         <v>57.3</v>
       </c>
       <c r="D670">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -9780,7 +9780,7 @@
         <v>48.3</v>
       </c>
       <c r="D671">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -9794,7 +9794,7 @@
         <v>49</v>
       </c>
       <c r="D672">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>54.5</v>
       </c>
       <c r="D673">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9822,7 +9822,7 @@
         <v>41.9</v>
       </c>
       <c r="D674">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -9836,7 +9836,7 @@
         <v>48</v>
       </c>
       <c r="D675">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -9850,7 +9850,7 @@
         <v>53</v>
       </c>
       <c r="D676">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -9864,7 +9864,7 @@
         <v>42.1</v>
       </c>
       <c r="D677">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -9878,7 +9878,7 @@
         <v>59.3</v>
       </c>
       <c r="D678">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -9892,7 +9892,7 @@
         <v>47.5</v>
       </c>
       <c r="D679">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -9906,7 +9906,7 @@
         <v>52.5</v>
       </c>
       <c r="D680">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -9920,7 +9920,7 @@
         <v>53.8</v>
       </c>
       <c r="D681">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -9934,7 +9934,7 @@
         <v>44.2</v>
       </c>
       <c r="D682">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -9948,7 +9948,7 @@
         <v>44</v>
       </c>
       <c r="D683">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -9962,7 +9962,7 @@
         <v>56.6</v>
       </c>
       <c r="D684">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -9976,7 +9976,7 @@
         <v>52.2</v>
       </c>
       <c r="D685">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -9990,7 +9990,7 @@
         <v>48.5</v>
       </c>
       <c r="D686">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -10004,7 +10004,7 @@
         <v>56.3</v>
       </c>
       <c r="D687">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -10018,7 +10018,7 @@
         <v>52.4</v>
       </c>
       <c r="D688">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -10046,7 +10046,7 @@
         <v>57.6</v>
       </c>
       <c r="D690">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -10060,7 +10060,7 @@
         <v>41.8</v>
       </c>
       <c r="D691">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -10074,7 +10074,7 @@
         <v>40</v>
       </c>
       <c r="D692">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -10088,7 +10088,7 @@
         <v>52.4</v>
       </c>
       <c r="D693">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -10116,7 +10116,7 @@
         <v>52.7</v>
       </c>
       <c r="D695">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -10130,7 +10130,7 @@
         <v>47</v>
       </c>
       <c r="D696">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -10158,7 +10158,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D698">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>43.4</v>
       </c>
       <c r="D699">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -10186,7 +10186,7 @@
         <v>47.6</v>
       </c>
       <c r="D700">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -10200,7 +10200,7 @@
         <v>54.4</v>
       </c>
       <c r="D701">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -10214,7 +10214,7 @@
         <v>52.2</v>
       </c>
       <c r="D702">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -10228,7 +10228,7 @@
         <v>51.4</v>
       </c>
       <c r="D703">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>48.4</v>
       </c>
       <c r="D704">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -10256,7 +10256,7 @@
         <v>57</v>
       </c>
       <c r="D705">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -10270,7 +10270,7 @@
         <v>53.2</v>
       </c>
       <c r="D706">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -10284,7 +10284,7 @@
         <v>44.6</v>
       </c>
       <c r="D707">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -10298,7 +10298,7 @@
         <v>49.2</v>
       </c>
       <c r="D708">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -10312,7 +10312,7 @@
         <v>46.2</v>
       </c>
       <c r="D709">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -10326,7 +10326,7 @@
         <v>42.5</v>
       </c>
       <c r="D710">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -10340,7 +10340,7 @@
         <v>42</v>
       </c>
       <c r="D711">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -10354,7 +10354,7 @@
         <v>60</v>
       </c>
       <c r="D712">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -10368,7 +10368,7 @@
         <v>50.1</v>
       </c>
       <c r="D713">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -10382,7 +10382,7 @@
         <v>51.7</v>
       </c>
       <c r="D714">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -10396,7 +10396,7 @@
         <v>51.1</v>
       </c>
       <c r="D715">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -10410,7 +10410,7 @@
         <v>49.7</v>
       </c>
       <c r="D716">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -10424,7 +10424,7 @@
         <v>44</v>
       </c>
       <c r="D717">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -10438,7 +10438,7 @@
         <v>43.1</v>
       </c>
       <c r="D718">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -10452,7 +10452,7 @@
         <v>43.4</v>
       </c>
       <c r="D719">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -10466,7 +10466,7 @@
         <v>42.7</v>
       </c>
       <c r="D720">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -10480,7 +10480,7 @@
         <v>59</v>
       </c>
       <c r="D721">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -10494,7 +10494,7 @@
         <v>43.8</v>
       </c>
       <c r="D722">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -10508,7 +10508,7 @@
         <v>57</v>
       </c>
       <c r="D723">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -10522,7 +10522,7 @@
         <v>45.6</v>
       </c>
       <c r="D724">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -10536,7 +10536,7 @@
         <v>55.8</v>
       </c>
       <c r="D725">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -10550,7 +10550,7 @@
         <v>55.2</v>
       </c>
       <c r="D726">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -10564,7 +10564,7 @@
         <v>43.8</v>
       </c>
       <c r="D727">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -10578,7 +10578,7 @@
         <v>59.2</v>
       </c>
       <c r="D728">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -10592,7 +10592,7 @@
         <v>43.7</v>
       </c>
       <c r="D729">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -10606,7 +10606,7 @@
         <v>49.2</v>
       </c>
       <c r="D730">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -10620,7 +10620,7 @@
         <v>47.9</v>
       </c>
       <c r="D731">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10634,7 +10634,7 @@
         <v>42.5</v>
       </c>
       <c r="D732">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -10648,7 +10648,7 @@
         <v>42.8</v>
       </c>
       <c r="D733">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -10662,7 +10662,7 @@
         <v>43.2</v>
       </c>
       <c r="D734">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -10676,7 +10676,7 @@
         <v>59.5</v>
       </c>
       <c r="D735">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -10690,7 +10690,7 @@
         <v>41.2</v>
       </c>
       <c r="D736">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -10704,7 +10704,7 @@
         <v>40.9</v>
       </c>
       <c r="D737">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -10718,7 +10718,7 @@
         <v>47.2</v>
       </c>
       <c r="D738">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -10732,7 +10732,7 @@
         <v>46.5</v>
       </c>
       <c r="D739">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -10746,7 +10746,7 @@
         <v>42.8</v>
       </c>
       <c r="D740">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -10774,7 +10774,7 @@
         <v>46.3</v>
       </c>
       <c r="D742">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -10788,7 +10788,7 @@
         <v>40.8</v>
       </c>
       <c r="D743">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -10802,7 +10802,7 @@
         <v>48.6</v>
       </c>
       <c r="D744">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -10816,7 +10816,7 @@
         <v>42.4</v>
       </c>
       <c r="D745">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -10830,7 +10830,7 @@
         <v>55.5</v>
       </c>
       <c r="D746">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -10844,7 +10844,7 @@
         <v>52.2</v>
       </c>
       <c r="D747">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -10858,7 +10858,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D748">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10886,7 +10886,7 @@
         <v>48.4</v>
       </c>
       <c r="D750">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -10900,7 +10900,7 @@
         <v>49.8</v>
       </c>
       <c r="D751">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -10914,7 +10914,7 @@
         <v>51.5</v>
       </c>
       <c r="D752">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -10928,7 +10928,7 @@
         <v>40.3</v>
       </c>
       <c r="D753">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -10942,7 +10942,7 @@
         <v>48</v>
       </c>
       <c r="D754">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -10956,7 +10956,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D755">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -10970,7 +10970,7 @@
         <v>47.7</v>
       </c>
       <c r="D756">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10984,7 +10984,7 @@
         <v>40.2</v>
       </c>
       <c r="D757">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -10998,7 +10998,7 @@
         <v>49.2</v>
       </c>
       <c r="D758">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -11012,7 +11012,7 @@
         <v>55.7</v>
       </c>
       <c r="D759">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -11026,7 +11026,7 @@
         <v>45</v>
       </c>
       <c r="D760">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -11040,7 +11040,7 @@
         <v>47.7</v>
       </c>
       <c r="D761">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11054,7 +11054,7 @@
         <v>42.9</v>
       </c>
       <c r="D762">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -11068,7 +11068,7 @@
         <v>55.1</v>
       </c>
       <c r="D763">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -11082,7 +11082,7 @@
         <v>49</v>
       </c>
       <c r="D764">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11096,7 +11096,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D765">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -11110,7 +11110,7 @@
         <v>54.2</v>
       </c>
       <c r="D766">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11124,7 +11124,7 @@
         <v>47.8</v>
       </c>
       <c r="D767">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11138,7 +11138,7 @@
         <v>50.6</v>
       </c>
       <c r="D768">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -11152,7 +11152,7 @@
         <v>57.1</v>
       </c>
       <c r="D769">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11166,7 +11166,7 @@
         <v>40.5</v>
       </c>
       <c r="D770">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11180,7 +11180,7 @@
         <v>44.3</v>
       </c>
       <c r="D771">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11194,7 +11194,7 @@
         <v>48.1</v>
       </c>
       <c r="D772">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11222,7 +11222,7 @@
         <v>54.2</v>
       </c>
       <c r="D774">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>40.1</v>
       </c>
       <c r="D775">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -11250,7 +11250,7 @@
         <v>41.2</v>
       </c>
       <c r="D776">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -11264,7 +11264,7 @@
         <v>53.5</v>
       </c>
       <c r="D777">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -11278,7 +11278,7 @@
         <v>44.9</v>
       </c>
       <c r="D778">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -11292,7 +11292,7 @@
         <v>48.3</v>
       </c>
       <c r="D779">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -11306,7 +11306,7 @@
         <v>55.1</v>
       </c>
       <c r="D780">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -11320,7 +11320,7 @@
         <v>59.8</v>
       </c>
       <c r="D781">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -11334,7 +11334,7 @@
         <v>50.2</v>
       </c>
       <c r="D782">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -11348,7 +11348,7 @@
         <v>53.1</v>
       </c>
       <c r="D783">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -11362,7 +11362,7 @@
         <v>56.7</v>
       </c>
       <c r="D784">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -11376,7 +11376,7 @@
         <v>41.4</v>
       </c>
       <c r="D785">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -11390,7 +11390,7 @@
         <v>44.8</v>
       </c>
       <c r="D786">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -11404,7 +11404,7 @@
         <v>50.5</v>
       </c>
       <c r="D787">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -11418,7 +11418,7 @@
         <v>47.3</v>
       </c>
       <c r="D788">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -11432,7 +11432,7 @@
         <v>58.5</v>
       </c>
       <c r="D789">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -11446,7 +11446,7 @@
         <v>55.5</v>
       </c>
       <c r="D790">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -11460,7 +11460,7 @@
         <v>48.6</v>
       </c>
       <c r="D791">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -11474,7 +11474,7 @@
         <v>51.8</v>
       </c>
       <c r="D792">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -11488,7 +11488,7 @@
         <v>49.9</v>
       </c>
       <c r="D793">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -11502,7 +11502,7 @@
         <v>43.3</v>
       </c>
       <c r="D794">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -11516,7 +11516,7 @@
         <v>53.1</v>
       </c>
       <c r="D795">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -11530,7 +11530,7 @@
         <v>53.1</v>
       </c>
       <c r="D796">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -11544,7 +11544,7 @@
         <v>56.8</v>
       </c>
       <c r="D797">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -11558,7 +11558,7 @@
         <v>50.6</v>
       </c>
       <c r="D798">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -11572,7 +11572,7 @@
         <v>55.7</v>
       </c>
       <c r="D799">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -11586,7 +11586,7 @@
         <v>59.2</v>
       </c>
       <c r="D800">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -11600,7 +11600,7 @@
         <v>54.1</v>
       </c>
       <c r="D801">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -11614,7 +11614,7 @@
         <v>40.1</v>
       </c>
       <c r="D802">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -11628,7 +11628,7 @@
         <v>44.1</v>
       </c>
       <c r="D803">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -11642,7 +11642,7 @@
         <v>52.2</v>
       </c>
       <c r="D804">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -11656,7 +11656,7 @@
         <v>53.6</v>
       </c>
       <c r="D805">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -11670,7 +11670,7 @@
         <v>40.4</v>
       </c>
       <c r="D806">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -11684,7 +11684,7 @@
         <v>44.1</v>
       </c>
       <c r="D807">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -11698,7 +11698,7 @@
         <v>46.7</v>
       </c>
       <c r="D808">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -11712,7 +11712,7 @@
         <v>48.1</v>
       </c>
       <c r="D809">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -11726,7 +11726,7 @@
         <v>48.5</v>
       </c>
       <c r="D810">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -11740,7 +11740,7 @@
         <v>53.9</v>
       </c>
       <c r="D811">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -11754,7 +11754,7 @@
         <v>49.8</v>
       </c>
       <c r="D812">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -11768,7 +11768,7 @@
         <v>43.8</v>
       </c>
       <c r="D813">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -11782,7 +11782,7 @@
         <v>55.2</v>
       </c>
       <c r="D814">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -11796,7 +11796,7 @@
         <v>47.7</v>
       </c>
       <c r="D815">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -11810,7 +11810,7 @@
         <v>42.2</v>
       </c>
       <c r="D816">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -11824,7 +11824,7 @@
         <v>52.3</v>
       </c>
       <c r="D817">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -11838,7 +11838,7 @@
         <v>57.3</v>
       </c>
       <c r="D818">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -11852,7 +11852,7 @@
         <v>45.5</v>
       </c>
       <c r="D819">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -11866,7 +11866,7 @@
         <v>48.8</v>
       </c>
       <c r="D820">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -11880,7 +11880,7 @@
         <v>59</v>
       </c>
       <c r="D821">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -11894,7 +11894,7 @@
         <v>51.3</v>
       </c>
       <c r="D822">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -11908,7 +11908,7 @@
         <v>50.9</v>
       </c>
       <c r="D823">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -11922,7 +11922,7 @@
         <v>59.6</v>
       </c>
       <c r="D824">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -11936,7 +11936,7 @@
         <v>53.5</v>
       </c>
       <c r="D825">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -11950,7 +11950,7 @@
         <v>49.9</v>
       </c>
       <c r="D826">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D827">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -11978,7 +11978,7 @@
         <v>54</v>
       </c>
       <c r="D828">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -11992,7 +11992,7 @@
         <v>54.7</v>
       </c>
       <c r="D829">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12020,7 +12020,7 @@
         <v>49.1</v>
       </c>
       <c r="D831">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12034,7 +12034,7 @@
         <v>52.1</v>
       </c>
       <c r="D832">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -12048,7 +12048,7 @@
         <v>54.6</v>
       </c>
       <c r="D833">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -12062,7 +12062,7 @@
         <v>48.7</v>
       </c>
       <c r="D834">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -12076,7 +12076,7 @@
         <v>48.9</v>
       </c>
       <c r="D835">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -12090,7 +12090,7 @@
         <v>54.4</v>
       </c>
       <c r="D836">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -12104,7 +12104,7 @@
         <v>52</v>
       </c>
       <c r="D837">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -12118,7 +12118,7 @@
         <v>42.1</v>
       </c>
       <c r="D838">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -12132,7 +12132,7 @@
         <v>55.6</v>
       </c>
       <c r="D839">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -12146,7 +12146,7 @@
         <v>40.6</v>
       </c>
       <c r="D840">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -12160,7 +12160,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D841">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -12174,7 +12174,7 @@
         <v>59.6</v>
       </c>
       <c r="D842">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -12188,7 +12188,7 @@
         <v>58.7</v>
       </c>
       <c r="D843">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -12202,7 +12202,7 @@
         <v>49</v>
       </c>
       <c r="D844">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -12216,7 +12216,7 @@
         <v>50.3</v>
       </c>
       <c r="D845">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -12230,7 +12230,7 @@
         <v>55.1</v>
       </c>
       <c r="D846">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -12244,7 +12244,7 @@
         <v>51.4</v>
       </c>
       <c r="D847">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -12258,7 +12258,7 @@
         <v>51.7</v>
       </c>
       <c r="D848">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -12272,7 +12272,7 @@
         <v>43.9</v>
       </c>
       <c r="D849">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -12286,7 +12286,7 @@
         <v>57.1</v>
       </c>
       <c r="D850">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -12300,7 +12300,7 @@
         <v>48.9</v>
       </c>
       <c r="D851">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -12314,7 +12314,7 @@
         <v>41.1</v>
       </c>
       <c r="D852">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -12328,7 +12328,7 @@
         <v>51</v>
       </c>
       <c r="D853">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -12342,7 +12342,7 @@
         <v>46.2</v>
       </c>
       <c r="D854">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -12356,7 +12356,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D855">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -12370,7 +12370,7 @@
         <v>44.7</v>
       </c>
       <c r="D856">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -12384,7 +12384,7 @@
         <v>58.6</v>
       </c>
       <c r="D857">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -12398,7 +12398,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D858">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -12426,7 +12426,7 @@
         <v>44</v>
       </c>
       <c r="D860">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -12440,7 +12440,7 @@
         <v>50.1</v>
       </c>
       <c r="D861">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -12454,7 +12454,7 @@
         <v>54.3</v>
       </c>
       <c r="D862">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -12468,7 +12468,7 @@
         <v>43.6</v>
       </c>
       <c r="D863">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -12482,7 +12482,7 @@
         <v>46.9</v>
       </c>
       <c r="D864">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -12496,7 +12496,7 @@
         <v>42.7</v>
       </c>
       <c r="D865">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -12510,7 +12510,7 @@
         <v>44.8</v>
       </c>
       <c r="D866">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -12524,7 +12524,7 @@
         <v>51</v>
       </c>
       <c r="D867">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -12538,7 +12538,7 @@
         <v>43.8</v>
       </c>
       <c r="D868">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -12552,7 +12552,7 @@
         <v>53.3</v>
       </c>
       <c r="D869">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -12566,7 +12566,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D870">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -12580,7 +12580,7 @@
         <v>54.8</v>
       </c>
       <c r="D871">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -12594,7 +12594,7 @@
         <v>53.2</v>
       </c>
       <c r="D872">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -12608,7 +12608,7 @@
         <v>50.6</v>
       </c>
       <c r="D873">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -12622,7 +12622,7 @@
         <v>41.8</v>
       </c>
       <c r="D874">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -12636,7 +12636,7 @@
         <v>58.2</v>
       </c>
       <c r="D875">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -12650,7 +12650,7 @@
         <v>46</v>
       </c>
       <c r="D876">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -12664,7 +12664,7 @@
         <v>47.3</v>
       </c>
       <c r="D877">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -12678,7 +12678,7 @@
         <v>42.2</v>
       </c>
       <c r="D878">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -12692,7 +12692,7 @@
         <v>57.5</v>
       </c>
       <c r="D879">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -12706,7 +12706,7 @@
         <v>52.5</v>
       </c>
       <c r="D880">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -12720,7 +12720,7 @@
         <v>41.3</v>
       </c>
       <c r="D881">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -12734,7 +12734,7 @@
         <v>55.8</v>
       </c>
       <c r="D882">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -12748,7 +12748,7 @@
         <v>40.4</v>
       </c>
       <c r="D883">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -12762,7 +12762,7 @@
         <v>46</v>
       </c>
       <c r="D884">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -12776,7 +12776,7 @@
         <v>57.6</v>
       </c>
       <c r="D885">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -12790,7 +12790,7 @@
         <v>58.8</v>
       </c>
       <c r="D886">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -12804,7 +12804,7 @@
         <v>42.8</v>
       </c>
       <c r="D887">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -12818,7 +12818,7 @@
         <v>55.3</v>
       </c>
       <c r="D888">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -12832,7 +12832,7 @@
         <v>45.8</v>
       </c>
       <c r="D889">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -12846,7 +12846,7 @@
         <v>57.7</v>
       </c>
       <c r="D890">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -12860,7 +12860,7 @@
         <v>49.6</v>
       </c>
       <c r="D891">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -12874,7 +12874,7 @@
         <v>48.9</v>
       </c>
       <c r="D892">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -12888,7 +12888,7 @@
         <v>49.4</v>
       </c>
       <c r="D893">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -12902,7 +12902,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D894">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -12916,7 +12916,7 @@
         <v>52.6</v>
       </c>
       <c r="D895">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -12930,7 +12930,7 @@
         <v>48.6</v>
       </c>
       <c r="D896">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -12944,7 +12944,7 @@
         <v>59.1</v>
       </c>
       <c r="D897">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -12958,7 +12958,7 @@
         <v>42.9</v>
       </c>
       <c r="D898">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -12972,7 +12972,7 @@
         <v>47.5</v>
       </c>
       <c r="D899">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -12986,7 +12986,7 @@
         <v>58</v>
       </c>
       <c r="D900">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -13000,7 +13000,7 @@
         <v>53.4</v>
       </c>
       <c r="D901">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -13014,7 +13014,7 @@
         <v>51.6</v>
       </c>
       <c r="D902">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>52</v>
       </c>
       <c r="D903">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -13042,7 +13042,7 @@
         <v>44.9</v>
       </c>
       <c r="D904">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -13056,7 +13056,7 @@
         <v>42.5</v>
       </c>
       <c r="D905">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -13070,7 +13070,7 @@
         <v>47.3</v>
       </c>
       <c r="D906">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -13084,7 +13084,7 @@
         <v>43.6</v>
       </c>
       <c r="D907">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -13098,7 +13098,7 @@
         <v>53.8</v>
       </c>
       <c r="D908">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -13112,7 +13112,7 @@
         <v>41.7</v>
       </c>
       <c r="D909">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -13126,7 +13126,7 @@
         <v>42.6</v>
       </c>
       <c r="D910">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -13140,7 +13140,7 @@
         <v>49.4</v>
       </c>
       <c r="D911">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -13154,7 +13154,7 @@
         <v>42.8</v>
       </c>
       <c r="D912">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -13168,7 +13168,7 @@
         <v>57.1</v>
       </c>
       <c r="D913">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -13182,7 +13182,7 @@
         <v>48.7</v>
       </c>
       <c r="D914">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -13196,7 +13196,7 @@
         <v>47</v>
       </c>
       <c r="D915">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -13210,7 +13210,7 @@
         <v>43.2</v>
       </c>
       <c r="D916">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -13224,7 +13224,7 @@
         <v>53.7</v>
       </c>
       <c r="D917">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -13238,7 +13238,7 @@
         <v>58.7</v>
       </c>
       <c r="D918">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -13252,7 +13252,7 @@
         <v>51.1</v>
       </c>
       <c r="D919">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -13266,7 +13266,7 @@
         <v>53.9</v>
       </c>
       <c r="D920">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -13280,7 +13280,7 @@
         <v>59.7</v>
       </c>
       <c r="D921">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -13294,7 +13294,7 @@
         <v>60</v>
       </c>
       <c r="D922">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -13308,7 +13308,7 @@
         <v>43.2</v>
       </c>
       <c r="D923">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -13322,7 +13322,7 @@
         <v>45.4</v>
       </c>
       <c r="D924">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -13336,7 +13336,7 @@
         <v>42.2</v>
       </c>
       <c r="D925">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="926" spans="1:4">
@@ -13350,7 +13350,7 @@
         <v>49.3</v>
       </c>
       <c r="D926">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -13364,7 +13364,7 @@
         <v>45.6</v>
       </c>
       <c r="D927">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="928" spans="1:4">
@@ -13378,7 +13378,7 @@
         <v>43.9</v>
       </c>
       <c r="D928">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -13392,7 +13392,7 @@
         <v>40</v>
       </c>
       <c r="D929">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -13406,7 +13406,7 @@
         <v>43</v>
       </c>
       <c r="D930">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -13420,7 +13420,7 @@
         <v>56.7</v>
       </c>
       <c r="D931">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -13434,7 +13434,7 @@
         <v>44.2</v>
       </c>
       <c r="D932">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="933" spans="1:4">
@@ -13448,7 +13448,7 @@
         <v>40.1</v>
       </c>
       <c r="D933">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -13462,7 +13462,7 @@
         <v>47.2</v>
       </c>
       <c r="D934">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -13476,7 +13476,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D935">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -13490,7 +13490,7 @@
         <v>45.6</v>
       </c>
       <c r="D936">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -13504,7 +13504,7 @@
         <v>41.4</v>
       </c>
       <c r="D937">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -13518,7 +13518,7 @@
         <v>52.6</v>
       </c>
       <c r="D938">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -13532,7 +13532,7 @@
         <v>50.2</v>
       </c>
       <c r="D939">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -13546,7 +13546,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D940">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="941" spans="1:4">
@@ -13560,7 +13560,7 @@
         <v>45</v>
       </c>
       <c r="D941">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -13574,7 +13574,7 @@
         <v>51.6</v>
       </c>
       <c r="D942">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -13588,7 +13588,7 @@
         <v>56.1</v>
       </c>
       <c r="D943">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -13602,7 +13602,7 @@
         <v>50.2</v>
       </c>
       <c r="D944">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -13616,7 +13616,7 @@
         <v>50.7</v>
       </c>
       <c r="D945">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -13630,7 +13630,7 @@
         <v>55</v>
       </c>
       <c r="D946">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -13644,7 +13644,7 @@
         <v>53.1</v>
       </c>
       <c r="D947">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -13658,7 +13658,7 @@
         <v>47.5</v>
       </c>
       <c r="D948">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -13672,7 +13672,7 @@
         <v>59.3</v>
       </c>
       <c r="D949">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -13686,7 +13686,7 @@
         <v>45.7</v>
       </c>
       <c r="D950">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -13700,7 +13700,7 @@
         <v>51.8</v>
       </c>
       <c r="D951">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -13714,7 +13714,7 @@
         <v>43.6</v>
       </c>
       <c r="D952">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -13728,7 +13728,7 @@
         <v>58.3</v>
       </c>
       <c r="D953">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -13742,7 +13742,7 @@
         <v>47.3</v>
       </c>
       <c r="D954">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -13756,7 +13756,7 @@
         <v>42.7</v>
       </c>
       <c r="D955">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -13770,7 +13770,7 @@
         <v>58.5</v>
       </c>
       <c r="D956">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -13784,7 +13784,7 @@
         <v>49.8</v>
       </c>
       <c r="D957">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -13798,7 +13798,7 @@
         <v>58.7</v>
       </c>
       <c r="D958">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -13812,7 +13812,7 @@
         <v>58</v>
       </c>
       <c r="D959">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -13826,7 +13826,7 @@
         <v>47.4</v>
       </c>
       <c r="D960">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -13840,7 +13840,7 @@
         <v>54.4</v>
       </c>
       <c r="D961">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -13854,7 +13854,7 @@
         <v>49.4</v>
       </c>
       <c r="D962">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -13868,7 +13868,7 @@
         <v>49.2</v>
       </c>
       <c r="D963">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -13882,7 +13882,7 @@
         <v>48.9</v>
       </c>
       <c r="D964">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -13896,7 +13896,7 @@
         <v>52.2</v>
       </c>
       <c r="D965">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -13910,7 +13910,7 @@
         <v>56.2</v>
       </c>
       <c r="D966">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -13924,7 +13924,7 @@
         <v>56.3</v>
       </c>
       <c r="D967">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -13938,7 +13938,7 @@
         <v>44.2</v>
       </c>
       <c r="D968">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -13952,7 +13952,7 @@
         <v>58.8</v>
       </c>
       <c r="D969">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -13966,7 +13966,7 @@
         <v>58</v>
       </c>
       <c r="D970">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -13980,7 +13980,7 @@
         <v>55.9</v>
       </c>
       <c r="D971">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -13994,7 +13994,7 @@
         <v>53.9</v>
       </c>
       <c r="D972">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -14008,7 +14008,7 @@
         <v>57.5</v>
       </c>
       <c r="D973">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -14022,7 +14022,7 @@
         <v>55</v>
       </c>
       <c r="D974">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -14036,7 +14036,7 @@
         <v>47.1</v>
       </c>
       <c r="D975">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
       <c r="D976">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14064,7 +14064,7 @@
         <v>43.7</v>
       </c>
       <c r="D977">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>49.9</v>
       </c>
       <c r="D979">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -14106,7 +14106,7 @@
         <v>54</v>
       </c>
       <c r="D980">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -14120,7 +14120,7 @@
         <v>44.9</v>
       </c>
       <c r="D981">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -14134,7 +14134,7 @@
         <v>44.5</v>
       </c>
       <c r="D982">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -14148,7 +14148,7 @@
         <v>42.1</v>
       </c>
       <c r="D983">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -14162,7 +14162,7 @@
         <v>59.6</v>
       </c>
       <c r="D984">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -14176,7 +14176,7 @@
         <v>45.7</v>
       </c>
       <c r="D985">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -14190,7 +14190,7 @@
         <v>51.4</v>
       </c>
       <c r="D986">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -14204,7 +14204,7 @@
         <v>46.1</v>
       </c>
       <c r="D987">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -14218,7 +14218,7 @@
         <v>45.4</v>
       </c>
       <c r="D988">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -14232,7 +14232,7 @@
         <v>41.1</v>
       </c>
       <c r="D989">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -14246,7 +14246,7 @@
         <v>53.5</v>
       </c>
       <c r="D990">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -14260,7 +14260,7 @@
         <v>45.9</v>
       </c>
       <c r="D991">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -14274,7 +14274,7 @@
         <v>43.5</v>
       </c>
       <c r="D992">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -14288,7 +14288,7 @@
         <v>44.3</v>
       </c>
       <c r="D993">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -14316,7 +14316,7 @@
         <v>51.6</v>
       </c>
       <c r="D995">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -14330,7 +14330,7 @@
         <v>44.8</v>
       </c>
       <c r="D996">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -14344,7 +14344,7 @@
         <v>47.4</v>
       </c>
       <c r="D997">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -14358,7 +14358,7 @@
         <v>45.8</v>
       </c>
       <c r="D998">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -14372,7 +14372,7 @@
         <v>42.3</v>
       </c>
       <c r="D999">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -14386,7 +14386,7 @@
         <v>51</v>
       </c>
       <c r="D1000">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -14400,7 +14400,7 @@
         <v>59.3</v>
       </c>
       <c r="D1001">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -414,7 +414,7 @@
         <v>47.1</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>47.5</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,7 +442,7 @@
         <v>54.3</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,7 +456,7 @@
         <v>51.2</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>42.2</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>44.5</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +498,7 @@
         <v>43.9</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,7 +512,7 @@
         <v>55.3</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>44.7</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>55.3</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>52.4</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,7 +568,7 @@
         <v>53.7</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,7 +582,7 @@
         <v>50.1</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,7 +596,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D15">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,7 +610,7 @@
         <v>57.2</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,7 +624,7 @@
         <v>55.4</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -652,7 +652,7 @@
         <v>56.8</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,7 +666,7 @@
         <v>45.5</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -694,7 +694,7 @@
         <v>53.6</v>
       </c>
       <c r="D22">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,7 +708,7 @@
         <v>49.7</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,7 +722,7 @@
         <v>51.8</v>
       </c>
       <c r="D24">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,7 +736,7 @@
         <v>59.8</v>
       </c>
       <c r="D25">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,7 +750,7 @@
         <v>57.8</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,7 +764,7 @@
         <v>55.4</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,7 +778,7 @@
         <v>49.1</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,7 +792,7 @@
         <v>40.4</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,7 +806,7 @@
         <v>47</v>
       </c>
       <c r="D30">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,7 +820,7 @@
         <v>48</v>
       </c>
       <c r="D31">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -862,7 +862,7 @@
         <v>46.6</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -890,7 +890,7 @@
         <v>49.3</v>
       </c>
       <c r="D36">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -918,7 +918,7 @@
         <v>48.7</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,7 +932,7 @@
         <v>50.8</v>
       </c>
       <c r="D39">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,7 +946,7 @@
         <v>57.5</v>
       </c>
       <c r="D40">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,7 +960,7 @@
         <v>50.8</v>
       </c>
       <c r="D41">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -988,7 +988,7 @@
         <v>44.7</v>
       </c>
       <c r="D43">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>41.6</v>
       </c>
       <c r="D45">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>56.2</v>
       </c>
       <c r="D46">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>55.8</v>
       </c>
       <c r="D47">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>45.5</v>
       </c>
       <c r="D49">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>56.3</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>49.3</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>53.7</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>41.2</v>
       </c>
       <c r="D54">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>58.8</v>
       </c>
       <c r="D56">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>59.6</v>
       </c>
       <c r="D57">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>59.8</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>57.8</v>
       </c>
       <c r="D59">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>41.3</v>
       </c>
       <c r="D61">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,7 +1254,7 @@
         <v>48.8</v>
       </c>
       <c r="D62">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>47.4</v>
       </c>
       <c r="D63">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>48.7</v>
       </c>
       <c r="D64">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>48.2</v>
       </c>
       <c r="D65">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>50.4</v>
       </c>
       <c r="D66">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>43.3</v>
       </c>
       <c r="D67">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>52.9</v>
       </c>
       <c r="D68">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D69">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>45.8</v>
       </c>
       <c r="D70">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="D71">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>52</v>
       </c>
       <c r="D72">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>56.5</v>
       </c>
       <c r="D73">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,7 +1422,7 @@
         <v>53</v>
       </c>
       <c r="D74">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>43.4</v>
       </c>
       <c r="D75">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="D76">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>55.7</v>
       </c>
       <c r="D78">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>42.5</v>
       </c>
       <c r="D79">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>45.9</v>
       </c>
       <c r="D80">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>58.5</v>
       </c>
       <c r="D81">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,7 +1534,7 @@
         <v>45.3</v>
       </c>
       <c r="D82">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>59</v>
       </c>
       <c r="D83">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>44.4</v>
       </c>
       <c r="D85">
-        <v>79</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1590,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="D86">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>41.6</v>
       </c>
       <c r="D87">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>54.6</v>
       </c>
       <c r="D88">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>59.1</v>
       </c>
       <c r="D90">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D92">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>52.8</v>
       </c>
       <c r="D93">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>51.5</v>
       </c>
       <c r="D94">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>44.2</v>
       </c>
       <c r="D96">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>55.6</v>
       </c>
       <c r="D97">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1772,7 +1772,7 @@
         <v>41.3</v>
       </c>
       <c r="D99">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>51.1</v>
       </c>
       <c r="D100">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>41.1</v>
       </c>
       <c r="D102">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1828,7 +1828,7 @@
         <v>42.4</v>
       </c>
       <c r="D103">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>49.5</v>
       </c>
       <c r="D104">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1856,7 +1856,7 @@
         <v>40.7</v>
       </c>
       <c r="D105">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>40.7</v>
       </c>
       <c r="D106">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>41.6</v>
       </c>
       <c r="D107">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>43.4</v>
       </c>
       <c r="D108">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>54.2</v>
       </c>
       <c r="D109">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1926,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="D110">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>44.5</v>
       </c>
       <c r="D112">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>42.7</v>
       </c>
       <c r="D113">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1982,7 +1982,7 @@
         <v>57.8</v>
       </c>
       <c r="D114">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1996,7 +1996,7 @@
         <v>46.8</v>
       </c>
       <c r="D115">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>40</v>
       </c>
       <c r="D116">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="D117">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2038,7 +2038,7 @@
         <v>45.1</v>
       </c>
       <c r="D118">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2052,7 +2052,7 @@
         <v>41.2</v>
       </c>
       <c r="D119">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>50.4</v>
       </c>
       <c r="D120">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>43.1</v>
       </c>
       <c r="D121">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D122">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2108,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="D123">
-        <v>74</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>56.7</v>
       </c>
       <c r="D124">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>50.5</v>
       </c>
       <c r="D126">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2164,7 +2164,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D127">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>57.2</v>
       </c>
       <c r="D128">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>56.5</v>
       </c>
       <c r="D129">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>41.8</v>
       </c>
       <c r="D130">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>46.6</v>
       </c>
       <c r="D131">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D132">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2248,7 +2248,7 @@
         <v>40.6</v>
       </c>
       <c r="D133">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>56.1</v>
       </c>
       <c r="D134">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>54.4</v>
       </c>
       <c r="D135">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>58.3</v>
       </c>
       <c r="D136">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>48.3</v>
       </c>
       <c r="D137">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2318,7 +2318,7 @@
         <v>59.2</v>
       </c>
       <c r="D138">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>45.8</v>
       </c>
       <c r="D139">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D140">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>57.6</v>
       </c>
       <c r="D141">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>42.6</v>
       </c>
       <c r="D142">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>49.5</v>
       </c>
       <c r="D143">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>46.7</v>
       </c>
       <c r="D144">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>50.8</v>
       </c>
       <c r="D145">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>47.8</v>
       </c>
       <c r="D146">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2444,7 +2444,7 @@
         <v>51.6</v>
       </c>
       <c r="D147">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D149">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>43.4</v>
       </c>
       <c r="D150">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>50.6</v>
       </c>
       <c r="D151">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>49.9</v>
       </c>
       <c r="D152">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>48.5</v>
       </c>
       <c r="D153">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>50.2</v>
       </c>
       <c r="D154">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>47.9</v>
       </c>
       <c r="D155">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>58.2</v>
       </c>
       <c r="D156">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>52.5</v>
       </c>
       <c r="D157">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>52.6</v>
       </c>
       <c r="D158">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="D159">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>50.9</v>
       </c>
       <c r="D160">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>58</v>
       </c>
       <c r="D161">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>40.6</v>
       </c>
       <c r="D162">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>58.3</v>
       </c>
       <c r="D163">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>46.4</v>
       </c>
       <c r="D164">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>51.2</v>
       </c>
       <c r="D165">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>43.1</v>
       </c>
       <c r="D166">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>48.2</v>
       </c>
       <c r="D167">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="D168">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2752,7 +2752,7 @@
         <v>45.1</v>
       </c>
       <c r="D169">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>51.2</v>
       </c>
       <c r="D170">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2780,7 +2780,7 @@
         <v>40.6</v>
       </c>
       <c r="D171">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>55.5</v>
       </c>
       <c r="D172">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2822,7 +2822,7 @@
         <v>47.5</v>
       </c>
       <c r="D174">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>47.9</v>
       </c>
       <c r="D175">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>58.6</v>
       </c>
       <c r="D176">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>46.2</v>
       </c>
       <c r="D177">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>46.9</v>
       </c>
       <c r="D178">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>54.3</v>
       </c>
       <c r="D180">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>48.2</v>
       </c>
       <c r="D181">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>54.2</v>
       </c>
       <c r="D182">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2948,7 +2948,7 @@
         <v>58.8</v>
       </c>
       <c r="D183">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>58.2</v>
       </c>
       <c r="D184">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D185">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>49.1</v>
       </c>
       <c r="D186">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>51.7</v>
       </c>
       <c r="D187">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>44.1</v>
       </c>
       <c r="D188">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>40</v>
       </c>
       <c r="D189">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3046,7 +3046,7 @@
         <v>46.1</v>
       </c>
       <c r="D190">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3060,7 +3060,7 @@
         <v>45.2</v>
       </c>
       <c r="D191">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>50.9</v>
       </c>
       <c r="D192">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>59.5</v>
       </c>
       <c r="D193">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>50.8</v>
       </c>
       <c r="D194">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>55.2</v>
       </c>
       <c r="D195">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>50.6</v>
       </c>
       <c r="D196">
-        <v>73</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3144,7 +3144,7 @@
         <v>41.4</v>
       </c>
       <c r="D197">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>47.2</v>
       </c>
       <c r="D198">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>41.6</v>
       </c>
       <c r="D199">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>53.2</v>
       </c>
       <c r="D200">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>49.6</v>
       </c>
       <c r="D201">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3214,7 +3214,7 @@
         <v>59.2</v>
       </c>
       <c r="D202">
-        <v>75</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>52.7</v>
       </c>
       <c r="D203">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>51.2</v>
       </c>
       <c r="D204">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3256,7 +3256,7 @@
         <v>56</v>
       </c>
       <c r="D205">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3270,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="D206">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>55.9</v>
       </c>
       <c r="D208">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>45.9</v>
       </c>
       <c r="D209">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3326,7 +3326,7 @@
         <v>43.5</v>
       </c>
       <c r="D210">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>56.6</v>
       </c>
       <c r="D211">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>41.5</v>
       </c>
       <c r="D212">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3368,7 +3368,7 @@
         <v>44.6</v>
       </c>
       <c r="D213">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>43.1</v>
       </c>
       <c r="D215">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3410,7 +3410,7 @@
         <v>47</v>
       </c>
       <c r="D216">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3424,7 +3424,7 @@
         <v>54</v>
       </c>
       <c r="D217">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3438,7 +3438,7 @@
         <v>51.9</v>
       </c>
       <c r="D218">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3452,7 +3452,7 @@
         <v>44.7</v>
       </c>
       <c r="D219">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>49.4</v>
       </c>
       <c r="D220">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>40.6</v>
       </c>
       <c r="D221">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>54.9</v>
       </c>
       <c r="D222">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>40.2</v>
       </c>
       <c r="D223">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3522,7 +3522,7 @@
         <v>48.4</v>
       </c>
       <c r="D224">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3536,7 +3536,7 @@
         <v>41.9</v>
       </c>
       <c r="D225">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3564,7 +3564,7 @@
         <v>51.4</v>
       </c>
       <c r="D227">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>57.7</v>
       </c>
       <c r="D228">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D230">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3620,7 +3620,7 @@
         <v>48.4</v>
       </c>
       <c r="D231">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3634,7 +3634,7 @@
         <v>52.6</v>
       </c>
       <c r="D232">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3648,7 +3648,7 @@
         <v>40.5</v>
       </c>
       <c r="D233">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>40.4</v>
       </c>
       <c r="D234">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3676,7 +3676,7 @@
         <v>47.6</v>
       </c>
       <c r="D235">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3690,7 +3690,7 @@
         <v>44.3</v>
       </c>
       <c r="D236">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3704,7 +3704,7 @@
         <v>55.9</v>
       </c>
       <c r="D237">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3718,7 +3718,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D238">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3732,7 +3732,7 @@
         <v>41.8</v>
       </c>
       <c r="D239">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3746,7 +3746,7 @@
         <v>54.1</v>
       </c>
       <c r="D240">
-        <v>77</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3760,7 +3760,7 @@
         <v>54.9</v>
       </c>
       <c r="D241">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3774,7 +3774,7 @@
         <v>57.3</v>
       </c>
       <c r="D242">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>40.1</v>
       </c>
       <c r="D243">
-        <v>79</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3802,7 +3802,7 @@
         <v>40.9</v>
       </c>
       <c r="D244">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3816,7 +3816,7 @@
         <v>51.3</v>
       </c>
       <c r="D245">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3830,7 +3830,7 @@
         <v>51.5</v>
       </c>
       <c r="D246">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3844,7 +3844,7 @@
         <v>53.9</v>
       </c>
       <c r="D247">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3858,7 +3858,7 @@
         <v>46.8</v>
       </c>
       <c r="D248">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3872,7 +3872,7 @@
         <v>51.1</v>
       </c>
       <c r="D249">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>49</v>
       </c>
       <c r="D250">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3900,7 +3900,7 @@
         <v>46.4</v>
       </c>
       <c r="D251">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3914,7 +3914,7 @@
         <v>42.3</v>
       </c>
       <c r="D252">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3928,7 +3928,7 @@
         <v>50.4</v>
       </c>
       <c r="D253">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3942,7 +3942,7 @@
         <v>49.7</v>
       </c>
       <c r="D254">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3956,7 +3956,7 @@
         <v>55.1</v>
       </c>
       <c r="D255">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3970,7 +3970,7 @@
         <v>56</v>
       </c>
       <c r="D256">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>53.4</v>
       </c>
       <c r="D257">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>50.4</v>
       </c>
       <c r="D258">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>46.3</v>
       </c>
       <c r="D259">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>42.3</v>
       </c>
       <c r="D260">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="D261">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4054,7 +4054,7 @@
         <v>58.3</v>
       </c>
       <c r="D262">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4068,7 +4068,7 @@
         <v>45.4</v>
       </c>
       <c r="D263">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>52</v>
       </c>
       <c r="D264">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>45.8</v>
       </c>
       <c r="D265">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4110,7 +4110,7 @@
         <v>44.6</v>
       </c>
       <c r="D266">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4138,7 +4138,7 @@
         <v>44.4</v>
       </c>
       <c r="D268">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>54.1</v>
       </c>
       <c r="D269">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>59.3</v>
       </c>
       <c r="D270">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4180,7 +4180,7 @@
         <v>40.2</v>
       </c>
       <c r="D271">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4194,7 +4194,7 @@
         <v>54.2</v>
       </c>
       <c r="D272">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4236,7 +4236,7 @@
         <v>44.1</v>
       </c>
       <c r="D275">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4264,7 +4264,7 @@
         <v>48.6</v>
       </c>
       <c r="D277">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4278,7 +4278,7 @@
         <v>49.4</v>
       </c>
       <c r="D278">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>45.7</v>
       </c>
       <c r="D279">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4306,7 +4306,7 @@
         <v>46.3</v>
       </c>
       <c r="D280">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4334,7 +4334,7 @@
         <v>41.5</v>
       </c>
       <c r="D282">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4348,7 +4348,7 @@
         <v>55.4</v>
       </c>
       <c r="D283">
-        <v>80</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4362,7 +4362,7 @@
         <v>42.3</v>
       </c>
       <c r="D284">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4376,7 +4376,7 @@
         <v>44.8</v>
       </c>
       <c r="D285">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>58.7</v>
       </c>
       <c r="D287">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>53.9</v>
       </c>
       <c r="D288">
-        <v>79</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>46.3</v>
       </c>
       <c r="D289">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>41</v>
       </c>
       <c r="D290">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>41.7</v>
       </c>
       <c r="D291">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4474,7 +4474,7 @@
         <v>46.1</v>
       </c>
       <c r="D292">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4488,7 +4488,7 @@
         <v>51.9</v>
       </c>
       <c r="D293">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4502,7 +4502,7 @@
         <v>54.3</v>
       </c>
       <c r="D294">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>42</v>
       </c>
       <c r="D296">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4544,7 +4544,7 @@
         <v>45.5</v>
       </c>
       <c r="D297">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4558,7 +4558,7 @@
         <v>56.2</v>
       </c>
       <c r="D298">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4572,7 +4572,7 @@
         <v>52.7</v>
       </c>
       <c r="D299">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4586,7 +4586,7 @@
         <v>43.3</v>
       </c>
       <c r="D300">
-        <v>74</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>56.8</v>
       </c>
       <c r="D301">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4628,7 +4628,7 @@
         <v>48.1</v>
       </c>
       <c r="D303">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4642,7 +4642,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D304">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>44</v>
       </c>
       <c r="D305">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>54.1</v>
       </c>
       <c r="D306">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>50.7</v>
       </c>
       <c r="D307">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>57.6</v>
       </c>
       <c r="D311">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4754,7 +4754,7 @@
         <v>40.5</v>
       </c>
       <c r="D312">
-        <v>71</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>48.3</v>
       </c>
       <c r="D314">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4796,7 +4796,7 @@
         <v>46.5</v>
       </c>
       <c r="D315">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4810,7 +4810,7 @@
         <v>56.3</v>
       </c>
       <c r="D316">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4824,7 +4824,7 @@
         <v>59.8</v>
       </c>
       <c r="D317">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>53.3</v>
       </c>
       <c r="D318">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4852,7 +4852,7 @@
         <v>55.8</v>
       </c>
       <c r="D319">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4866,7 +4866,7 @@
         <v>40.3</v>
       </c>
       <c r="D320">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4880,7 +4880,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D321">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4894,7 +4894,7 @@
         <v>52.5</v>
       </c>
       <c r="D322">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D323">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4922,7 +4922,7 @@
         <v>46.5</v>
       </c>
       <c r="D324">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4936,7 +4936,7 @@
         <v>52.3</v>
       </c>
       <c r="D325">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4950,7 +4950,7 @@
         <v>41.4</v>
       </c>
       <c r="D326">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4964,7 +4964,7 @@
         <v>47.7</v>
       </c>
       <c r="D327">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4978,7 +4978,7 @@
         <v>50.3</v>
       </c>
       <c r="D328">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4992,7 +4992,7 @@
         <v>50.9</v>
       </c>
       <c r="D329">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5006,7 +5006,7 @@
         <v>56.5</v>
       </c>
       <c r="D330">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>53.2</v>
       </c>
       <c r="D331">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5034,7 +5034,7 @@
         <v>57</v>
       </c>
       <c r="D332">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5062,7 +5062,7 @@
         <v>46.5</v>
       </c>
       <c r="D334">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5090,7 +5090,7 @@
         <v>55.6</v>
       </c>
       <c r="D336">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5104,7 +5104,7 @@
         <v>46.5</v>
       </c>
       <c r="D337">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5118,7 +5118,7 @@
         <v>48.3</v>
       </c>
       <c r="D338">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5132,7 +5132,7 @@
         <v>57.6</v>
       </c>
       <c r="D339">
-        <v>75</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5174,7 +5174,7 @@
         <v>53.6</v>
       </c>
       <c r="D342">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5202,7 +5202,7 @@
         <v>47.6</v>
       </c>
       <c r="D344">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D345">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5230,7 +5230,7 @@
         <v>48.1</v>
       </c>
       <c r="D346">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5244,7 +5244,7 @@
         <v>53.1</v>
       </c>
       <c r="D347">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5258,7 +5258,7 @@
         <v>45.4</v>
       </c>
       <c r="D348">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5272,7 +5272,7 @@
         <v>54.6</v>
       </c>
       <c r="D349">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5300,7 +5300,7 @@
         <v>40.8</v>
       </c>
       <c r="D351">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>47.4</v>
       </c>
       <c r="D353">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5342,7 +5342,7 @@
         <v>52.9</v>
       </c>
       <c r="D354">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5356,7 +5356,7 @@
         <v>51.8</v>
       </c>
       <c r="D355">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5370,7 +5370,7 @@
         <v>46.8</v>
       </c>
       <c r="D356">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5384,7 +5384,7 @@
         <v>52.4</v>
       </c>
       <c r="D357">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5412,7 +5412,7 @@
         <v>45.2</v>
       </c>
       <c r="D359">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5426,7 +5426,7 @@
         <v>41.9</v>
       </c>
       <c r="D360">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5440,7 +5440,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D361">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5468,7 +5468,7 @@
         <v>43.3</v>
       </c>
       <c r="D363">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5482,7 +5482,7 @@
         <v>54.8</v>
       </c>
       <c r="D364">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>59.2</v>
       </c>
       <c r="D365">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5510,7 +5510,7 @@
         <v>52.3</v>
       </c>
       <c r="D366">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5524,7 +5524,7 @@
         <v>40.9</v>
       </c>
       <c r="D367">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5538,7 +5538,7 @@
         <v>49.9</v>
       </c>
       <c r="D368">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5552,7 +5552,7 @@
         <v>54.8</v>
       </c>
       <c r="D369">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5566,7 +5566,7 @@
         <v>42.8</v>
       </c>
       <c r="D370">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5594,7 +5594,7 @@
         <v>55</v>
       </c>
       <c r="D372">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5608,7 +5608,7 @@
         <v>43.9</v>
       </c>
       <c r="D373">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5622,7 +5622,7 @@
         <v>47.8</v>
       </c>
       <c r="D374">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5636,7 +5636,7 @@
         <v>44.6</v>
       </c>
       <c r="D375">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5650,7 +5650,7 @@
         <v>44.8</v>
       </c>
       <c r="D376">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>42</v>
       </c>
       <c r="D377">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5692,7 +5692,7 @@
         <v>56</v>
       </c>
       <c r="D379">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>42.4</v>
       </c>
       <c r="D380">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5734,7 +5734,7 @@
         <v>43</v>
       </c>
       <c r="D382">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5748,7 +5748,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D383">
-        <v>71</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5762,7 +5762,7 @@
         <v>57.8</v>
       </c>
       <c r="D384">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5776,7 +5776,7 @@
         <v>40.3</v>
       </c>
       <c r="D385">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5790,7 +5790,7 @@
         <v>51.9</v>
       </c>
       <c r="D386">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5804,7 +5804,7 @@
         <v>48.5</v>
       </c>
       <c r="D387">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5818,7 +5818,7 @@
         <v>49.3</v>
       </c>
       <c r="D388">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5846,7 +5846,7 @@
         <v>47.1</v>
       </c>
       <c r="D390">
-        <v>77</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>42.5</v>
       </c>
       <c r="D392">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5888,7 +5888,7 @@
         <v>44.1</v>
       </c>
       <c r="D393">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5902,7 +5902,7 @@
         <v>53.4</v>
       </c>
       <c r="D394">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5916,7 +5916,7 @@
         <v>56.6</v>
       </c>
       <c r="D395">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5930,7 +5930,7 @@
         <v>40.7</v>
       </c>
       <c r="D396">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5944,7 +5944,7 @@
         <v>53.3</v>
       </c>
       <c r="D397">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>46.6</v>
       </c>
       <c r="D398">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5972,7 +5972,7 @@
         <v>52.7</v>
       </c>
       <c r="D399">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5986,7 +5986,7 @@
         <v>54.6</v>
       </c>
       <c r="D400">
-        <v>73</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>55.7</v>
       </c>
       <c r="D401">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>54.6</v>
       </c>
       <c r="D402">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6028,7 +6028,7 @@
         <v>44.3</v>
       </c>
       <c r="D403">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6042,7 +6042,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D404">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6056,7 +6056,7 @@
         <v>47.1</v>
       </c>
       <c r="D405">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6070,7 +6070,7 @@
         <v>52.6</v>
       </c>
       <c r="D406">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6084,7 +6084,7 @@
         <v>42.1</v>
       </c>
       <c r="D407">
-        <v>77</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6098,7 +6098,7 @@
         <v>47.9</v>
       </c>
       <c r="D408">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6112,7 +6112,7 @@
         <v>53.6</v>
       </c>
       <c r="D409">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6126,7 +6126,7 @@
         <v>52.8</v>
       </c>
       <c r="D410">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6140,7 +6140,7 @@
         <v>47.2</v>
       </c>
       <c r="D411">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6154,7 +6154,7 @@
         <v>54.9</v>
       </c>
       <c r="D412">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6196,7 +6196,7 @@
         <v>42</v>
       </c>
       <c r="D415">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6210,7 +6210,7 @@
         <v>50.7</v>
       </c>
       <c r="D416">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6224,7 +6224,7 @@
         <v>40.2</v>
       </c>
       <c r="D417">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6266,7 +6266,7 @@
         <v>41.5</v>
       </c>
       <c r="D420">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6280,7 +6280,7 @@
         <v>41.1</v>
       </c>
       <c r="D421">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>50.8</v>
       </c>
       <c r="D422">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6308,7 +6308,7 @@
         <v>50</v>
       </c>
       <c r="D423">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>48.2</v>
       </c>
       <c r="D424">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6336,7 +6336,7 @@
         <v>48.1</v>
       </c>
       <c r="D425">
-        <v>76</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6350,7 +6350,7 @@
         <v>51.3</v>
       </c>
       <c r="D426">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6364,7 +6364,7 @@
         <v>51.6</v>
       </c>
       <c r="D427">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6378,7 +6378,7 @@
         <v>52.5</v>
       </c>
       <c r="D428">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>55.5</v>
       </c>
       <c r="D430">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>40.7</v>
       </c>
       <c r="D431">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>45.5</v>
       </c>
       <c r="D432">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6448,7 +6448,7 @@
         <v>43.5</v>
       </c>
       <c r="D433">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6462,7 +6462,7 @@
         <v>44.5</v>
       </c>
       <c r="D434">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6476,7 +6476,7 @@
         <v>47</v>
       </c>
       <c r="D435">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6490,7 +6490,7 @@
         <v>58.7</v>
       </c>
       <c r="D436">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6518,7 +6518,7 @@
         <v>46.9</v>
       </c>
       <c r="D438">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6532,7 +6532,7 @@
         <v>57</v>
       </c>
       <c r="D439">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6560,7 +6560,7 @@
         <v>53.7</v>
       </c>
       <c r="D441">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6574,7 +6574,7 @@
         <v>49.7</v>
       </c>
       <c r="D442">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>46.4</v>
       </c>
       <c r="D443">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6602,7 +6602,7 @@
         <v>41.7</v>
       </c>
       <c r="D444">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6616,7 +6616,7 @@
         <v>43.2</v>
       </c>
       <c r="D445">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6630,7 +6630,7 @@
         <v>58.3</v>
       </c>
       <c r="D446">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6644,7 +6644,7 @@
         <v>46.7</v>
       </c>
       <c r="D447">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6658,7 +6658,7 @@
         <v>40.8</v>
       </c>
       <c r="D448">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6672,7 +6672,7 @@
         <v>49.6</v>
       </c>
       <c r="D449">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6686,7 +6686,7 @@
         <v>54.8</v>
       </c>
       <c r="D450">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6700,7 +6700,7 @@
         <v>57.3</v>
       </c>
       <c r="D451">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6714,7 +6714,7 @@
         <v>43.7</v>
       </c>
       <c r="D452">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6728,7 +6728,7 @@
         <v>56.1</v>
       </c>
       <c r="D453">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6742,7 +6742,7 @@
         <v>52.9</v>
       </c>
       <c r="D454">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6756,7 +6756,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D455">
-        <v>76</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6770,7 +6770,7 @@
         <v>58.1</v>
       </c>
       <c r="D456">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6784,7 +6784,7 @@
         <v>48.4</v>
       </c>
       <c r="D457">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6798,7 +6798,7 @@
         <v>57.8</v>
       </c>
       <c r="D458">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6812,7 +6812,7 @@
         <v>40.8</v>
       </c>
       <c r="D459">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6826,7 +6826,7 @@
         <v>47.5</v>
       </c>
       <c r="D460">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6840,7 +6840,7 @@
         <v>47.2</v>
       </c>
       <c r="D461">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6868,7 +6868,7 @@
         <v>50.1</v>
       </c>
       <c r="D463">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>52.1</v>
       </c>
       <c r="D465">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6910,7 +6910,7 @@
         <v>48.9</v>
       </c>
       <c r="D466">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6938,7 +6938,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D468">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6952,7 +6952,7 @@
         <v>53.5</v>
       </c>
       <c r="D469">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6966,7 +6966,7 @@
         <v>51.3</v>
       </c>
       <c r="D470">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6980,7 +6980,7 @@
         <v>54.5</v>
       </c>
       <c r="D471">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>55.9</v>
       </c>
       <c r="D472">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7008,7 +7008,7 @@
         <v>41.6</v>
       </c>
       <c r="D473">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7022,7 +7022,7 @@
         <v>51.3</v>
       </c>
       <c r="D474">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7036,7 +7036,7 @@
         <v>53.4</v>
       </c>
       <c r="D475">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7050,7 +7050,7 @@
         <v>50.5</v>
       </c>
       <c r="D476">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>49.9</v>
       </c>
       <c r="D477">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7078,7 +7078,7 @@
         <v>50.5</v>
       </c>
       <c r="D478">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7092,7 +7092,7 @@
         <v>46.1</v>
       </c>
       <c r="D479">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7106,7 +7106,7 @@
         <v>49</v>
       </c>
       <c r="D480">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7120,7 +7120,7 @@
         <v>43.6</v>
       </c>
       <c r="D481">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7134,7 +7134,7 @@
         <v>47.4</v>
       </c>
       <c r="D482">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7148,7 +7148,7 @@
         <v>58.1</v>
       </c>
       <c r="D483">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7162,7 +7162,7 @@
         <v>49.7</v>
       </c>
       <c r="D484">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>51.9</v>
       </c>
       <c r="D485">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7204,7 +7204,7 @@
         <v>52.3</v>
       </c>
       <c r="D487">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7218,7 +7218,7 @@
         <v>56.8</v>
       </c>
       <c r="D488">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7232,7 +7232,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D489">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7246,7 +7246,7 @@
         <v>45.9</v>
       </c>
       <c r="D490">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7260,7 +7260,7 @@
         <v>50.1</v>
       </c>
       <c r="D491">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7274,7 +7274,7 @@
         <v>50.3</v>
       </c>
       <c r="D492">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7288,7 +7288,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D493">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7302,7 +7302,7 @@
         <v>56.8</v>
       </c>
       <c r="D494">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>45.2</v>
       </c>
       <c r="D495">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7344,7 +7344,7 @@
         <v>50</v>
       </c>
       <c r="D497">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7372,7 +7372,7 @@
         <v>43.9</v>
       </c>
       <c r="D499">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7386,7 +7386,7 @@
         <v>59.8</v>
       </c>
       <c r="D500">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7400,7 +7400,7 @@
         <v>50.6</v>
       </c>
       <c r="D501">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7414,7 +7414,7 @@
         <v>49.5</v>
       </c>
       <c r="D502">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7428,7 +7428,7 @@
         <v>53</v>
       </c>
       <c r="D503">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7442,7 +7442,7 @@
         <v>46.4</v>
       </c>
       <c r="D504">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7456,7 +7456,7 @@
         <v>49.6</v>
       </c>
       <c r="D505">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7470,7 +7470,7 @@
         <v>46.9</v>
       </c>
       <c r="D506">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7484,7 +7484,7 @@
         <v>52.5</v>
       </c>
       <c r="D507">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7498,7 +7498,7 @@
         <v>55.9</v>
       </c>
       <c r="D508">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7512,7 +7512,7 @@
         <v>56.1</v>
       </c>
       <c r="D509">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7526,7 +7526,7 @@
         <v>41.8</v>
       </c>
       <c r="D510">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7540,7 +7540,7 @@
         <v>47.9</v>
       </c>
       <c r="D511">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7554,7 +7554,7 @@
         <v>46.1</v>
       </c>
       <c r="D512">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7568,7 +7568,7 @@
         <v>55.2</v>
       </c>
       <c r="D513">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7582,7 +7582,7 @@
         <v>48.2</v>
       </c>
       <c r="D514">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7610,7 +7610,7 @@
         <v>53.8</v>
       </c>
       <c r="D516">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7624,7 +7624,7 @@
         <v>46.8</v>
       </c>
       <c r="D517">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7638,7 +7638,7 @@
         <v>58.1</v>
       </c>
       <c r="D518">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7652,7 +7652,7 @@
         <v>41.7</v>
       </c>
       <c r="D519">
-        <v>76</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7666,7 +7666,7 @@
         <v>42.1</v>
       </c>
       <c r="D520">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7680,7 +7680,7 @@
         <v>55.5</v>
       </c>
       <c r="D521">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7694,7 +7694,7 @@
         <v>54.1</v>
       </c>
       <c r="D522">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7708,7 +7708,7 @@
         <v>57.7</v>
       </c>
       <c r="D523">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7722,7 +7722,7 @@
         <v>40.3</v>
       </c>
       <c r="D524">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7736,7 +7736,7 @@
         <v>42.8</v>
       </c>
       <c r="D525">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7750,7 +7750,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D526">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7764,7 +7764,7 @@
         <v>54.4</v>
       </c>
       <c r="D527">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7778,7 +7778,7 @@
         <v>42.6</v>
       </c>
       <c r="D528">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -7792,7 +7792,7 @@
         <v>57.3</v>
       </c>
       <c r="D529">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7806,7 +7806,7 @@
         <v>54.9</v>
       </c>
       <c r="D530">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -7820,7 +7820,7 @@
         <v>51</v>
       </c>
       <c r="D531">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -7834,7 +7834,7 @@
         <v>43.6</v>
       </c>
       <c r="D532">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -7848,7 +7848,7 @@
         <v>46.8</v>
       </c>
       <c r="D533">
-        <v>73</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -7862,7 +7862,7 @@
         <v>55.6</v>
       </c>
       <c r="D534">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -7876,7 +7876,7 @@
         <v>43.7</v>
       </c>
       <c r="D535">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -7890,7 +7890,7 @@
         <v>51</v>
       </c>
       <c r="D536">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -7904,7 +7904,7 @@
         <v>55.8</v>
       </c>
       <c r="D537">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -7918,7 +7918,7 @@
         <v>55.1</v>
       </c>
       <c r="D538">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -7932,7 +7932,7 @@
         <v>58.6</v>
       </c>
       <c r="D539">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -7946,7 +7946,7 @@
         <v>49.5</v>
       </c>
       <c r="D540">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -7960,7 +7960,7 @@
         <v>52.8</v>
       </c>
       <c r="D541">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -7988,7 +7988,7 @@
         <v>42.7</v>
       </c>
       <c r="D543">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -8002,7 +8002,7 @@
         <v>46</v>
       </c>
       <c r="D544">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8016,7 +8016,7 @@
         <v>56.40000000000001</v>
       </c>
       <c r="D545">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -8030,7 +8030,7 @@
         <v>50.3</v>
       </c>
       <c r="D546">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>54.7</v>
       </c>
       <c r="D547">
-        <v>79</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -8058,7 +8058,7 @@
         <v>53.4</v>
       </c>
       <c r="D548">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -8072,7 +8072,7 @@
         <v>58.2</v>
       </c>
       <c r="D549">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8086,7 +8086,7 @@
         <v>40.1</v>
       </c>
       <c r="D550">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>48.8</v>
       </c>
       <c r="D552">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -8128,7 +8128,7 @@
         <v>56.2</v>
       </c>
       <c r="D553">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8142,7 +8142,7 @@
         <v>52.1</v>
       </c>
       <c r="D554">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8156,7 +8156,7 @@
         <v>58.8</v>
       </c>
       <c r="D555">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8170,7 +8170,7 @@
         <v>60</v>
       </c>
       <c r="D556">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8184,7 +8184,7 @@
         <v>59.1</v>
       </c>
       <c r="D557">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8198,7 +8198,7 @@
         <v>53.3</v>
       </c>
       <c r="D558">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -8212,7 +8212,7 @@
         <v>44.4</v>
       </c>
       <c r="D559">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -8226,7 +8226,7 @@
         <v>48.5</v>
       </c>
       <c r="D560">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -8240,7 +8240,7 @@
         <v>40.6</v>
       </c>
       <c r="D561">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -8254,7 +8254,7 @@
         <v>57.5</v>
       </c>
       <c r="D562">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -8268,7 +8268,7 @@
         <v>40.8</v>
       </c>
       <c r="D563">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8282,7 +8282,7 @@
         <v>52.9</v>
       </c>
       <c r="D564">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -8296,7 +8296,7 @@
         <v>53.7</v>
       </c>
       <c r="D565">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -8310,7 +8310,7 @@
         <v>44.4</v>
       </c>
       <c r="D566">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -8324,7 +8324,7 @@
         <v>54.7</v>
       </c>
       <c r="D567">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -8338,7 +8338,7 @@
         <v>52.9</v>
       </c>
       <c r="D568">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -8352,7 +8352,7 @@
         <v>45.7</v>
       </c>
       <c r="D569">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -8366,7 +8366,7 @@
         <v>57.1</v>
       </c>
       <c r="D570">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -8380,7 +8380,7 @@
         <v>40.5</v>
       </c>
       <c r="D571">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -8394,7 +8394,7 @@
         <v>43.3</v>
       </c>
       <c r="D572">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -8422,7 +8422,7 @@
         <v>40.4</v>
       </c>
       <c r="D574">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -8450,7 +8450,7 @@
         <v>48.7</v>
       </c>
       <c r="D576">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -8464,7 +8464,7 @@
         <v>53.7</v>
       </c>
       <c r="D577">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -8478,7 +8478,7 @@
         <v>59.7</v>
       </c>
       <c r="D578">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -8492,7 +8492,7 @@
         <v>58.6</v>
       </c>
       <c r="D579">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -8506,7 +8506,7 @@
         <v>60</v>
       </c>
       <c r="D580">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -8520,7 +8520,7 @@
         <v>54.8</v>
       </c>
       <c r="D581">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -8534,7 +8534,7 @@
         <v>42.4</v>
       </c>
       <c r="D582">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -8548,7 +8548,7 @@
         <v>57.3</v>
       </c>
       <c r="D583">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -8562,7 +8562,7 @@
         <v>41.4</v>
       </c>
       <c r="D584">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -8576,7 +8576,7 @@
         <v>48</v>
       </c>
       <c r="D585">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -8590,7 +8590,7 @@
         <v>52.1</v>
       </c>
       <c r="D586">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -8604,7 +8604,7 @@
         <v>53</v>
       </c>
       <c r="D587">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -8618,7 +8618,7 @@
         <v>41.7</v>
       </c>
       <c r="D588">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -8632,7 +8632,7 @@
         <v>50.4</v>
       </c>
       <c r="D589">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -8646,7 +8646,7 @@
         <v>56.1</v>
       </c>
       <c r="D590">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -8660,7 +8660,7 @@
         <v>49.3</v>
       </c>
       <c r="D591">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -8674,7 +8674,7 @@
         <v>45</v>
       </c>
       <c r="D592">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -8688,7 +8688,7 @@
         <v>41.2</v>
       </c>
       <c r="D593">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -8702,7 +8702,7 @@
         <v>40.3</v>
       </c>
       <c r="D594">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -8716,7 +8716,7 @@
         <v>51.1</v>
       </c>
       <c r="D595">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -8730,7 +8730,7 @@
         <v>56.7</v>
       </c>
       <c r="D596">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>40.2</v>
       </c>
       <c r="D597">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -8758,7 +8758,7 @@
         <v>55</v>
       </c>
       <c r="D598">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -8772,7 +8772,7 @@
         <v>45.2</v>
       </c>
       <c r="D599">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -8786,7 +8786,7 @@
         <v>55.7</v>
       </c>
       <c r="D600">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -8800,7 +8800,7 @@
         <v>51.8</v>
       </c>
       <c r="D601">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -8814,7 +8814,7 @@
         <v>58.5</v>
       </c>
       <c r="D602">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -8828,7 +8828,7 @@
         <v>49.5</v>
       </c>
       <c r="D603">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -8842,7 +8842,7 @@
         <v>46.6</v>
       </c>
       <c r="D604">
-        <v>74</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -8856,7 +8856,7 @@
         <v>53.2</v>
       </c>
       <c r="D605">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -8884,7 +8884,7 @@
         <v>46.1</v>
       </c>
       <c r="D607">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -8898,7 +8898,7 @@
         <v>56</v>
       </c>
       <c r="D608">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -8912,7 +8912,7 @@
         <v>48.6</v>
       </c>
       <c r="D609">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -8926,7 +8926,7 @@
         <v>59.5</v>
       </c>
       <c r="D610">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -8940,7 +8940,7 @@
         <v>57.5</v>
       </c>
       <c r="D611">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -8954,7 +8954,7 @@
         <v>45.2</v>
       </c>
       <c r="D612">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -8968,7 +8968,7 @@
         <v>54.6</v>
       </c>
       <c r="D613">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -8982,7 +8982,7 @@
         <v>49.7</v>
       </c>
       <c r="D614">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -8996,7 +8996,7 @@
         <v>53.1</v>
       </c>
       <c r="D615">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9010,7 +9010,7 @@
         <v>44.8</v>
       </c>
       <c r="D616">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -9024,7 +9024,7 @@
         <v>46.6</v>
       </c>
       <c r="D617">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -9038,7 +9038,7 @@
         <v>41</v>
       </c>
       <c r="D618">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9052,7 +9052,7 @@
         <v>42.4</v>
       </c>
       <c r="D619">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -9066,7 +9066,7 @@
         <v>45.1</v>
       </c>
       <c r="D620">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -9080,7 +9080,7 @@
         <v>51.5</v>
       </c>
       <c r="D621">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -9094,7 +9094,7 @@
         <v>55.3</v>
       </c>
       <c r="D622">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>57.2</v>
       </c>
       <c r="D623">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -9122,7 +9122,7 @@
         <v>44.2</v>
       </c>
       <c r="D624">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -9136,7 +9136,7 @@
         <v>59.3</v>
       </c>
       <c r="D625">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -9150,7 +9150,7 @@
         <v>51.9</v>
       </c>
       <c r="D626">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -9164,7 +9164,7 @@
         <v>50.4</v>
       </c>
       <c r="D627">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -9178,7 +9178,7 @@
         <v>49.2</v>
       </c>
       <c r="D628">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -9192,7 +9192,7 @@
         <v>41.9</v>
       </c>
       <c r="D629">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -9206,7 +9206,7 @@
         <v>40.9</v>
       </c>
       <c r="D630">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -9220,7 +9220,7 @@
         <v>42.3</v>
       </c>
       <c r="D631">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -9248,7 +9248,7 @@
         <v>46.6</v>
       </c>
       <c r="D633">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -9262,7 +9262,7 @@
         <v>52.8</v>
       </c>
       <c r="D634">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -9276,7 +9276,7 @@
         <v>59</v>
       </c>
       <c r="D635">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -9290,7 +9290,7 @@
         <v>56.6</v>
       </c>
       <c r="D636">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -9318,7 +9318,7 @@
         <v>57.1</v>
       </c>
       <c r="D638">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -9332,7 +9332,7 @@
         <v>56.2</v>
       </c>
       <c r="D639">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -9346,7 +9346,7 @@
         <v>51.7</v>
       </c>
       <c r="D640">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -9360,7 +9360,7 @@
         <v>57.7</v>
       </c>
       <c r="D641">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -9374,7 +9374,7 @@
         <v>56.5</v>
       </c>
       <c r="D642">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -9388,7 +9388,7 @@
         <v>58.1</v>
       </c>
       <c r="D643">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -9416,7 +9416,7 @@
         <v>54.5</v>
       </c>
       <c r="D645">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -9430,7 +9430,7 @@
         <v>45.6</v>
       </c>
       <c r="D646">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -9444,7 +9444,7 @@
         <v>56.8</v>
       </c>
       <c r="D647">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -9458,7 +9458,7 @@
         <v>45.1</v>
       </c>
       <c r="D648">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -9472,7 +9472,7 @@
         <v>40.9</v>
       </c>
       <c r="D649">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -9486,7 +9486,7 @@
         <v>41.3</v>
       </c>
       <c r="D650">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -9500,7 +9500,7 @@
         <v>43.5</v>
       </c>
       <c r="D651">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -9514,7 +9514,7 @@
         <v>55.5</v>
       </c>
       <c r="D652">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -9528,7 +9528,7 @@
         <v>59.7</v>
       </c>
       <c r="D653">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -9542,7 +9542,7 @@
         <v>44.6</v>
       </c>
       <c r="D654">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -9556,7 +9556,7 @@
         <v>45</v>
       </c>
       <c r="D655">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -9570,7 +9570,7 @@
         <v>58.5</v>
       </c>
       <c r="D656">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -9584,7 +9584,7 @@
         <v>59.5</v>
       </c>
       <c r="D657">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -9598,7 +9598,7 @@
         <v>44.5</v>
       </c>
       <c r="D658">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>45.4</v>
       </c>
       <c r="D659">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -9626,7 +9626,7 @@
         <v>52</v>
       </c>
       <c r="D660">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -9640,7 +9640,7 @@
         <v>41.5</v>
       </c>
       <c r="D661">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -9654,7 +9654,7 @@
         <v>46.3</v>
       </c>
       <c r="D662">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -9668,7 +9668,7 @@
         <v>47.8</v>
       </c>
       <c r="D663">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -9682,7 +9682,7 @@
         <v>50.3</v>
       </c>
       <c r="D664">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -9696,7 +9696,7 @@
         <v>43</v>
       </c>
       <c r="D665">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -9724,7 +9724,7 @@
         <v>50.7</v>
       </c>
       <c r="D667">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -9738,7 +9738,7 @@
         <v>45.8</v>
       </c>
       <c r="D668">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -9752,7 +9752,7 @@
         <v>49.1</v>
       </c>
       <c r="D669">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -9794,7 +9794,7 @@
         <v>49</v>
       </c>
       <c r="D672">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>54.5</v>
       </c>
       <c r="D673">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -9822,7 +9822,7 @@
         <v>41.9</v>
       </c>
       <c r="D674">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -9836,7 +9836,7 @@
         <v>48</v>
       </c>
       <c r="D675">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -9850,7 +9850,7 @@
         <v>53</v>
       </c>
       <c r="D676">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -9878,7 +9878,7 @@
         <v>59.3</v>
       </c>
       <c r="D678">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -9892,7 +9892,7 @@
         <v>47.5</v>
       </c>
       <c r="D679">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -9906,7 +9906,7 @@
         <v>52.5</v>
       </c>
       <c r="D680">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -9920,7 +9920,7 @@
         <v>53.8</v>
       </c>
       <c r="D681">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -9948,7 +9948,7 @@
         <v>44</v>
       </c>
       <c r="D683">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -9962,7 +9962,7 @@
         <v>56.6</v>
       </c>
       <c r="D684">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -9976,7 +9976,7 @@
         <v>52.2</v>
       </c>
       <c r="D685">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -9990,7 +9990,7 @@
         <v>48.5</v>
       </c>
       <c r="D686">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -10004,7 +10004,7 @@
         <v>56.3</v>
       </c>
       <c r="D687">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -10018,7 +10018,7 @@
         <v>52.4</v>
       </c>
       <c r="D688">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -10032,7 +10032,7 @@
         <v>59.7</v>
       </c>
       <c r="D689">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -10046,7 +10046,7 @@
         <v>57.6</v>
       </c>
       <c r="D690">
-        <v>73</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -10060,7 +10060,7 @@
         <v>41.8</v>
       </c>
       <c r="D691">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -10074,7 +10074,7 @@
         <v>40</v>
       </c>
       <c r="D692">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -10088,7 +10088,7 @@
         <v>52.4</v>
       </c>
       <c r="D693">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -10102,7 +10102,7 @@
         <v>59.6</v>
       </c>
       <c r="D694">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -10116,7 +10116,7 @@
         <v>52.7</v>
       </c>
       <c r="D695">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -10130,7 +10130,7 @@
         <v>47</v>
       </c>
       <c r="D696">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -10144,7 +10144,7 @@
         <v>49</v>
       </c>
       <c r="D697">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -10158,7 +10158,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D698">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -10172,7 +10172,7 @@
         <v>43.4</v>
       </c>
       <c r="D699">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -10186,7 +10186,7 @@
         <v>47.6</v>
       </c>
       <c r="D700">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -10200,7 +10200,7 @@
         <v>54.4</v>
       </c>
       <c r="D701">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -10228,7 +10228,7 @@
         <v>51.4</v>
       </c>
       <c r="D703">
-        <v>76</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>48.4</v>
       </c>
       <c r="D704">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -10270,7 +10270,7 @@
         <v>53.2</v>
       </c>
       <c r="D706">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -10284,7 +10284,7 @@
         <v>44.6</v>
       </c>
       <c r="D707">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -10298,7 +10298,7 @@
         <v>49.2</v>
       </c>
       <c r="D708">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -10312,7 +10312,7 @@
         <v>46.2</v>
       </c>
       <c r="D709">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -10326,7 +10326,7 @@
         <v>42.5</v>
       </c>
       <c r="D710">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -10340,7 +10340,7 @@
         <v>42</v>
       </c>
       <c r="D711">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -10354,7 +10354,7 @@
         <v>60</v>
       </c>
       <c r="D712">
-        <v>72</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -10368,7 +10368,7 @@
         <v>50.1</v>
       </c>
       <c r="D713">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -10382,7 +10382,7 @@
         <v>51.7</v>
       </c>
       <c r="D714">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -10396,7 +10396,7 @@
         <v>51.1</v>
       </c>
       <c r="D715">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -10410,7 +10410,7 @@
         <v>49.7</v>
       </c>
       <c r="D716">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -10438,7 +10438,7 @@
         <v>43.1</v>
       </c>
       <c r="D718">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -10452,7 +10452,7 @@
         <v>43.4</v>
       </c>
       <c r="D719">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -10466,7 +10466,7 @@
         <v>42.7</v>
       </c>
       <c r="D720">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -10480,7 +10480,7 @@
         <v>59</v>
       </c>
       <c r="D721">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -10494,7 +10494,7 @@
         <v>43.8</v>
       </c>
       <c r="D722">
-        <v>76</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -10508,7 +10508,7 @@
         <v>57</v>
       </c>
       <c r="D723">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -10536,7 +10536,7 @@
         <v>55.8</v>
       </c>
       <c r="D725">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -10550,7 +10550,7 @@
         <v>55.2</v>
       </c>
       <c r="D726">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -10564,7 +10564,7 @@
         <v>43.8</v>
       </c>
       <c r="D727">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -10578,7 +10578,7 @@
         <v>59.2</v>
       </c>
       <c r="D728">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -10592,7 +10592,7 @@
         <v>43.7</v>
       </c>
       <c r="D729">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -10606,7 +10606,7 @@
         <v>49.2</v>
       </c>
       <c r="D730">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -10620,7 +10620,7 @@
         <v>47.9</v>
       </c>
       <c r="D731">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -10634,7 +10634,7 @@
         <v>42.5</v>
       </c>
       <c r="D732">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -10648,7 +10648,7 @@
         <v>42.8</v>
       </c>
       <c r="D733">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -10676,7 +10676,7 @@
         <v>59.5</v>
       </c>
       <c r="D735">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -10690,7 +10690,7 @@
         <v>41.2</v>
       </c>
       <c r="D736">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -10704,7 +10704,7 @@
         <v>40.9</v>
       </c>
       <c r="D737">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -10718,7 +10718,7 @@
         <v>47.2</v>
       </c>
       <c r="D738">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -10732,7 +10732,7 @@
         <v>46.5</v>
       </c>
       <c r="D739">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -10746,7 +10746,7 @@
         <v>42.8</v>
       </c>
       <c r="D740">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -10760,7 +10760,7 @@
         <v>47.6</v>
       </c>
       <c r="D741">
-        <v>74</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -10774,7 +10774,7 @@
         <v>46.3</v>
       </c>
       <c r="D742">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -10802,7 +10802,7 @@
         <v>48.6</v>
       </c>
       <c r="D744">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -10830,7 +10830,7 @@
         <v>55.5</v>
       </c>
       <c r="D746">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -10844,7 +10844,7 @@
         <v>52.2</v>
       </c>
       <c r="D747">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -10858,7 +10858,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="D748">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -10872,7 +10872,7 @@
         <v>46.7</v>
       </c>
       <c r="D749">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -10886,7 +10886,7 @@
         <v>48.4</v>
       </c>
       <c r="D750">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -10900,7 +10900,7 @@
         <v>49.8</v>
       </c>
       <c r="D751">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -10914,7 +10914,7 @@
         <v>51.5</v>
       </c>
       <c r="D752">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -10928,7 +10928,7 @@
         <v>40.3</v>
       </c>
       <c r="D753">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -10942,7 +10942,7 @@
         <v>48</v>
       </c>
       <c r="D754">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -10956,7 +10956,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D755">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -10970,7 +10970,7 @@
         <v>47.7</v>
       </c>
       <c r="D756">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -10984,7 +10984,7 @@
         <v>40.2</v>
       </c>
       <c r="D757">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -10998,7 +10998,7 @@
         <v>49.2</v>
       </c>
       <c r="D758">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -11012,7 +11012,7 @@
         <v>55.7</v>
       </c>
       <c r="D759">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -11026,7 +11026,7 @@
         <v>45</v>
       </c>
       <c r="D760">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -11040,7 +11040,7 @@
         <v>47.7</v>
       </c>
       <c r="D761">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -11054,7 +11054,7 @@
         <v>42.9</v>
       </c>
       <c r="D762">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -11068,7 +11068,7 @@
         <v>55.1</v>
       </c>
       <c r="D763">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -11082,7 +11082,7 @@
         <v>49</v>
       </c>
       <c r="D764">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -11096,7 +11096,7 @@
         <v>56.90000000000001</v>
       </c>
       <c r="D765">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -11110,7 +11110,7 @@
         <v>54.2</v>
       </c>
       <c r="D766">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11124,7 +11124,7 @@
         <v>47.8</v>
       </c>
       <c r="D767">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11138,7 +11138,7 @@
         <v>50.6</v>
       </c>
       <c r="D768">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -11152,7 +11152,7 @@
         <v>57.1</v>
       </c>
       <c r="D769">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -11166,7 +11166,7 @@
         <v>40.5</v>
       </c>
       <c r="D770">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -11180,7 +11180,7 @@
         <v>44.3</v>
       </c>
       <c r="D771">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -11194,7 +11194,7 @@
         <v>48.1</v>
       </c>
       <c r="D772">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -11208,7 +11208,7 @@
         <v>59.7</v>
       </c>
       <c r="D773">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -11222,7 +11222,7 @@
         <v>54.2</v>
       </c>
       <c r="D774">
-        <v>74</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>40.1</v>
       </c>
       <c r="D775">
-        <v>78</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -11264,7 +11264,7 @@
         <v>53.5</v>
       </c>
       <c r="D777">
-        <v>73</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -11278,7 +11278,7 @@
         <v>44.9</v>
       </c>
       <c r="D778">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -11292,7 +11292,7 @@
         <v>48.3</v>
       </c>
       <c r="D779">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -11320,7 +11320,7 @@
         <v>59.8</v>
       </c>
       <c r="D781">
-        <v>73</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -11334,7 +11334,7 @@
         <v>50.2</v>
       </c>
       <c r="D782">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -11348,7 +11348,7 @@
         <v>53.1</v>
       </c>
       <c r="D783">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -11362,7 +11362,7 @@
         <v>56.7</v>
       </c>
       <c r="D784">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -11376,7 +11376,7 @@
         <v>41.4</v>
       </c>
       <c r="D785">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -11390,7 +11390,7 @@
         <v>44.8</v>
       </c>
       <c r="D786">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -11404,7 +11404,7 @@
         <v>50.5</v>
       </c>
       <c r="D787">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -11418,7 +11418,7 @@
         <v>47.3</v>
       </c>
       <c r="D788">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -11432,7 +11432,7 @@
         <v>58.5</v>
       </c>
       <c r="D789">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -11446,7 +11446,7 @@
         <v>55.5</v>
       </c>
       <c r="D790">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -11460,7 +11460,7 @@
         <v>48.6</v>
       </c>
       <c r="D791">
-        <v>75</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -11502,7 +11502,7 @@
         <v>43.3</v>
       </c>
       <c r="D794">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -11516,7 +11516,7 @@
         <v>53.1</v>
       </c>
       <c r="D795">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -11530,7 +11530,7 @@
         <v>53.1</v>
       </c>
       <c r="D796">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -11544,7 +11544,7 @@
         <v>56.8</v>
       </c>
       <c r="D797">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -11572,7 +11572,7 @@
         <v>55.7</v>
       </c>
       <c r="D799">
-        <v>71</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -11600,7 +11600,7 @@
         <v>54.1</v>
       </c>
       <c r="D801">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -11614,7 +11614,7 @@
         <v>40.1</v>
       </c>
       <c r="D802">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -11628,7 +11628,7 @@
         <v>44.1</v>
       </c>
       <c r="D803">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -11642,7 +11642,7 @@
         <v>52.2</v>
       </c>
       <c r="D804">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -11656,7 +11656,7 @@
         <v>53.6</v>
       </c>
       <c r="D805">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -11670,7 +11670,7 @@
         <v>40.4</v>
       </c>
       <c r="D806">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -11684,7 +11684,7 @@
         <v>44.1</v>
       </c>
       <c r="D807">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -11698,7 +11698,7 @@
         <v>46.7</v>
       </c>
       <c r="D808">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -11712,7 +11712,7 @@
         <v>48.1</v>
       </c>
       <c r="D809">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -11726,7 +11726,7 @@
         <v>48.5</v>
       </c>
       <c r="D810">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -11740,7 +11740,7 @@
         <v>53.9</v>
       </c>
       <c r="D811">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -11782,7 +11782,7 @@
         <v>55.2</v>
       </c>
       <c r="D814">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -11796,7 +11796,7 @@
         <v>47.7</v>
       </c>
       <c r="D815">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -11810,7 +11810,7 @@
         <v>42.2</v>
       </c>
       <c r="D816">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -11824,7 +11824,7 @@
         <v>52.3</v>
       </c>
       <c r="D817">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -11838,7 +11838,7 @@
         <v>57.3</v>
       </c>
       <c r="D818">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -11852,7 +11852,7 @@
         <v>45.5</v>
       </c>
       <c r="D819">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -11866,7 +11866,7 @@
         <v>48.8</v>
       </c>
       <c r="D820">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -11880,7 +11880,7 @@
         <v>59</v>
       </c>
       <c r="D821">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -11894,7 +11894,7 @@
         <v>51.3</v>
       </c>
       <c r="D822">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -11922,7 +11922,7 @@
         <v>59.6</v>
       </c>
       <c r="D824">
-        <v>78</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -11936,7 +11936,7 @@
         <v>53.5</v>
       </c>
       <c r="D825">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -11950,7 +11950,7 @@
         <v>49.9</v>
       </c>
       <c r="D826">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="D827">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -11978,7 +11978,7 @@
         <v>54</v>
       </c>
       <c r="D828">
-        <v>76</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -11992,7 +11992,7 @@
         <v>54.7</v>
       </c>
       <c r="D829">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12006,7 +12006,7 @@
         <v>52.3</v>
       </c>
       <c r="D830">
-        <v>73</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12020,7 +12020,7 @@
         <v>49.1</v>
       </c>
       <c r="D831">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12034,7 +12034,7 @@
         <v>52.1</v>
       </c>
       <c r="D832">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -12062,7 +12062,7 @@
         <v>48.7</v>
       </c>
       <c r="D834">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -12076,7 +12076,7 @@
         <v>48.9</v>
       </c>
       <c r="D835">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -12090,7 +12090,7 @@
         <v>54.4</v>
       </c>
       <c r="D836">
-        <v>70</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -12132,7 +12132,7 @@
         <v>55.6</v>
       </c>
       <c r="D839">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -12146,7 +12146,7 @@
         <v>40.6</v>
       </c>
       <c r="D840">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -12174,7 +12174,7 @@
         <v>59.6</v>
       </c>
       <c r="D842">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -12188,7 +12188,7 @@
         <v>58.7</v>
       </c>
       <c r="D843">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -12202,7 +12202,7 @@
         <v>49</v>
       </c>
       <c r="D844">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -12216,7 +12216,7 @@
         <v>50.3</v>
       </c>
       <c r="D845">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -12230,7 +12230,7 @@
         <v>55.1</v>
       </c>
       <c r="D846">
-        <v>79</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -12244,7 +12244,7 @@
         <v>51.4</v>
       </c>
       <c r="D847">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -12258,7 +12258,7 @@
         <v>51.7</v>
       </c>
       <c r="D848">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -12272,7 +12272,7 @@
         <v>43.9</v>
       </c>
       <c r="D849">
-        <v>70</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -12286,7 +12286,7 @@
         <v>57.1</v>
       </c>
       <c r="D850">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -12314,7 +12314,7 @@
         <v>41.1</v>
       </c>
       <c r="D852">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -12342,7 +12342,7 @@
         <v>46.2</v>
       </c>
       <c r="D854">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -12356,7 +12356,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D855">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -12370,7 +12370,7 @@
         <v>44.7</v>
       </c>
       <c r="D856">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -12384,7 +12384,7 @@
         <v>58.6</v>
       </c>
       <c r="D857">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -12398,7 +12398,7 @@
         <v>57.40000000000001</v>
       </c>
       <c r="D858">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -12412,7 +12412,7 @@
         <v>51.5</v>
       </c>
       <c r="D859">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -12426,7 +12426,7 @@
         <v>44</v>
       </c>
       <c r="D860">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -12440,7 +12440,7 @@
         <v>50.1</v>
       </c>
       <c r="D861">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -12454,7 +12454,7 @@
         <v>54.3</v>
       </c>
       <c r="D862">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -12468,7 +12468,7 @@
         <v>43.6</v>
       </c>
       <c r="D863">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -12482,7 +12482,7 @@
         <v>46.9</v>
       </c>
       <c r="D864">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -12496,7 +12496,7 @@
         <v>42.7</v>
       </c>
       <c r="D865">
-        <v>77</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -12524,7 +12524,7 @@
         <v>51</v>
       </c>
       <c r="D867">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -12538,7 +12538,7 @@
         <v>43.8</v>
       </c>
       <c r="D868">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -12552,7 +12552,7 @@
         <v>53.3</v>
       </c>
       <c r="D869">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -12566,7 +12566,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="D870">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -12580,7 +12580,7 @@
         <v>54.8</v>
       </c>
       <c r="D871">
-        <v>76</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -12594,7 +12594,7 @@
         <v>53.2</v>
       </c>
       <c r="D872">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -12608,7 +12608,7 @@
         <v>50.6</v>
       </c>
       <c r="D873">
-        <v>72</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -12622,7 +12622,7 @@
         <v>41.8</v>
       </c>
       <c r="D874">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -12636,7 +12636,7 @@
         <v>58.2</v>
       </c>
       <c r="D875">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -12664,7 +12664,7 @@
         <v>47.3</v>
       </c>
       <c r="D877">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -12678,7 +12678,7 @@
         <v>42.2</v>
       </c>
       <c r="D878">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -12692,7 +12692,7 @@
         <v>57.5</v>
       </c>
       <c r="D879">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -12706,7 +12706,7 @@
         <v>52.5</v>
       </c>
       <c r="D880">
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -12720,7 +12720,7 @@
         <v>41.3</v>
       </c>
       <c r="D881">
-        <v>79</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -12734,7 +12734,7 @@
         <v>55.8</v>
       </c>
       <c r="D882">
-        <v>80</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -12748,7 +12748,7 @@
         <v>40.4</v>
       </c>
       <c r="D883">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -12762,7 +12762,7 @@
         <v>46</v>
       </c>
       <c r="D884">
-        <v>76</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -12776,7 +12776,7 @@
         <v>57.6</v>
       </c>
       <c r="D885">
-        <v>80</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -12790,7 +12790,7 @@
         <v>58.8</v>
       </c>
       <c r="D886">
-        <v>77</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -12804,7 +12804,7 @@
         <v>42.8</v>
       </c>
       <c r="D887">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -12818,7 +12818,7 @@
         <v>55.3</v>
       </c>
       <c r="D888">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -12832,7 +12832,7 @@
         <v>45.8</v>
       </c>
       <c r="D889">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -12846,7 +12846,7 @@
         <v>57.7</v>
       </c>
       <c r="D890">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -12874,7 +12874,7 @@
         <v>48.9</v>
       </c>
       <c r="D892">
-        <v>70</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -12888,7 +12888,7 @@
         <v>49.4</v>
       </c>
       <c r="D893">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -12902,7 +12902,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="D894">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -12916,7 +12916,7 @@
         <v>52.6</v>
       </c>
       <c r="D895">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -12930,7 +12930,7 @@
         <v>48.6</v>
       </c>
       <c r="D896">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -12944,7 +12944,7 @@
         <v>59.1</v>
       </c>
       <c r="D897">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -12958,7 +12958,7 @@
         <v>42.9</v>
       </c>
       <c r="D898">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -12986,7 +12986,7 @@
         <v>58</v>
       </c>
       <c r="D900">
-        <v>74</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -13000,7 +13000,7 @@
         <v>53.4</v>
       </c>
       <c r="D901">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -13014,7 +13014,7 @@
         <v>51.6</v>
       </c>
       <c r="D902">
-        <v>75</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -13028,7 +13028,7 @@
         <v>52</v>
       </c>
       <c r="D903">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -13042,7 +13042,7 @@
         <v>44.9</v>
       </c>
       <c r="D904">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -13056,7 +13056,7 @@
         <v>42.5</v>
       </c>
       <c r="D905">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -13070,7 +13070,7 @@
         <v>47.3</v>
       </c>
       <c r="D906">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -13084,7 +13084,7 @@
         <v>43.6</v>
       </c>
       <c r="D907">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -13098,7 +13098,7 @@
         <v>53.8</v>
       </c>
       <c r="D908">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -13112,7 +13112,7 @@
         <v>41.7</v>
       </c>
       <c r="D909">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -13126,7 +13126,7 @@
         <v>42.6</v>
       </c>
       <c r="D910">
-        <v>71</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -13140,7 +13140,7 @@
         <v>49.4</v>
       </c>
       <c r="D911">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -13154,7 +13154,7 @@
         <v>42.8</v>
       </c>
       <c r="D912">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -13168,7 +13168,7 @@
         <v>57.1</v>
       </c>
       <c r="D913">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -13182,7 +13182,7 @@
         <v>48.7</v>
       </c>
       <c r="D914">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -13196,7 +13196,7 @@
         <v>47</v>
       </c>
       <c r="D915">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -13210,7 +13210,7 @@
         <v>43.2</v>
       </c>
       <c r="D916">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -13224,7 +13224,7 @@
         <v>53.7</v>
       </c>
       <c r="D917">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -13238,7 +13238,7 @@
         <v>58.7</v>
       </c>
       <c r="D918">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -13252,7 +13252,7 @@
         <v>51.1</v>
       </c>
       <c r="D919">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -13266,7 +13266,7 @@
         <v>53.9</v>
       </c>
       <c r="D920">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -13280,7 +13280,7 @@
         <v>59.7</v>
       </c>
       <c r="D921">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -13294,7 +13294,7 @@
         <v>60</v>
       </c>
       <c r="D922">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -13308,7 +13308,7 @@
         <v>43.2</v>
       </c>
       <c r="D923">
-        <v>80</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -13322,7 +13322,7 @@
         <v>45.4</v>
       </c>
       <c r="D924">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="925" spans="1:4">
@@ -13350,7 +13350,7 @@
         <v>49.3</v>
       </c>
       <c r="D926">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="927" spans="1:4">
@@ -13364,7 +13364,7 @@
         <v>45.6</v>
       </c>
       <c r="D927">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="928" spans="1:4">
@@ -13378,7 +13378,7 @@
         <v>43.9</v>
       </c>
       <c r="D928">
-        <v>80</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="929" spans="1:4">
@@ -13392,7 +13392,7 @@
         <v>40</v>
       </c>
       <c r="D929">
-        <v>70</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="930" spans="1:4">
@@ -13406,7 +13406,7 @@
         <v>43</v>
       </c>
       <c r="D930">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -13420,7 +13420,7 @@
         <v>56.7</v>
       </c>
       <c r="D931">
-        <v>73</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -13448,7 +13448,7 @@
         <v>40.1</v>
       </c>
       <c r="D933">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -13462,7 +13462,7 @@
         <v>47.2</v>
       </c>
       <c r="D934">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -13476,7 +13476,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D935">
-        <v>77</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="936" spans="1:4">
@@ -13490,7 +13490,7 @@
         <v>45.6</v>
       </c>
       <c r="D936">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="937" spans="1:4">
@@ -13504,7 +13504,7 @@
         <v>41.4</v>
       </c>
       <c r="D937">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -13518,7 +13518,7 @@
         <v>52.6</v>
       </c>
       <c r="D938">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="939" spans="1:4">
@@ -13532,7 +13532,7 @@
         <v>50.2</v>
       </c>
       <c r="D939">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="940" spans="1:4">
@@ -13546,7 +13546,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="D940">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="941" spans="1:4">
@@ -13560,7 +13560,7 @@
         <v>45</v>
       </c>
       <c r="D941">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="942" spans="1:4">
@@ -13574,7 +13574,7 @@
         <v>51.6</v>
       </c>
       <c r="D942">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -13588,7 +13588,7 @@
         <v>56.1</v>
       </c>
       <c r="D943">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -13602,7 +13602,7 @@
         <v>50.2</v>
       </c>
       <c r="D944">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="945" spans="1:4">
@@ -13616,7 +13616,7 @@
         <v>50.7</v>
       </c>
       <c r="D945">
-        <v>78</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="946" spans="1:4">
@@ -13630,7 +13630,7 @@
         <v>55</v>
       </c>
       <c r="D946">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="947" spans="1:4">
@@ -13644,7 +13644,7 @@
         <v>53.1</v>
       </c>
       <c r="D947">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -13658,7 +13658,7 @@
         <v>47.5</v>
       </c>
       <c r="D948">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="949" spans="1:4">
@@ -13672,7 +13672,7 @@
         <v>59.3</v>
       </c>
       <c r="D949">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="950" spans="1:4">
@@ -13686,7 +13686,7 @@
         <v>45.7</v>
       </c>
       <c r="D950">
-        <v>77</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="951" spans="1:4">
@@ -13700,7 +13700,7 @@
         <v>51.8</v>
       </c>
       <c r="D951">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -13714,7 +13714,7 @@
         <v>43.6</v>
       </c>
       <c r="D952">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="953" spans="1:4">
@@ -13728,7 +13728,7 @@
         <v>58.3</v>
       </c>
       <c r="D953">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -13742,7 +13742,7 @@
         <v>47.3</v>
       </c>
       <c r="D954">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="955" spans="1:4">
@@ -13756,7 +13756,7 @@
         <v>42.7</v>
       </c>
       <c r="D955">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="956" spans="1:4">
@@ -13770,7 +13770,7 @@
         <v>58.5</v>
       </c>
       <c r="D956">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -13784,7 +13784,7 @@
         <v>49.8</v>
       </c>
       <c r="D957">
-        <v>79</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="958" spans="1:4">
@@ -13798,7 +13798,7 @@
         <v>58.7</v>
       </c>
       <c r="D958">
-        <v>71</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="959" spans="1:4">
@@ -13812,7 +13812,7 @@
         <v>58</v>
       </c>
       <c r="D959">
-        <v>74</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="960" spans="1:4">
@@ -13826,7 +13826,7 @@
         <v>47.4</v>
       </c>
       <c r="D960">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="961" spans="1:4">
@@ -13840,7 +13840,7 @@
         <v>54.4</v>
       </c>
       <c r="D961">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="962" spans="1:4">
@@ -13854,7 +13854,7 @@
         <v>49.4</v>
       </c>
       <c r="D962">
-        <v>80</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -13868,7 +13868,7 @@
         <v>49.2</v>
       </c>
       <c r="D963">
-        <v>74</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -13882,7 +13882,7 @@
         <v>48.9</v>
       </c>
       <c r="D964">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -13896,7 +13896,7 @@
         <v>52.2</v>
       </c>
       <c r="D965">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -13910,7 +13910,7 @@
         <v>56.2</v>
       </c>
       <c r="D966">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -13924,7 +13924,7 @@
         <v>56.3</v>
       </c>
       <c r="D967">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -13938,7 +13938,7 @@
         <v>44.2</v>
       </c>
       <c r="D968">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -13952,7 +13952,7 @@
         <v>58.8</v>
       </c>
       <c r="D969">
-        <v>72</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -13966,7 +13966,7 @@
         <v>58</v>
       </c>
       <c r="D970">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -13980,7 +13980,7 @@
         <v>55.9</v>
       </c>
       <c r="D971">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -13994,7 +13994,7 @@
         <v>53.9</v>
       </c>
       <c r="D972">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -14008,7 +14008,7 @@
         <v>57.5</v>
       </c>
       <c r="D973">
-        <v>74</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -14022,7 +14022,7 @@
         <v>55</v>
       </c>
       <c r="D974">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -14036,7 +14036,7 @@
         <v>47.1</v>
       </c>
       <c r="D975">
-        <v>75</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -14050,7 +14050,7 @@
         <v>45</v>
       </c>
       <c r="D976">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14064,7 +14064,7 @@
         <v>43.7</v>
       </c>
       <c r="D977">
-        <v>80</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -14078,7 +14078,7 @@
         <v>41.6</v>
       </c>
       <c r="D978">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>49.9</v>
       </c>
       <c r="D979">
-        <v>72</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -14106,7 +14106,7 @@
         <v>54</v>
       </c>
       <c r="D980">
-        <v>78</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -14120,7 +14120,7 @@
         <v>44.9</v>
       </c>
       <c r="D981">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -14134,7 +14134,7 @@
         <v>44.5</v>
       </c>
       <c r="D982">
-        <v>75</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -14148,7 +14148,7 @@
         <v>42.1</v>
       </c>
       <c r="D983">
-        <v>78</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -14162,7 +14162,7 @@
         <v>59.6</v>
       </c>
       <c r="D984">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -14176,7 +14176,7 @@
         <v>45.7</v>
       </c>
       <c r="D985">
-        <v>72</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -14190,7 +14190,7 @@
         <v>51.4</v>
       </c>
       <c r="D986">
-        <v>71</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -14204,7 +14204,7 @@
         <v>46.1</v>
       </c>
       <c r="D987">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -14218,7 +14218,7 @@
         <v>45.4</v>
       </c>
       <c r="D988">
-        <v>77</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -14232,7 +14232,7 @@
         <v>41.1</v>
       </c>
       <c r="D989">
-        <v>71</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -14246,7 +14246,7 @@
         <v>53.5</v>
       </c>
       <c r="D990">
-        <v>70</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -14260,7 +14260,7 @@
         <v>45.9</v>
       </c>
       <c r="D991">
-        <v>71</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -14274,7 +14274,7 @@
         <v>43.5</v>
       </c>
       <c r="D992">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -14288,7 +14288,7 @@
         <v>44.3</v>
       </c>
       <c r="D993">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -14302,7 +14302,7 @@
         <v>54.5</v>
       </c>
       <c r="D994">
-        <v>73</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -14316,7 +14316,7 @@
         <v>51.6</v>
       </c>
       <c r="D995">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -14330,7 +14330,7 @@
         <v>44.8</v>
       </c>
       <c r="D996">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -14344,7 +14344,7 @@
         <v>47.4</v>
       </c>
       <c r="D997">
-        <v>77</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -14372,7 +14372,7 @@
         <v>42.3</v>
       </c>
       <c r="D999">
-        <v>79</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -14386,7 +14386,7 @@
         <v>51</v>
       </c>
       <c r="D1000">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -14400,7 +14400,7 @@
         <v>59.3</v>
       </c>
       <c r="D1001">
-        <v>71</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.9</v>
+        <v>22.34699218414767</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.5</v>
+        <v>18.94876646642199</v>
       </c>
       <c r="C3">
         <v>52.4</v>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.1</v>
+        <v>20.9725414682384</v>
       </c>
       <c r="C4">
         <v>46.6</v>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.4</v>
+        <v>17.68680142431967</v>
       </c>
       <c r="C5">
         <v>51.4</v>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12.8</v>
+        <v>19.78594450667197</v>
       </c>
       <c r="C6">
         <v>52.3</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12.4</v>
+        <v>19.705586238371</v>
       </c>
       <c r="C7">
         <v>54.5</v>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.3</v>
+        <v>19.31830620082363</v>
       </c>
       <c r="C8">
         <v>43.2</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.7</v>
+        <v>19.58629545548013</v>
       </c>
       <c r="C9">
         <v>60</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.3</v>
+        <v>18.24047228411944</v>
       </c>
       <c r="C10">
         <v>58</v>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18.9</v>
+        <v>21.32364035376856</v>
       </c>
       <c r="C11">
         <v>53.9</v>
@@ -584,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.5</v>
+        <v>18.93972635817185</v>
       </c>
       <c r="C12">
         <v>48.3</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14.2</v>
+        <v>20.05240536892325</v>
       </c>
       <c r="C13">
         <v>56.40000000000001</v>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18.3</v>
+        <v>21.05539660507858</v>
       </c>
       <c r="C14">
         <v>45.9</v>
@@ -635,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>21.36687392071639</v>
       </c>
       <c r="C15">
         <v>55.9</v>
@@ -652,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>20.64056262193415</v>
       </c>
       <c r="C16">
         <v>48.8</v>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.5</v>
+        <v>18.66732520180673</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.6</v>
+        <v>20.13033489057301</v>
       </c>
       <c r="C18">
         <v>53.4</v>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12.6</v>
+        <v>19.74786308445574</v>
       </c>
       <c r="C19">
         <v>58</v>
@@ -720,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9.9</v>
+        <v>19.23546733821468</v>
       </c>
       <c r="C20">
         <v>55.4</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>17.7</v>
+        <v>20.83322038938336</v>
       </c>
       <c r="C21">
         <v>55</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>14.5</v>
+        <v>20.10007227714984</v>
       </c>
       <c r="C22">
         <v>47.2</v>
@@ -771,7 +771,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10.2</v>
+        <v>19.29871651318586</v>
       </c>
       <c r="C23">
         <v>51.1</v>
@@ -788,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17.9</v>
+        <v>20.90314422718841</v>
       </c>
       <c r="C24">
         <v>57.8</v>
@@ -805,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5.5</v>
+        <v>17.71684023813057</v>
       </c>
       <c r="C25">
         <v>56.90000000000001</v>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17.5</v>
+        <v>20.77399559005131</v>
       </c>
       <c r="C26">
         <v>45</v>
@@ -839,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5.4</v>
+        <v>17.61714749406198</v>
       </c>
       <c r="C27">
         <v>56</v>
@@ -856,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7.300000000000001</v>
+        <v>18.63213639556501</v>
       </c>
       <c r="C28">
         <v>43</v>
@@ -873,7 +873,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18.7</v>
+        <v>21.22835418229116</v>
       </c>
       <c r="C29">
         <v>47.8</v>
@@ -890,7 +890,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>19.9</v>
+        <v>22.26262859543071</v>
       </c>
       <c r="C30">
         <v>44.2</v>
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10.5</v>
+        <v>19.35215797512741</v>
       </c>
       <c r="C31">
         <v>45.3</v>
@@ -924,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>9.9</v>
+        <v>19.24268262183828</v>
       </c>
       <c r="C32">
         <v>46.4</v>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7.2</v>
+        <v>18.58961443803974</v>
       </c>
       <c r="C33">
         <v>53</v>
@@ -958,7 +958,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13.5</v>
+        <v>19.91362689305645</v>
       </c>
       <c r="C34">
         <v>50.6</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6.1</v>
+        <v>18.1350507699907</v>
       </c>
       <c r="C35">
         <v>58.6</v>
@@ -992,7 +992,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>13.7</v>
+        <v>19.94444357232615</v>
       </c>
       <c r="C36">
         <v>41.5</v>
@@ -1009,7 +1009,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>17.2</v>
+        <v>20.71173720610764</v>
       </c>
       <c r="C37">
         <v>59.3</v>
@@ -1026,7 +1026,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7.5</v>
+        <v>18.68568905469693</v>
       </c>
       <c r="C38">
         <v>43.3</v>
@@ -1043,7 +1043,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>20.93256932481032</v>
       </c>
       <c r="C39">
         <v>58.1</v>
@@ -1060,7 +1060,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>12.7</v>
+        <v>19.76240462416556</v>
       </c>
       <c r="C40">
         <v>45.3</v>
@@ -1077,7 +1077,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>13.4</v>
+        <v>19.89719916398988</v>
       </c>
       <c r="C41">
         <v>44.1</v>
@@ -1094,7 +1094,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8.800000000000001</v>
+        <v>19.00132287734746</v>
       </c>
       <c r="C42">
         <v>41.6</v>
@@ -1111,7 +1111,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>19.25312468968801</v>
       </c>
       <c r="C43">
         <v>57.7</v>
@@ -1128,7 +1128,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>14.1</v>
+        <v>20.02735307018783</v>
       </c>
       <c r="C44">
         <v>53.9</v>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>19.44660066889557</v>
       </c>
       <c r="C45">
         <v>42.3</v>
@@ -1162,7 +1162,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>11.6</v>
+        <v>19.56657951503578</v>
       </c>
       <c r="C46">
         <v>43.1</v>
@@ -1179,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>13.6</v>
+        <v>19.94033262301556</v>
       </c>
       <c r="C47">
         <v>46.2</v>
@@ -1196,7 +1196,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>17.1</v>
+        <v>20.67952830186425</v>
       </c>
       <c r="C48">
         <v>42</v>
@@ -1213,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>19.7</v>
+        <v>21.97451690028184</v>
       </c>
       <c r="C49">
         <v>53.5</v>
@@ -1230,7 +1230,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>13.6</v>
+        <v>19.93367744367084</v>
       </c>
       <c r="C50">
         <v>40.2</v>
@@ -1247,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7.7</v>
+        <v>18.73721068347358</v>
       </c>
       <c r="C51">
         <v>49.4</v>
@@ -1264,7 +1264,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>11.4</v>
+        <v>19.52792160305259</v>
       </c>
       <c r="C52">
         <v>57.1</v>
@@ -1281,7 +1281,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7.800000000000001</v>
+        <v>18.75735546129128</v>
       </c>
       <c r="C53">
         <v>49</v>
@@ -1298,7 +1298,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7.2</v>
+        <v>18.57243258910384</v>
       </c>
       <c r="C54">
         <v>46.9</v>
@@ -1315,7 +1315,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>20.93874698619878</v>
       </c>
       <c r="C55">
         <v>51.7</v>
@@ -1332,7 +1332,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7.800000000000001</v>
+        <v>18.77380091704266</v>
       </c>
       <c r="C56">
         <v>54.5</v>
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8.4</v>
+        <v>18.90278802421585</v>
       </c>
       <c r="C57">
         <v>49.5</v>
@@ -1366,7 +1366,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>16.4</v>
+        <v>20.50136373682255</v>
       </c>
       <c r="C58">
         <v>59.5</v>
@@ -1383,7 +1383,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>13.4</v>
+        <v>19.89072516776493</v>
       </c>
       <c r="C59">
         <v>57.90000000000001</v>
@@ -1400,7 +1400,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>17.6</v>
+        <v>20.81678216234342</v>
       </c>
       <c r="C60">
         <v>59.8</v>
@@ -1417,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>12.6</v>
+        <v>19.74089602804395</v>
       </c>
       <c r="C61">
         <v>43.3</v>
@@ -1434,7 +1434,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>16.3</v>
+        <v>20.47233769946381</v>
       </c>
       <c r="C62">
         <v>55.3</v>
@@ -1451,7 +1451,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>15.6</v>
+        <v>20.32036585699339</v>
       </c>
       <c r="C63">
         <v>46.1</v>
@@ -1468,7 +1468,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>5.3</v>
+        <v>17.59355730957149</v>
       </c>
       <c r="C64">
         <v>45.6</v>
@@ -1485,7 +1485,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>16.66829361806216</v>
       </c>
       <c r="C65">
         <v>44.2</v>
@@ -1502,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>18.8</v>
+        <v>21.25650455998376</v>
       </c>
       <c r="C66">
         <v>59.3</v>
@@ -1519,7 +1519,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>13.3</v>
+        <v>19.88098700508722</v>
       </c>
       <c r="C67">
         <v>51.3</v>
@@ -1536,7 +1536,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>19.8</v>
+        <v>22.16306803998082</v>
       </c>
       <c r="C68">
         <v>56.90000000000001</v>
@@ -1553,7 +1553,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>14.1</v>
+        <v>20.023153950404</v>
       </c>
       <c r="C69">
         <v>56</v>
@@ -1570,7 +1570,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>16.8</v>
+        <v>20.59189388605949</v>
       </c>
       <c r="C70">
         <v>46.8</v>
@@ -1587,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>9.199999999999999</v>
+        <v>19.09455499008282</v>
       </c>
       <c r="C71">
         <v>43.8</v>
@@ -1604,7 +1604,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>10.2</v>
+        <v>19.29436477820988</v>
       </c>
       <c r="C72">
         <v>41</v>
@@ -1621,7 +1621,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>18.09668248624326</v>
       </c>
       <c r="C73">
         <v>57.8</v>
@@ -1638,7 +1638,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>20.19933524131191</v>
       </c>
       <c r="C74">
         <v>53.2</v>
@@ -1655,7 +1655,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>9.800000000000001</v>
+        <v>19.22810588460662</v>
       </c>
       <c r="C75">
         <v>49.1</v>
@@ -1672,7 +1672,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>11.1</v>
+        <v>19.46378184977716</v>
       </c>
       <c r="C76">
         <v>42.1</v>
@@ -1689,7 +1689,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>18.4</v>
+        <v>21.06330874826595</v>
       </c>
       <c r="C77">
         <v>49.8</v>
@@ -1706,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>10.5</v>
+        <v>19.35926804379194</v>
       </c>
       <c r="C78">
         <v>51</v>
@@ -1723,7 +1723,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>17.6</v>
+        <v>20.80780850984331</v>
       </c>
       <c r="C79">
         <v>42.4</v>
@@ -1740,7 +1740,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>18.8</v>
+        <v>21.26842557645188</v>
       </c>
       <c r="C80">
         <v>43.7</v>
@@ -1757,7 +1757,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>10.3</v>
+        <v>19.31343239811562</v>
       </c>
       <c r="C81">
         <v>47</v>
@@ -1774,7 +1774,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>10.2</v>
+        <v>19.3037372737883</v>
       </c>
       <c r="C82">
         <v>50.7</v>
@@ -1791,7 +1791,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8.1</v>
+        <v>18.8453651480499</v>
       </c>
       <c r="C83">
         <v>52.2</v>
@@ -1808,7 +1808,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>8.1</v>
+        <v>18.82694761709738</v>
       </c>
       <c r="C84">
         <v>53.1</v>
@@ -1825,7 +1825,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>16.9</v>
+        <v>20.63284909185845</v>
       </c>
       <c r="C85">
         <v>51.5</v>
@@ -1842,7 +1842,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7.800000000000001</v>
+        <v>18.75074874010431</v>
       </c>
       <c r="C86">
         <v>47.7</v>
@@ -1859,7 +1859,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>12.9</v>
+        <v>19.80805307174401</v>
       </c>
       <c r="C87">
         <v>52.1</v>
@@ -1876,7 +1876,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>18.5</v>
+        <v>21.10645907037546</v>
       </c>
       <c r="C88">
         <v>46.4</v>
@@ -1893,7 +1893,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>13.9</v>
+        <v>19.99728320288458</v>
       </c>
       <c r="C89">
         <v>51.7</v>
@@ -1910,7 +1910,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>18.08824417495142</v>
       </c>
       <c r="C90">
         <v>49.6</v>
@@ -1927,7 +1927,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>18.7</v>
+        <v>21.21471667890144</v>
       </c>
       <c r="C91">
         <v>40.6</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.4</v>
+        <v>20.74608694065834</v>
       </c>
       <c r="C92">
         <v>41.2</v>
@@ -1961,7 +1961,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>18.4</v>
+        <v>21.07263612243313</v>
       </c>
       <c r="C93">
         <v>56.5</v>
@@ -1978,7 +1978,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8.699999999999999</v>
+        <v>18.97888022688699</v>
       </c>
       <c r="C94">
         <v>43</v>
@@ -1995,7 +1995,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>5.5</v>
+        <v>17.77412570053552</v>
       </c>
       <c r="C95">
         <v>59.5</v>
@@ -2012,7 +2012,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>10.3</v>
+        <v>19.32360738317808</v>
       </c>
       <c r="C96">
         <v>51.9</v>
@@ -2029,7 +2029,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>17.7</v>
+        <v>20.84400699696241</v>
       </c>
       <c r="C97">
         <v>50</v>
@@ -2046,7 +2046,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>11.7</v>
+        <v>19.59226419980441</v>
       </c>
       <c r="C98">
         <v>45.8</v>
@@ -2063,7 +2063,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>11.2</v>
+        <v>19.4887680003026</v>
       </c>
       <c r="C99">
         <v>44.9</v>
@@ -2080,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>17.2</v>
+        <v>20.69727465810487</v>
       </c>
       <c r="C100">
         <v>57.2</v>
@@ -2097,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>15.9</v>
+        <v>20.38752384553761</v>
       </c>
       <c r="C101">
         <v>54.8</v>
@@ -2114,7 +2114,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>10.7</v>
+        <v>19.38959560012402</v>
       </c>
       <c r="C102">
         <v>40.3</v>
@@ -2131,7 +2131,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>19.7</v>
+        <v>21.89827680316274</v>
       </c>
       <c r="C103">
         <v>50.9</v>
@@ -2148,7 +2148,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>9.800000000000001</v>
+        <v>19.21147435695603</v>
       </c>
       <c r="C104">
         <v>51.7</v>
@@ -2165,7 +2165,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>9.5</v>
+        <v>19.14845544557699</v>
       </c>
       <c r="C105">
         <v>44.6</v>
@@ -2182,7 +2182,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>11.7</v>
+        <v>19.5758234992391</v>
       </c>
       <c r="C106">
         <v>43.6</v>
@@ -2199,7 +2199,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>18.6</v>
+        <v>21.17842522400604</v>
       </c>
       <c r="C107">
         <v>57.1</v>
@@ -2216,7 +2216,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>18.7</v>
+        <v>21.2018463436892</v>
       </c>
       <c r="C108">
         <v>54.8</v>
@@ -2233,7 +2233,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>6.7</v>
+        <v>18.43253533983457</v>
       </c>
       <c r="C109">
         <v>52.3</v>
@@ -2250,7 +2250,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>12.3</v>
+        <v>19.69820135259823</v>
       </c>
       <c r="C110">
         <v>44.5</v>
@@ -2267,7 +2267,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7.1</v>
+        <v>18.56254270744711</v>
       </c>
       <c r="C111">
         <v>46.3</v>
@@ -2284,7 +2284,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>19.2</v>
+        <v>21.50340448280067</v>
       </c>
       <c r="C112">
         <v>51.1</v>
@@ -2301,7 +2301,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>12.3</v>
+        <v>19.69099408221855</v>
       </c>
       <c r="C113">
         <v>50</v>
@@ -2318,7 +2318,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>9.600000000000001</v>
+        <v>19.18540345116867</v>
       </c>
       <c r="C114">
         <v>47.8</v>
@@ -2335,7 +2335,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>9.699999999999999</v>
+        <v>19.19367529911394</v>
       </c>
       <c r="C115">
         <v>45.6</v>
@@ -2352,7 +2352,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>11</v>
+        <v>19.44480599713604</v>
       </c>
       <c r="C116">
         <v>49.7</v>
@@ -2369,7 +2369,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>11.6</v>
+        <v>19.57235310165887</v>
       </c>
       <c r="C117">
         <v>55.2</v>
@@ -2386,7 +2386,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>15.3</v>
+        <v>20.26035873025517</v>
       </c>
       <c r="C118">
         <v>53</v>
@@ -2403,7 +2403,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>19.1</v>
+        <v>21.40019101098432</v>
       </c>
       <c r="C119">
         <v>54.9</v>
@@ -2420,7 +2420,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>18.6</v>
+        <v>21.15613289245142</v>
       </c>
       <c r="C120">
         <v>40.2</v>
@@ -2437,7 +2437,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>9.5</v>
+        <v>19.16529920310348</v>
       </c>
       <c r="C121">
         <v>50.4</v>
@@ -2454,7 +2454,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>8.800000000000001</v>
+        <v>19.00736126099889</v>
       </c>
       <c r="C122">
         <v>46.5</v>
@@ -2471,7 +2471,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>11.6</v>
+        <v>19.56243998505309</v>
       </c>
       <c r="C123">
         <v>59.2</v>
@@ -2488,7 +2488,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>5.8</v>
+        <v>17.95575711754063</v>
       </c>
       <c r="C124">
         <v>47.5</v>
@@ -2505,7 +2505,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>18.6</v>
+        <v>21.17587794622032</v>
       </c>
       <c r="C125">
         <v>51.7</v>
@@ -2522,7 +2522,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>19.5</v>
+        <v>21.70825372146886</v>
       </c>
       <c r="C126">
         <v>58.2</v>
@@ -2539,7 +2539,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>13.2</v>
+        <v>19.85675505365982</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -2556,7 +2556,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>10.9</v>
+        <v>19.43403187560427</v>
       </c>
       <c r="C128">
         <v>47.5</v>
@@ -2573,7 +2573,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>15.2</v>
+        <v>20.23817795590103</v>
       </c>
       <c r="C129">
         <v>40.2</v>
@@ -2590,7 +2590,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>16.5</v>
+        <v>20.52740932825657</v>
       </c>
       <c r="C130">
         <v>43</v>
@@ -2607,7 +2607,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>11.1</v>
+        <v>19.47196605242637</v>
       </c>
       <c r="C131">
         <v>46.8</v>
@@ -2624,7 +2624,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>13.3</v>
+        <v>19.87788225296969</v>
       </c>
       <c r="C132">
         <v>42.6</v>
@@ -2641,7 +2641,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>16.1</v>
+        <v>20.43343790231943</v>
       </c>
       <c r="C133">
         <v>55.2</v>
@@ -2658,7 +2658,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>13.4</v>
+        <v>19.90371048117065</v>
       </c>
       <c r="C134">
         <v>54.1</v>
@@ -2675,7 +2675,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7.9</v>
+        <v>18.7773301188022</v>
       </c>
       <c r="C135">
         <v>56</v>
@@ -2692,7 +2692,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>11.2</v>
+        <v>19.49196039651519</v>
       </c>
       <c r="C136">
         <v>53.4</v>
@@ -2709,7 +2709,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>10.3</v>
+        <v>19.31047058772228</v>
       </c>
       <c r="C137">
         <v>57.1</v>
@@ -2726,7 +2726,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>5.8</v>
+        <v>18.01266542947421</v>
       </c>
       <c r="C138">
         <v>58.3</v>
@@ -2743,7 +2743,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>11.8</v>
+        <v>19.5941887223843</v>
       </c>
       <c r="C139">
         <v>47.4</v>
@@ -2760,7 +2760,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>10.1</v>
+        <v>19.28225781720121</v>
       </c>
       <c r="C140">
         <v>52.4</v>
@@ -2777,7 +2777,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>19.4</v>
+        <v>21.58445753436215</v>
       </c>
       <c r="C141">
         <v>43.9</v>
@@ -2794,7 +2794,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>18.5</v>
+        <v>21.13785976366181</v>
       </c>
       <c r="C142">
         <v>42.3</v>
@@ -2811,7 +2811,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>17</v>
+        <v>20.64555844974231</v>
       </c>
       <c r="C143">
         <v>54.1</v>
@@ -2828,7 +2828,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>18.5</v>
+        <v>21.13999059326736</v>
       </c>
       <c r="C144">
         <v>55.8</v>
@@ -2845,7 +2845,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>12.1</v>
+        <v>19.65237529323189</v>
       </c>
       <c r="C145">
         <v>55.4</v>
@@ -2862,7 +2862,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8.800000000000001</v>
+        <v>19.01660478321771</v>
       </c>
       <c r="C146">
         <v>50</v>
@@ -2879,7 +2879,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>17.1</v>
+        <v>20.67826374760513</v>
       </c>
       <c r="C147">
         <v>55.3</v>
@@ -2896,7 +2896,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>19.4</v>
+        <v>21.64421481434317</v>
       </c>
       <c r="C148">
         <v>49.8</v>
@@ -2913,7 +2913,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>13.9</v>
+        <v>19.9889730941799</v>
       </c>
       <c r="C149">
         <v>52</v>
@@ -2930,7 +2930,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>9.699999999999999</v>
+        <v>19.20610095730715</v>
       </c>
       <c r="C150">
         <v>59.7</v>
@@ -2947,7 +2947,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>20.00151997930875</v>
       </c>
       <c r="C151">
         <v>48.1</v>
@@ -2964,7 +2964,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>15.4</v>
+        <v>20.27574135059541</v>
       </c>
       <c r="C152">
         <v>53.3</v>
@@ -2981,7 +2981,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>20.20629479954976</v>
       </c>
       <c r="C153">
         <v>45.5</v>
@@ -2998,7 +2998,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>9.699999999999999</v>
+        <v>19.19628007094541</v>
       </c>
       <c r="C154">
         <v>53.3</v>
@@ -3015,7 +3015,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>6.5</v>
+        <v>18.32832141940622</v>
       </c>
       <c r="C155">
         <v>53.7</v>
@@ -3032,7 +3032,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>9.100000000000001</v>
+        <v>19.06390223597044</v>
       </c>
       <c r="C156">
         <v>42.6</v>
@@ -3049,7 +3049,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>18.3</v>
+        <v>21.04510324454338</v>
       </c>
       <c r="C157">
         <v>45.6</v>
@@ -3066,7 +3066,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>17.5</v>
+        <v>20.78009010588557</v>
       </c>
       <c r="C158">
         <v>44.7</v>
@@ -3083,7 +3083,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>8.699999999999999</v>
+        <v>18.97500953201673</v>
       </c>
       <c r="C159">
         <v>58.3</v>
@@ -3100,7 +3100,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>19.82983882913367</v>
       </c>
       <c r="C160">
         <v>53.1</v>
@@ -3117,7 +3117,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>19.5</v>
+        <v>21.72292063069483</v>
       </c>
       <c r="C161">
         <v>55.1</v>
@@ -3134,7 +3134,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>9.4</v>
+        <v>19.14400545448699</v>
       </c>
       <c r="C162">
         <v>50.7</v>
@@ -3151,7 +3151,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>5.9</v>
+        <v>18.05234103368072</v>
       </c>
       <c r="C163">
         <v>42.7</v>
@@ -3168,7 +3168,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>13.7</v>
+        <v>19.9575337611466</v>
       </c>
       <c r="C164">
         <v>45</v>
@@ -3185,7 +3185,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>10.3</v>
+        <v>19.32584410862634</v>
       </c>
       <c r="C165">
         <v>58.5</v>
@@ -3202,7 +3202,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>16.7</v>
+        <v>20.58349233975826</v>
       </c>
       <c r="C166">
         <v>42.4</v>
@@ -3219,7 +3219,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>17.4</v>
+        <v>20.74386333081863</v>
       </c>
       <c r="C167">
         <v>43.3</v>
@@ -3236,7 +3236,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>18.8</v>
+        <v>21.24201593557794</v>
       </c>
       <c r="C168">
         <v>55.9</v>
@@ -3253,7 +3253,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>18.80062826606265</v>
       </c>
       <c r="C169">
         <v>48.3</v>
@@ -3270,7 +3270,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>9.4</v>
+        <v>19.13373519003053</v>
       </c>
       <c r="C170">
         <v>42.7</v>
@@ -3287,7 +3287,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>9.100000000000001</v>
+        <v>19.07549355367324</v>
       </c>
       <c r="C171">
         <v>55.8</v>
@@ -3304,7 +3304,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>14.4</v>
+        <v>20.08531692390456</v>
       </c>
       <c r="C172">
         <v>48.1</v>
@@ -3321,7 +3321,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>16.4</v>
+        <v>20.49536079719044</v>
       </c>
       <c r="C173">
         <v>41.8</v>
@@ -3338,7 +3338,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>14</v>
+        <v>20.00351212725519</v>
       </c>
       <c r="C174">
         <v>53.7</v>
@@ -3355,7 +3355,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>10.8</v>
+        <v>19.41336103077799</v>
       </c>
       <c r="C175">
         <v>52.8</v>
@@ -3372,7 +3372,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>10.1</v>
+        <v>19.28492577931289</v>
       </c>
       <c r="C176">
         <v>41.1</v>
@@ -3389,7 +3389,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>19.05995883068724</v>
       </c>
       <c r="C177">
         <v>56.40000000000001</v>
@@ -3406,7 +3406,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>14.9</v>
+        <v>20.17245738601902</v>
       </c>
       <c r="C178">
         <v>44.8</v>
@@ -3423,7 +3423,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7.6</v>
+        <v>18.69215728709323</v>
       </c>
       <c r="C179">
         <v>49</v>
@@ -3440,7 +3440,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>5.3</v>
+        <v>17.60016978099917</v>
       </c>
       <c r="C180">
         <v>56.6</v>
@@ -3457,7 +3457,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>16.1</v>
+        <v>20.42775959620784</v>
       </c>
       <c r="C181">
         <v>57</v>
@@ -3474,7 +3474,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>19.2</v>
+        <v>21.48952957945085</v>
       </c>
       <c r="C182">
         <v>54.3</v>
@@ -3491,7 +3491,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>11</v>
+        <v>19.45643674427486</v>
       </c>
       <c r="C183">
         <v>55.2</v>
@@ -3508,7 +3508,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>13.2</v>
+        <v>19.85120807242925</v>
       </c>
       <c r="C184">
         <v>52.7</v>
@@ -3525,7 +3525,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>9.4</v>
+        <v>19.13645127437153</v>
       </c>
       <c r="C185">
         <v>52.4</v>
@@ -3542,7 +3542,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>16</v>
+        <v>20.41882978914436</v>
       </c>
       <c r="C186">
         <v>57.5</v>
@@ -3559,7 +3559,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>19.9</v>
+        <v>22.28991880057973</v>
       </c>
       <c r="C187">
         <v>45.9</v>
@@ -3576,7 +3576,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>18.12543529975077</v>
       </c>
       <c r="C188">
         <v>47.4</v>
@@ -3593,7 +3593,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>5.2</v>
+        <v>17.30657533994502</v>
       </c>
       <c r="C189">
         <v>48.9</v>
@@ -3610,7 +3610,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>17.6</v>
+        <v>20.82705100267181</v>
       </c>
       <c r="C190">
         <v>42.1</v>
@@ -3627,7 +3627,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>11.2</v>
+        <v>19.48394775290699</v>
       </c>
       <c r="C191">
         <v>50.3</v>
@@ -3644,7 +3644,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>10.6</v>
+        <v>19.36927085027404</v>
       </c>
       <c r="C192">
         <v>56.5</v>
@@ -3661,7 +3661,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>12.2</v>
+        <v>19.6673650624909</v>
       </c>
       <c r="C193">
         <v>46.3</v>
@@ -3678,7 +3678,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>5.7</v>
+        <v>17.90011381437616</v>
       </c>
       <c r="C194">
         <v>55.3</v>
@@ -3695,7 +3695,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>6.1</v>
+        <v>18.16442476160097</v>
       </c>
       <c r="C195">
         <v>58.90000000000001</v>
@@ -3712,7 +3712,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>15.5</v>
+        <v>20.30209825624004</v>
       </c>
       <c r="C196">
         <v>45.4</v>
@@ -3729,7 +3729,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>14.4</v>
+        <v>20.08199524330982</v>
       </c>
       <c r="C197">
         <v>46.1</v>
@@ -3746,7 +3746,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7</v>
+        <v>18.53871726377419</v>
       </c>
       <c r="C198">
         <v>41.4</v>
@@ -3763,7 +3763,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>5.5</v>
+        <v>17.80309514606116</v>
       </c>
       <c r="C199">
         <v>53.8</v>
@@ -3780,7 +3780,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>16.5</v>
+        <v>20.51487435942013</v>
       </c>
       <c r="C200">
         <v>46.3</v>
@@ -3797,7 +3797,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>17.5</v>
+        <v>20.7830905523308</v>
       </c>
       <c r="C201">
         <v>40.5</v>
@@ -3814,7 +3814,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>8.9</v>
+        <v>19.0349092855822</v>
       </c>
       <c r="C202">
         <v>47.2</v>
@@ -3831,7 +3831,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>19.9</v>
+        <v>22.19913412653946</v>
       </c>
       <c r="C203">
         <v>45.6</v>
@@ -3848,7 +3848,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>8.4</v>
+        <v>18.90935237605481</v>
       </c>
       <c r="C204">
         <v>54.1</v>
@@ -3865,7 +3865,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>11.3</v>
+        <v>19.50158025975815</v>
       </c>
       <c r="C205">
         <v>51.3</v>
@@ -3882,7 +3882,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7.9</v>
+        <v>18.79193127413561</v>
       </c>
       <c r="C206">
         <v>44.5</v>
@@ -3899,7 +3899,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>10.7</v>
+        <v>19.39243698773087</v>
       </c>
       <c r="C207">
         <v>54.9</v>
@@ -3916,7 +3916,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>16</v>
+        <v>20.41577052442633</v>
       </c>
       <c r="C208">
         <v>50.2</v>
@@ -3933,7 +3933,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>5.1</v>
+        <v>17.04449578528386</v>
       </c>
       <c r="C209">
         <v>46.6</v>
@@ -3950,7 +3950,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>18.4</v>
+        <v>21.09342128122106</v>
       </c>
       <c r="C210">
         <v>47.3</v>
@@ -3967,7 +3967,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>15</v>
+        <v>20.20165787858954</v>
       </c>
       <c r="C211">
         <v>46.9</v>
@@ -3984,7 +3984,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>17.8</v>
+        <v>20.88804068945993</v>
       </c>
       <c r="C212">
         <v>54.2</v>
@@ -4001,7 +4001,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>6.8</v>
+        <v>18.46184053055656</v>
       </c>
       <c r="C213">
         <v>55.9</v>
@@ -4018,7 +4018,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>16.2</v>
+        <v>20.45534346358191</v>
       </c>
       <c r="C214">
         <v>47.2</v>
@@ -4035,7 +4035,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>19.8</v>
+        <v>22.09367723337446</v>
       </c>
       <c r="C215">
         <v>53.2</v>
@@ -4052,7 +4052,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>13.1</v>
+        <v>19.83826703998833</v>
       </c>
       <c r="C216">
         <v>45.5</v>
@@ -4069,7 +4069,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>8.9</v>
+        <v>19.02778159812627</v>
       </c>
       <c r="C217">
         <v>45.4</v>
@@ -4086,7 +4086,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>10.5</v>
+        <v>19.36623991604904</v>
       </c>
       <c r="C218">
         <v>57.8</v>
@@ -4103,7 +4103,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>12.7</v>
+        <v>19.77179617729625</v>
       </c>
       <c r="C219">
         <v>54.1</v>
@@ -4120,7 +4120,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>5.4</v>
+        <v>17.65484986751294</v>
       </c>
       <c r="C220">
         <v>52.5</v>
@@ -4137,7 +4137,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>19.4</v>
+        <v>21.61163669461623</v>
       </c>
       <c r="C221">
         <v>59.6</v>
@@ -4154,7 +4154,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>11.3</v>
+        <v>19.5079272317361</v>
       </c>
       <c r="C222">
         <v>45.9</v>
@@ -4171,7 +4171,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>9.600000000000001</v>
+        <v>19.1877200504568</v>
       </c>
       <c r="C223">
         <v>51.4</v>
@@ -4188,7 +4188,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>19.25654337443037</v>
       </c>
       <c r="C224">
         <v>56.2</v>
@@ -4205,7 +4205,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>17.9</v>
+        <v>20.89362987419874</v>
       </c>
       <c r="C225">
         <v>54.8</v>
@@ -4222,7 +4222,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>7.5</v>
+        <v>18.68901646004156</v>
       </c>
       <c r="C226">
         <v>59.6</v>
@@ -4239,7 +4239,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>14</v>
+        <v>20.01028667160249</v>
       </c>
       <c r="C227">
         <v>59</v>
@@ -4256,7 +4256,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>19.7</v>
+        <v>21.95705343627831</v>
       </c>
       <c r="C228">
         <v>49.8</v>
@@ -4273,7 +4273,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>14.3</v>
+        <v>20.06507291859231</v>
       </c>
       <c r="C229">
         <v>43.8</v>
@@ -4290,7 +4290,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>12.5</v>
+        <v>19.73143217541972</v>
       </c>
       <c r="C230">
         <v>56</v>
@@ -4307,7 +4307,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>14.6</v>
+        <v>20.11472785519699</v>
       </c>
       <c r="C231">
         <v>53.8</v>
@@ -4324,7 +4324,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>20</v>
+        <v>22.94821007318545</v>
       </c>
       <c r="C232">
         <v>54.3</v>
@@ -4341,7 +4341,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>9.100000000000001</v>
+        <v>19.08106920740778</v>
       </c>
       <c r="C233">
         <v>40.5</v>
@@ -4358,7 +4358,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>9.699999999999999</v>
+        <v>19.20278928148765</v>
       </c>
       <c r="C234">
         <v>50.9</v>
@@ -4375,7 +4375,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>17.3</v>
+        <v>20.73402524789051</v>
       </c>
       <c r="C235">
         <v>44.3</v>
@@ -4392,7 +4392,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>18.2</v>
+        <v>21.0194818145896</v>
       </c>
       <c r="C236">
         <v>48.8</v>
@@ -4409,7 +4409,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>14.3</v>
+        <v>20.07118185261643</v>
       </c>
       <c r="C237">
         <v>43.4</v>
@@ -4426,7 +4426,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7.300000000000001</v>
+        <v>18.62595575186766</v>
       </c>
       <c r="C238">
         <v>40.7</v>
@@ -4443,7 +4443,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>11.7</v>
+        <v>19.58047292818676</v>
       </c>
       <c r="C239">
         <v>44.6</v>
@@ -4460,7 +4460,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>19.7</v>
+        <v>21.91503167154034</v>
       </c>
       <c r="C240">
         <v>59.1</v>
@@ -4477,7 +4477,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>5.9</v>
+        <v>18.06020330940891</v>
       </c>
       <c r="C241">
         <v>58.2</v>
@@ -4494,7 +4494,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>12.7</v>
+        <v>19.75810555386495</v>
       </c>
       <c r="C242">
         <v>43.5</v>
@@ -4511,7 +4511,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>16.6</v>
+        <v>20.5486505121859</v>
       </c>
       <c r="C243">
         <v>45.8</v>
@@ -4528,7 +4528,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>6.6</v>
+        <v>18.38056729539755</v>
       </c>
       <c r="C244">
         <v>48.4</v>
@@ -4545,7 +4545,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>8.300000000000001</v>
+        <v>18.88398821801095</v>
       </c>
       <c r="C245">
         <v>58.1</v>
@@ -4562,7 +4562,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>12.8</v>
+        <v>19.79201755720137</v>
       </c>
       <c r="C246">
         <v>52.9</v>
@@ -4579,7 +4579,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>17.9</v>
+        <v>20.91604251495882</v>
       </c>
       <c r="C247">
         <v>48.2</v>
@@ -4596,7 +4596,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>13.6</v>
+        <v>19.92657014628026</v>
       </c>
       <c r="C248">
         <v>40.4</v>
@@ -4613,7 +4613,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>19.7</v>
+        <v>21.86915489340142</v>
       </c>
       <c r="C249">
         <v>40.8</v>
@@ -4630,7 +4630,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>6.9</v>
+        <v>18.47772614298871</v>
       </c>
       <c r="C250">
         <v>43.5</v>
@@ -4647,7 +4647,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>14.9</v>
+        <v>20.17899598305444</v>
       </c>
       <c r="C251">
         <v>53.3</v>
@@ -4664,7 +4664,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>14.5</v>
+        <v>20.1050688061407</v>
       </c>
       <c r="C252">
         <v>43.9</v>
@@ -4681,7 +4681,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>14.8</v>
+        <v>20.15965931439129</v>
       </c>
       <c r="C253">
         <v>44.6</v>
@@ -4698,7 +4698,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>11.9</v>
+        <v>19.61856625344814</v>
       </c>
       <c r="C254">
         <v>43.9</v>
@@ -4715,7 +4715,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>19.8</v>
+        <v>22.01904504508738</v>
       </c>
       <c r="C255">
         <v>59.3</v>
@@ -4732,7 +4732,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>19</v>
+        <v>21.37253623961459</v>
       </c>
       <c r="C256">
         <v>54</v>
@@ -4749,7 +4749,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>18.7</v>
+        <v>21.22340580009966</v>
       </c>
       <c r="C257">
         <v>57.40000000000001</v>
@@ -4766,7 +4766,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>13.6</v>
+        <v>19.93794467988567</v>
       </c>
       <c r="C258">
         <v>55.1</v>
@@ -4783,7 +4783,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>16.5</v>
+        <v>20.520716069694</v>
       </c>
       <c r="C259">
         <v>41.6</v>
@@ -4800,7 +4800,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>16.7</v>
+        <v>20.57874866528095</v>
       </c>
       <c r="C260">
         <v>58</v>
@@ -4817,7 +4817,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>7.1</v>
+        <v>18.55252453630867</v>
       </c>
       <c r="C261">
         <v>47</v>
@@ -4834,7 +4834,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>10.6</v>
+        <v>19.37986112195865</v>
       </c>
       <c r="C262">
         <v>58.1</v>
@@ -4851,7 +4851,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>5.8</v>
+        <v>17.97266791734692</v>
       </c>
       <c r="C263">
         <v>56.6</v>
@@ -4868,7 +4868,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>18.53533226993595</v>
       </c>
       <c r="C264">
         <v>54.2</v>
@@ -4885,7 +4885,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>15.8</v>
+        <v>20.36749159250538</v>
       </c>
       <c r="C265">
         <v>45</v>
@@ -4902,7 +4902,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>16.3</v>
+        <v>20.46883356438968</v>
       </c>
       <c r="C266">
         <v>45.3</v>
@@ -4919,7 +4919,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>15.1</v>
+        <v>20.2276912676472</v>
       </c>
       <c r="C267">
         <v>48.5</v>
@@ -4936,7 +4936,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>11.3</v>
+        <v>19.50938583776297</v>
       </c>
       <c r="C268">
         <v>50.2</v>
@@ -4953,7 +4953,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>14.5</v>
+        <v>20.09773575915071</v>
       </c>
       <c r="C269">
         <v>48.6</v>
@@ -4970,7 +4970,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>11.9</v>
+        <v>19.61597866637197</v>
       </c>
       <c r="C270">
         <v>45.5</v>
@@ -4987,7 +4987,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>18.8</v>
+        <v>21.26622818561784</v>
       </c>
       <c r="C271">
         <v>48</v>
@@ -5004,7 +5004,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>15.5</v>
+        <v>20.30904013365101</v>
       </c>
       <c r="C272">
         <v>43.1</v>
@@ -5021,7 +5021,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>16.7</v>
+        <v>20.5768042448586</v>
       </c>
       <c r="C273">
         <v>57.40000000000001</v>
@@ -5038,7 +5038,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>16.1</v>
+        <v>20.43969166660806</v>
       </c>
       <c r="C274">
         <v>59.40000000000001</v>
@@ -5055,7 +5055,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>6.3</v>
+        <v>18.27287196366162</v>
       </c>
       <c r="C275">
         <v>50.8</v>
@@ -5072,7 +5072,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>14.9</v>
+        <v>20.18173075383748</v>
       </c>
       <c r="C276">
         <v>42</v>
@@ -5089,7 +5089,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>7.6</v>
+        <v>18.69695965659326</v>
       </c>
       <c r="C277">
         <v>43.8</v>
@@ -5106,7 +5106,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>11.8</v>
+        <v>19.59565135922102</v>
       </c>
       <c r="C278">
         <v>48.3</v>
@@ -5123,7 +5123,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>7.800000000000001</v>
+        <v>18.76591466875445</v>
       </c>
       <c r="C279">
         <v>49.6</v>
@@ -5140,7 +5140,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>11.6</v>
+        <v>19.57364863333408</v>
       </c>
       <c r="C280">
         <v>51.6</v>
@@ -5157,7 +5157,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>15.7</v>
+        <v>20.33800809106116</v>
       </c>
       <c r="C281">
         <v>55.7</v>
@@ -5174,7 +5174,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>5.9</v>
+        <v>18.04131042693252</v>
       </c>
       <c r="C282">
         <v>60</v>
@@ -5191,7 +5191,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>6.1</v>
+        <v>18.16114560485253</v>
       </c>
       <c r="C283">
         <v>57.1</v>
@@ -5208,7 +5208,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>13.5</v>
+        <v>19.90740638155219</v>
       </c>
       <c r="C284">
         <v>47.8</v>
@@ -5225,7 +5225,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>19.6</v>
+        <v>21.7838809407895</v>
       </c>
       <c r="C285">
         <v>50.6</v>
@@ -5242,7 +5242,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>13.1</v>
+        <v>19.83352535499788</v>
       </c>
       <c r="C286">
         <v>49.9</v>
@@ -5259,7 +5259,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>9.5</v>
+        <v>19.15632750736339</v>
       </c>
       <c r="C287">
         <v>57.5</v>
@@ -5276,7 +5276,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>13.3</v>
+        <v>19.87423420824158</v>
       </c>
       <c r="C288">
         <v>48.2</v>
@@ -5293,7 +5293,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>6.9</v>
+        <v>18.47460067384383</v>
       </c>
       <c r="C289">
         <v>56.5</v>
@@ -5310,7 +5310,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>5.3</v>
+        <v>17.48606674637428</v>
       </c>
       <c r="C290">
         <v>54.3</v>
@@ -5327,7 +5327,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>15.3</v>
+        <v>20.2513415393817</v>
       </c>
       <c r="C291">
         <v>50.6</v>
@@ -5344,7 +5344,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>13.3</v>
+        <v>19.86858138383966</v>
       </c>
       <c r="C292">
         <v>49</v>
@@ -5361,7 +5361,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <v>19.63947513661903</v>
       </c>
       <c r="C293">
         <v>56.3</v>
@@ -5378,7 +5378,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>19.8</v>
+        <v>21.99161849332406</v>
       </c>
       <c r="C294">
         <v>43.2</v>
@@ -5395,7 +5395,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>19.45013680184531</v>
       </c>
       <c r="C295">
         <v>46.7</v>
@@ -5412,7 +5412,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>12</v>
+        <v>19.63058786761198</v>
       </c>
       <c r="C296">
         <v>51.3</v>
@@ -5429,7 +5429,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>13.4</v>
+        <v>19.89397165671244</v>
       </c>
       <c r="C297">
         <v>58.90000000000001</v>
@@ -5446,7 +5446,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>15.9</v>
+        <v>20.37907076539211</v>
       </c>
       <c r="C298">
         <v>51.2</v>
@@ -5463,7 +5463,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>10.4</v>
+        <v>19.34299602061408</v>
       </c>
       <c r="C299">
         <v>46.9</v>
@@ -5480,7 +5480,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>8.4</v>
+        <v>18.90425321944769</v>
       </c>
       <c r="C300">
         <v>52.8</v>
@@ -5497,7 +5497,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>12.8</v>
+        <v>19.78998209832449</v>
       </c>
       <c r="C301">
         <v>53.9</v>
@@ -5514,7 +5514,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>6.8</v>
+        <v>18.44448152858281</v>
       </c>
       <c r="C302">
         <v>59.8</v>
@@ -5531,7 +5531,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>6.6</v>
+        <v>18.38866611040713</v>
       </c>
       <c r="C303">
         <v>55.3</v>
@@ -5548,7 +5548,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>9.800000000000001</v>
+        <v>19.21366550271622</v>
       </c>
       <c r="C304">
         <v>42.5</v>
@@ -5565,7 +5565,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>16.6</v>
+        <v>20.55781491304734</v>
       </c>
       <c r="C305">
         <v>57.90000000000001</v>
@@ -5582,7 +5582,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>9.300000000000001</v>
+        <v>19.11523726233552</v>
       </c>
       <c r="C306">
         <v>52.9</v>
@@ -5599,7 +5599,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>15.8</v>
+        <v>20.37193917893048</v>
       </c>
       <c r="C307">
         <v>40.4</v>
@@ -5616,7 +5616,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>16.1</v>
+        <v>20.4350297724907</v>
       </c>
       <c r="C308">
         <v>56.2</v>
@@ -5633,7 +5633,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>8.300000000000001</v>
+        <v>18.89161098392288</v>
       </c>
       <c r="C309">
         <v>55.5</v>
@@ -5650,7 +5650,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>15.9</v>
+        <v>20.38372413534048</v>
       </c>
       <c r="C310">
         <v>41</v>
@@ -5667,7 +5667,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>14.3</v>
+        <v>20.06115974122596</v>
       </c>
       <c r="C311">
         <v>49.2</v>
@@ -5684,7 +5684,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>14.7</v>
+        <v>20.15014128308316</v>
       </c>
       <c r="C312">
         <v>56.5</v>
@@ -5701,7 +5701,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>16.7</v>
+        <v>20.57320883195223</v>
       </c>
       <c r="C313">
         <v>54</v>
@@ -5718,7 +5718,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>19.7</v>
+        <v>21.93767106090818</v>
       </c>
       <c r="C314">
         <v>54.6</v>
@@ -5735,7 +5735,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>17.8</v>
+        <v>20.85858559963285</v>
       </c>
       <c r="C315">
         <v>48.7</v>
@@ -5752,7 +5752,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>8.6</v>
+        <v>18.95836269833208</v>
       </c>
       <c r="C316">
         <v>52.8</v>
@@ -5769,7 +5769,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>10.5</v>
+        <v>19.364610463336</v>
       </c>
       <c r="C317">
         <v>59.8</v>
@@ -5786,7 +5786,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>14.6</v>
+        <v>20.12630585004303</v>
       </c>
       <c r="C318">
         <v>51.4</v>
@@ -5803,7 +5803,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>19</v>
+        <v>21.35213848500588</v>
       </c>
       <c r="C319">
         <v>46</v>
@@ -5820,7 +5820,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>18.5</v>
+        <v>21.1234777664117</v>
       </c>
       <c r="C320">
         <v>48.9</v>
@@ -5837,7 +5837,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>5.4</v>
+        <v>17.70021918935624</v>
       </c>
       <c r="C321">
         <v>42.3</v>
@@ -5854,7 +5854,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>11.7</v>
+        <v>19.5887781939037</v>
       </c>
       <c r="C322">
         <v>48.4</v>
@@ -5871,7 +5871,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>14.8</v>
+        <v>20.16347674070345</v>
       </c>
       <c r="C323">
         <v>51.8</v>
@@ -5888,7 +5888,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>13.2</v>
+        <v>19.86005449674204</v>
       </c>
       <c r="C324">
         <v>44.2</v>
@@ -5905,7 +5905,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>19.6</v>
+        <v>21.82077808878313</v>
       </c>
       <c r="C325">
         <v>55.1</v>
@@ -5922,7 +5922,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>6.5</v>
+        <v>18.33994725059078</v>
       </c>
       <c r="C326">
         <v>58.5</v>
@@ -5939,7 +5939,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>12.9</v>
+        <v>19.81175966397192</v>
       </c>
       <c r="C327">
         <v>58.40000000000001</v>
@@ -5956,7 +5956,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>15.7</v>
+        <v>20.35148721461476</v>
       </c>
       <c r="C328">
         <v>48.4</v>
@@ -5973,7 +5973,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>6.7</v>
+        <v>18.41113091406848</v>
       </c>
       <c r="C329">
         <v>41.7</v>
@@ -5990,7 +5990,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>9.600000000000001</v>
+        <v>19.17592289916422</v>
       </c>
       <c r="C330">
         <v>42.6</v>
@@ -6007,7 +6007,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>7.300000000000001</v>
+        <v>18.61097063048635</v>
       </c>
       <c r="C331">
         <v>50.9</v>
@@ -6024,7 +6024,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>15.7</v>
+        <v>20.34699497108946</v>
       </c>
       <c r="C332">
         <v>60</v>
@@ -6041,7 +6041,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>18.8</v>
+        <v>21.27518575972661</v>
       </c>
       <c r="C333">
         <v>45.1</v>
@@ -6058,7 +6058,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>6.3</v>
+        <v>18.25168296550982</v>
       </c>
       <c r="C334">
         <v>48.9</v>
@@ -6075,7 +6075,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>8.5</v>
+        <v>18.92783468143204</v>
       </c>
       <c r="C335">
         <v>52.9</v>
@@ -6092,7 +6092,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>5.3</v>
+        <v>17.52059329994936</v>
       </c>
       <c r="C336">
         <v>52.5</v>
@@ -6109,7 +6109,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>6.7</v>
+        <v>18.42617644084379</v>
       </c>
       <c r="C337">
         <v>57.3</v>
@@ -6126,7 +6126,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>5</v>
+        <v>16.81044231566561</v>
       </c>
       <c r="C338">
         <v>59.6</v>
@@ -6143,7 +6143,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>14.3</v>
+        <v>20.0595173360356</v>
       </c>
       <c r="C339">
         <v>47.8</v>
@@ -6160,7 +6160,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>16.2</v>
+        <v>20.46362164209118</v>
       </c>
       <c r="C340">
         <v>48.4</v>
@@ -6177,7 +6177,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>19.4</v>
+        <v>21.6383944780615</v>
       </c>
       <c r="C341">
         <v>49.1</v>
@@ -6194,7 +6194,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>13.7</v>
+        <v>19.94333218410275</v>
       </c>
       <c r="C342">
         <v>57.90000000000001</v>
@@ -6211,7 +6211,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>16.8</v>
+        <v>20.60129653917352</v>
       </c>
       <c r="C343">
         <v>40.2</v>
@@ -6228,7 +6228,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>18.3</v>
+        <v>21.05372874132617</v>
       </c>
       <c r="C344">
         <v>40.4</v>
@@ -6245,7 +6245,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>8.6</v>
+        <v>18.96618962575131</v>
       </c>
       <c r="C345">
         <v>53.6</v>
@@ -6262,7 +6262,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>17.3</v>
+        <v>20.72839998978686</v>
       </c>
       <c r="C346">
         <v>55.6</v>
@@ -6279,7 +6279,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>19.1</v>
+        <v>21.4379261728545</v>
       </c>
       <c r="C347">
         <v>41.1</v>
@@ -6296,7 +6296,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>6.6</v>
+        <v>18.39617262772311</v>
       </c>
       <c r="C348">
         <v>51.8</v>
@@ -6313,7 +6313,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>13</v>
+        <v>19.82217656126485</v>
       </c>
       <c r="C349">
         <v>58.2</v>
@@ -6330,7 +6330,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>18.1</v>
+        <v>20.98340633200768</v>
       </c>
       <c r="C350">
         <v>50.2</v>
@@ -6347,7 +6347,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>16.3</v>
+        <v>20.46657535839429</v>
       </c>
       <c r="C351">
         <v>57.7</v>
@@ -6364,7 +6364,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>19.8</v>
+        <v>22.11513944532485</v>
       </c>
       <c r="C352">
         <v>48.7</v>
@@ -6381,7 +6381,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>8.300000000000001</v>
+        <v>18.89792827967025</v>
       </c>
       <c r="C353">
         <v>53.4</v>
@@ -6398,7 +6398,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>8.1</v>
+        <v>18.84121418660979</v>
       </c>
       <c r="C354">
         <v>51.5</v>
@@ -6415,7 +6415,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>13.5</v>
+        <v>19.90668472450488</v>
       </c>
       <c r="C355">
         <v>40.4</v>
@@ -6432,7 +6432,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>11.2</v>
+        <v>19.49896629496591</v>
       </c>
       <c r="C356">
         <v>45.4</v>
@@ -6449,7 +6449,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>8.199999999999999</v>
+        <v>18.87633414641241</v>
       </c>
       <c r="C357">
         <v>49.3</v>
@@ -6466,7 +6466,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>13.8</v>
+        <v>19.97037765565243</v>
       </c>
       <c r="C358">
         <v>49.8</v>
@@ -6483,7 +6483,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>13</v>
+        <v>19.81769733575082</v>
       </c>
       <c r="C359">
         <v>50.4</v>
@@ -6500,7 +6500,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>14</v>
+        <v>20.00842649242461</v>
       </c>
       <c r="C360">
         <v>49.7</v>
@@ -6517,7 +6517,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>18</v>
+        <v>20.94813580985652</v>
       </c>
       <c r="C361">
         <v>57.40000000000001</v>
@@ -6534,7 +6534,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>18.1</v>
+        <v>20.96085918333199</v>
       </c>
       <c r="C362">
         <v>41.2</v>
@@ -6551,7 +6551,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>7.4</v>
+        <v>18.66098667010131</v>
       </c>
       <c r="C363">
         <v>49.5</v>
@@ -6568,7 +6568,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>12.9</v>
+        <v>19.80427975221812</v>
       </c>
       <c r="C364">
         <v>46.4</v>
@@ -6585,7 +6585,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>10.5</v>
+        <v>19.35654717938105</v>
       </c>
       <c r="C365">
         <v>48.9</v>
@@ -6602,7 +6602,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>6.5</v>
+        <v>18.3586054084715</v>
       </c>
       <c r="C366">
         <v>52</v>
@@ -6619,7 +6619,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>15.5</v>
+        <v>20.29544091591427</v>
       </c>
       <c r="C367">
         <v>41.6</v>
@@ -6636,7 +6636,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>11.8</v>
+        <v>19.60355233298822</v>
       </c>
       <c r="C368">
         <v>54.4</v>
@@ -6653,7 +6653,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>17.7</v>
+        <v>20.85216617889036</v>
       </c>
       <c r="C369">
         <v>56.3</v>
@@ -6670,7 +6670,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>19.4</v>
+        <v>21.61636888529971</v>
       </c>
       <c r="C370">
         <v>43.5</v>
@@ -6687,7 +6687,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>17.9</v>
+        <v>20.91724971530283</v>
       </c>
       <c r="C371">
         <v>51.8</v>
@@ -6704,7 +6704,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>7.6</v>
+        <v>18.70711584901845</v>
       </c>
       <c r="C372">
         <v>58.40000000000001</v>
@@ -6721,7 +6721,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>13.8</v>
+        <v>19.96129894180936</v>
       </c>
       <c r="C373">
         <v>43.4</v>
@@ -6738,7 +6738,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>8.6</v>
+        <v>18.9641996692424</v>
       </c>
       <c r="C374">
         <v>50.3</v>
@@ -6755,7 +6755,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>12</v>
+        <v>19.63913740629827</v>
       </c>
       <c r="C375">
         <v>52.5</v>
@@ -6772,7 +6772,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>12.4</v>
+        <v>19.72080076070431</v>
       </c>
       <c r="C376">
         <v>44</v>
@@ -6789,7 +6789,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>11.4</v>
+        <v>19.5213052553534</v>
       </c>
       <c r="C377">
         <v>46.6</v>
@@ -6806,7 +6806,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>15.3</v>
+        <v>20.26755975445707</v>
       </c>
       <c r="C378">
         <v>45.9</v>
@@ -6823,7 +6823,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>14.8</v>
+        <v>20.15475413825494</v>
       </c>
       <c r="C379">
         <v>56.8</v>
@@ -6840,7 +6840,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>7</v>
+        <v>18.51982321372023</v>
       </c>
       <c r="C380">
         <v>55.6</v>
@@ -6857,7 +6857,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>13.5</v>
+        <v>19.91649170125224</v>
       </c>
       <c r="C381">
         <v>54.3</v>
@@ -6874,7 +6874,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>5</v>
+        <v>16.08007203091989</v>
       </c>
       <c r="C382">
         <v>46.7</v>
@@ -6891,7 +6891,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>14.3</v>
+        <v>20.06735995125036</v>
       </c>
       <c r="C383">
         <v>54.4</v>
@@ -6908,7 +6908,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>7.800000000000001</v>
+        <v>18.76927659326772</v>
       </c>
       <c r="C384">
         <v>59.7</v>
@@ -6925,7 +6925,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>6.3</v>
+        <v>18.23575767364541</v>
       </c>
       <c r="C385">
         <v>58.90000000000001</v>
@@ -6942,7 +6942,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>5.7</v>
+        <v>17.92122864133143</v>
       </c>
       <c r="C386">
         <v>54.3</v>
@@ -6959,7 +6959,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>6.2</v>
+        <v>18.18811322148425</v>
       </c>
       <c r="C387">
         <v>53.4</v>
@@ -6976,7 +6976,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>15.8</v>
+        <v>20.36164845777232</v>
       </c>
       <c r="C388">
         <v>57.6</v>
@@ -6993,7 +6993,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>18</v>
+        <v>20.92328425250295</v>
       </c>
       <c r="C389">
         <v>53.7</v>
@@ -7010,7 +7010,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>18.5</v>
+        <v>21.11570416749028</v>
       </c>
       <c r="C390">
         <v>41.4</v>
@@ -7027,7 +7027,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>11.9</v>
+        <v>19.62191769436662</v>
       </c>
       <c r="C391">
         <v>53.5</v>
@@ -7044,7 +7044,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>17.8</v>
+        <v>20.875279170993</v>
       </c>
       <c r="C392">
         <v>41.7</v>
@@ -7061,7 +7061,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>18.6</v>
+        <v>21.14584936846092</v>
       </c>
       <c r="C393">
         <v>40.1</v>
@@ -7078,7 +7078,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>12.3</v>
+        <v>19.70100597999402</v>
       </c>
       <c r="C394">
         <v>57</v>
@@ -7095,7 +7095,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>6.5</v>
+        <v>18.3485973114011</v>
       </c>
       <c r="C395">
         <v>56</v>
@@ -7112,7 +7112,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>15.1</v>
+        <v>20.21641956534631</v>
       </c>
       <c r="C396">
         <v>53.8</v>
@@ -7129,7 +7129,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>5.8</v>
+        <v>17.97588383977074</v>
       </c>
       <c r="C397">
         <v>50.4</v>
@@ -7146,7 +7146,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>13.9</v>
+        <v>19.98282628016828</v>
       </c>
       <c r="C398">
         <v>41.5</v>
@@ -7163,7 +7163,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>9.9</v>
+        <v>19.24778679269498</v>
       </c>
       <c r="C399">
         <v>59.3</v>
@@ -7180,7 +7180,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>6.4</v>
+        <v>18.29634072367716</v>
       </c>
       <c r="C400">
         <v>47</v>
@@ -7197,7 +7197,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>14.9</v>
+        <v>20.1899861066095</v>
       </c>
       <c r="C401">
         <v>54.6</v>
@@ -7214,7 +7214,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>11.8</v>
+        <v>19.59914711749406</v>
       </c>
       <c r="C402">
         <v>42</v>
@@ -7231,7 +7231,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>11.8</v>
+        <v>19.60955305293403</v>
       </c>
       <c r="C403">
         <v>56.7</v>
@@ -7248,7 +7248,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>7.6</v>
+        <v>18.71589973660015</v>
       </c>
       <c r="C404">
         <v>47.7</v>
@@ -7265,7 +7265,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>5.1</v>
+        <v>17.12534754523874</v>
       </c>
       <c r="C405">
         <v>46.8</v>
@@ -7282,7 +7282,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>7.5</v>
+        <v>18.66945934497323</v>
       </c>
       <c r="C406">
         <v>42.1</v>
@@ -7299,7 +7299,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>17.1</v>
+        <v>20.67254307047273</v>
       </c>
       <c r="C407">
         <v>51.9</v>
@@ -7316,7 +7316,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>19.8</v>
+        <v>22.03825853039461</v>
       </c>
       <c r="C408">
         <v>44.5</v>
@@ -7333,7 +7333,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>16.95292965557984</v>
       </c>
       <c r="C409">
         <v>52.7</v>
@@ -7350,7 +7350,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>11.3</v>
+        <v>19.51884220423799</v>
       </c>
       <c r="C410">
         <v>42.3</v>
@@ -7367,7 +7367,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>12.6</v>
+        <v>19.74183723716185</v>
       </c>
       <c r="C411">
         <v>46.2</v>
@@ -7384,7 +7384,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>13.3</v>
+        <v>19.87309085772349</v>
       </c>
       <c r="C412">
         <v>50.3</v>
@@ -7401,7 +7401,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>13.2</v>
+        <v>19.86499007648845</v>
       </c>
       <c r="C413">
         <v>56.8</v>
@@ -7418,7 +7418,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>19.2</v>
+        <v>21.46062757296336</v>
       </c>
       <c r="C414">
         <v>52.9</v>
@@ -7435,7 +7435,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>19.6</v>
+        <v>21.84265945818121</v>
       </c>
       <c r="C415">
         <v>49.2</v>
@@ -7452,7 +7452,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>8.6</v>
+        <v>18.96925343236845</v>
       </c>
       <c r="C416">
         <v>59.5</v>
@@ -7469,7 +7469,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>9.9</v>
+        <v>19.23162249210221</v>
       </c>
       <c r="C417">
         <v>42.2</v>
@@ -7486,7 +7486,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>8.800000000000001</v>
+        <v>19.01159663792791</v>
       </c>
       <c r="C418">
         <v>47.6</v>
@@ -7503,7 +7503,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>9.100000000000001</v>
+        <v>19.08020221779544</v>
       </c>
       <c r="C419">
         <v>50.3</v>
@@ -7520,7 +7520,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>10.7</v>
+        <v>19.38822993628057</v>
       </c>
       <c r="C420">
         <v>52.7</v>
@@ -7537,7 +7537,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>16.7</v>
+        <v>20.56174150399757</v>
       </c>
       <c r="C421">
         <v>57.5</v>
@@ -7554,7 +7554,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>17.3</v>
+        <v>20.7271801676304</v>
       </c>
       <c r="C422">
         <v>47.9</v>
@@ -7571,7 +7571,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>19.4</v>
+        <v>21.59861113747802</v>
       </c>
       <c r="C423">
         <v>49.1</v>
@@ -7588,7 +7588,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>18.8</v>
+        <v>21.23169238918946</v>
       </c>
       <c r="C424">
         <v>58.2</v>
@@ -7605,7 +7605,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>15.7</v>
+        <v>20.34254564555293</v>
       </c>
       <c r="C425">
         <v>48.6</v>
@@ -7622,7 +7622,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>11.5</v>
+        <v>19.55023027568294</v>
       </c>
       <c r="C426">
         <v>58.90000000000001</v>
@@ -7639,7 +7639,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>19</v>
+        <v>21.3501119314794</v>
       </c>
       <c r="C427">
         <v>54</v>
@@ -7656,7 +7656,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>18.2</v>
+        <v>21.00288644941915</v>
       </c>
       <c r="C428">
         <v>40.9</v>
@@ -7673,7 +7673,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>10.2</v>
+        <v>19.30679632777701</v>
       </c>
       <c r="C429">
         <v>57.8</v>
@@ -7690,7 +7690,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>8.699999999999999</v>
+        <v>18.99436530143278</v>
       </c>
       <c r="C430">
         <v>57.8</v>
@@ -7707,7 +7707,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>5.7</v>
+        <v>17.92521566108244</v>
       </c>
       <c r="C431">
         <v>53.6</v>
@@ -7724,7 +7724,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>9.9</v>
+        <v>19.24697260824336</v>
       </c>
       <c r="C432">
         <v>54.5</v>
@@ -7741,7 +7741,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>11.6</v>
+        <v>19.5594241854149</v>
       </c>
       <c r="C433">
         <v>48</v>
@@ -7758,7 +7758,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>16.8</v>
+        <v>20.5890535044983</v>
       </c>
       <c r="C434">
         <v>59.90000000000001</v>
@@ -7775,7 +7775,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>16.9</v>
+        <v>20.61227655873706</v>
       </c>
       <c r="C435">
         <v>47.3</v>
@@ -7792,7 +7792,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>12.4</v>
+        <v>19.71609174892948</v>
       </c>
       <c r="C436">
         <v>45.4</v>
@@ -7809,7 +7809,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>7.300000000000001</v>
+        <v>18.61996989341303</v>
       </c>
       <c r="C437">
         <v>43.8</v>
@@ -7826,7 +7826,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>14.2</v>
+        <v>20.04366047396139</v>
       </c>
       <c r="C438">
         <v>48.8</v>
@@ -7843,7 +7843,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>6.4</v>
+        <v>18.30650426170983</v>
       </c>
       <c r="C439">
         <v>59.90000000000001</v>
@@ -7860,7 +7860,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>18.3</v>
+        <v>21.03944090387095</v>
       </c>
       <c r="C440">
         <v>51.2</v>
@@ -7877,7 +7877,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>7.4</v>
+        <v>18.6399958501699</v>
       </c>
       <c r="C441">
         <v>59.7</v>
@@ -7894,7 +7894,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>6.7</v>
+        <v>18.40555822652671</v>
       </c>
       <c r="C442">
         <v>43.7</v>
@@ -7911,7 +7911,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>13.1</v>
+        <v>19.8464776214303</v>
       </c>
       <c r="C443">
         <v>44.3</v>
@@ -7928,7 +7928,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>19.26159075722718</v>
       </c>
       <c r="C444">
         <v>58.40000000000001</v>
@@ -7945,7 +7945,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>15</v>
+        <v>20.21002553455671</v>
       </c>
       <c r="C445">
         <v>46.6</v>
@@ -7962,7 +7962,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>7.300000000000001</v>
+        <v>18.61757494281427</v>
       </c>
       <c r="C446">
         <v>45.7</v>
@@ -7979,7 +7979,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>9.699999999999999</v>
+        <v>19.20110207478588</v>
       </c>
       <c r="C447">
         <v>59.40000000000001</v>
@@ -7996,7 +7996,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>18.1</v>
+        <v>20.9561303069049</v>
       </c>
       <c r="C448">
         <v>46</v>
@@ -8013,7 +8013,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>11.8</v>
+        <v>19.60080331302785</v>
       </c>
       <c r="C449">
         <v>50.5</v>
@@ -8030,7 +8030,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>16.9</v>
+        <v>20.61976337149734</v>
       </c>
       <c r="C450">
         <v>50.2</v>
@@ -8047,7 +8047,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>9.300000000000001</v>
+        <v>19.10854451369148</v>
       </c>
       <c r="C451">
         <v>44.1</v>
@@ -8064,7 +8064,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>7.2</v>
+        <v>18.59633326726626</v>
       </c>
       <c r="C452">
         <v>44.7</v>
@@ -8081,7 +8081,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>11.4</v>
+        <v>19.52324299414916</v>
       </c>
       <c r="C453">
         <v>53.7</v>
@@ -8098,7 +8098,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>19.1</v>
+        <v>21.40583521538936</v>
       </c>
       <c r="C454">
         <v>44.4</v>
@@ -8115,7 +8115,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>15.4</v>
+        <v>20.28681512872042</v>
       </c>
       <c r="C455">
         <v>47.1</v>
@@ -8132,7 +8132,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>15.5</v>
+        <v>20.30326683245625</v>
       </c>
       <c r="C456">
         <v>57.5</v>
@@ -8149,7 +8149,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>7.9</v>
+        <v>18.79647429386229</v>
       </c>
       <c r="C457">
         <v>54.5</v>
@@ -8166,7 +8166,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>9.199999999999999</v>
+        <v>19.10149289125709</v>
       </c>
       <c r="C458">
         <v>49.6</v>
@@ -8183,7 +8183,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>13</v>
+        <v>19.82868294838237</v>
       </c>
       <c r="C459">
         <v>58.7</v>
@@ -8200,7 +8200,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>8.699999999999999</v>
+        <v>18.98705314526186</v>
       </c>
       <c r="C460">
         <v>57.3</v>
@@ -8217,7 +8217,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>6.6</v>
+        <v>18.36368489433213</v>
       </c>
       <c r="C461">
         <v>49.3</v>
@@ -8234,7 +8234,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>12.9</v>
+        <v>19.79447388759585</v>
       </c>
       <c r="C462">
         <v>52.4</v>
@@ -8251,7 +8251,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>10.7</v>
+        <v>19.40289819960247</v>
       </c>
       <c r="C463">
         <v>47.4</v>
@@ -8268,7 +8268,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>18.4</v>
+        <v>21.08902763329055</v>
       </c>
       <c r="C464">
         <v>43.7</v>
@@ -8285,7 +8285,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>14.4</v>
+        <v>20.07898315040818</v>
       </c>
       <c r="C465">
         <v>50.8</v>
@@ -8302,7 +8302,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>6.8</v>
+        <v>18.43693853008857</v>
       </c>
       <c r="C466">
         <v>40.7</v>
@@ -8319,7 +8319,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>20</v>
+        <v>23.91992796908011</v>
       </c>
       <c r="C467">
         <v>50.1</v>
@@ -8336,7 +8336,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>9.9</v>
+        <v>19.2404073708905</v>
       </c>
       <c r="C468">
         <v>58.40000000000001</v>
@@ -8353,7 +8353,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>15.3</v>
+        <v>20.25623292324777</v>
       </c>
       <c r="C469">
         <v>49.3</v>
@@ -8370,7 +8370,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>13.8</v>
+        <v>19.97443579735199</v>
       </c>
       <c r="C470">
         <v>58.7</v>
@@ -8387,7 +8387,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>13.9</v>
+        <v>19.97870021742231</v>
       </c>
       <c r="C471">
         <v>53.7</v>
@@ -8404,7 +8404,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>8.4</v>
+        <v>18.91153228762052</v>
       </c>
       <c r="C472">
         <v>54.2</v>
@@ -8421,7 +8421,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>5.2</v>
+        <v>17.47084345226587</v>
       </c>
       <c r="C473">
         <v>40.3</v>
@@ -8438,7 +8438,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>8</v>
+        <v>18.80603675195922</v>
       </c>
       <c r="C474">
         <v>47.2</v>
@@ -8455,7 +8455,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>14.7</v>
+        <v>20.14543802977372</v>
       </c>
       <c r="C475">
         <v>57.6</v>
@@ -8472,7 +8472,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>11.9</v>
+        <v>19.61374357102579</v>
       </c>
       <c r="C476">
         <v>41.9</v>
@@ -8489,7 +8489,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>9.800000000000001</v>
+        <v>19.21003023195159</v>
       </c>
       <c r="C477">
         <v>59.6</v>
@@ -8506,7 +8506,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>17</v>
+        <v>20.64796638029334</v>
       </c>
       <c r="C478">
         <v>42.4</v>
@@ -8523,7 +8523,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>19.1</v>
+        <v>21.38573349213473</v>
       </c>
       <c r="C479">
         <v>45.1</v>
@@ -8540,7 +8540,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>15.6</v>
+        <v>20.33151503915706</v>
       </c>
       <c r="C480">
         <v>50</v>
@@ -8557,7 +8557,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>9.5</v>
+        <v>19.15226437840164</v>
       </c>
       <c r="C481">
         <v>48.2</v>
@@ -8574,7 +8574,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>10.4</v>
+        <v>19.33038885912968</v>
       </c>
       <c r="C482">
         <v>50.5</v>
@@ -8591,7 +8591,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>16.4</v>
+        <v>20.50675935315613</v>
       </c>
       <c r="C483">
         <v>54.6</v>
@@ -8608,7 +8608,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>12.1</v>
+        <v>19.65403666097151</v>
       </c>
       <c r="C484">
         <v>56.3</v>
@@ -8625,7 +8625,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>6.9</v>
+        <v>18.49286320443887</v>
       </c>
       <c r="C485">
         <v>40.9</v>
@@ -8642,7 +8642,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>13.3</v>
+        <v>19.86808329053076</v>
       </c>
       <c r="C486">
         <v>53.6</v>
@@ -8659,7 +8659,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>5.1</v>
+        <v>17.02689634572605</v>
       </c>
       <c r="C487">
         <v>42.5</v>
@@ -8676,7 +8676,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>15.4</v>
+        <v>20.28855417085649</v>
       </c>
       <c r="C488">
         <v>49.5</v>
@@ -8693,7 +8693,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>13</v>
+        <v>19.82084655940938</v>
       </c>
       <c r="C489">
         <v>43.4</v>
@@ -8710,7 +8710,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>18.2</v>
+        <v>20.99380479007215</v>
       </c>
       <c r="C490">
         <v>41.8</v>
@@ -8727,7 +8727,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>5.5</v>
+        <v>17.7398847112932</v>
       </c>
       <c r="C491">
         <v>50.2</v>
@@ -8744,7 +8744,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>6.2</v>
+        <v>18.21917182900469</v>
       </c>
       <c r="C492">
         <v>44.1</v>
@@ -8761,7 +8761,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>5.9</v>
+        <v>18.02961580644068</v>
       </c>
       <c r="C493">
         <v>51.2</v>
@@ -8778,7 +8778,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>16.4</v>
+        <v>20.49839053738199</v>
       </c>
       <c r="C494">
         <v>44.6</v>
@@ -8795,7 +8795,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>12.2</v>
+        <v>19.67331365801299</v>
       </c>
       <c r="C495">
         <v>51.5</v>
@@ -8812,7 +8812,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>16.3</v>
+        <v>20.48065281926641</v>
       </c>
       <c r="C496">
         <v>42</v>
@@ -8829,7 +8829,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>12.6</v>
+        <v>19.75231189457308</v>
       </c>
       <c r="C497">
         <v>57.6</v>
@@ -8846,7 +8846,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>14</v>
+        <v>20.01399413825749</v>
       </c>
       <c r="C498">
         <v>41.9</v>
@@ -8863,7 +8863,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>18.7</v>
+        <v>21.18658427683692</v>
       </c>
       <c r="C499">
         <v>47.7</v>
@@ -8880,7 +8880,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>8</v>
+        <v>18.82003923129203</v>
       </c>
       <c r="C500">
         <v>54.9</v>
@@ -8897,7 +8897,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>14.2</v>
+        <v>20.03533626914423</v>
       </c>
       <c r="C501">
         <v>55.5</v>
@@ -8914,7 +8914,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>19.5</v>
+        <v>21.66977322273705</v>
       </c>
       <c r="C502">
         <v>41.8</v>
@@ -8931,7 +8931,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>18.1</v>
+        <v>20.97759733861469</v>
       </c>
       <c r="C503">
         <v>46.1</v>
@@ -8948,7 +8948,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>8.199999999999999</v>
+        <v>18.87382603906308</v>
       </c>
       <c r="C504">
         <v>40.8</v>
@@ -8965,7 +8965,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>8.300000000000001</v>
+        <v>18.89621172424333</v>
       </c>
       <c r="C505">
         <v>51.1</v>
@@ -8982,7 +8982,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>9.199999999999999</v>
+        <v>19.08630622691535</v>
       </c>
       <c r="C506">
         <v>52.3</v>
@@ -8999,7 +8999,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>5.7</v>
+        <v>17.88942805440983</v>
       </c>
       <c r="C507">
         <v>51.9</v>
@@ -9016,7 +9016,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>9.600000000000001</v>
+        <v>19.17095312869779</v>
       </c>
       <c r="C508">
         <v>53</v>
@@ -9033,7 +9033,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>7.7</v>
+        <v>18.72067913794261</v>
       </c>
       <c r="C509">
         <v>47.4</v>
@@ -9050,7 +9050,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>5.3</v>
+        <v>17.50685899638875</v>
       </c>
       <c r="C510">
         <v>48</v>
@@ -9067,7 +9067,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>12.7</v>
+        <v>19.76796075027372</v>
       </c>
       <c r="C511">
         <v>42.8</v>
@@ -9084,7 +9084,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>19.3</v>
+        <v>21.56489986879922</v>
       </c>
       <c r="C512">
         <v>42.8</v>
@@ -9101,7 +9101,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>15.1</v>
+        <v>20.21796352926267</v>
       </c>
       <c r="C513">
         <v>49.2</v>
@@ -9118,7 +9118,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>14.3</v>
+        <v>20.05575531047031</v>
       </c>
       <c r="C514">
         <v>41.7</v>
@@ -9135,7 +9135,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>8.5</v>
+        <v>18.94530213852393</v>
       </c>
       <c r="C515">
         <v>59.40000000000001</v>
@@ -9152,7 +9152,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>9.699999999999999</v>
+        <v>19.19148510933913</v>
       </c>
       <c r="C516">
         <v>41.1</v>
@@ -9169,7 +9169,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>5.3</v>
+        <v>17.53878240478605</v>
       </c>
       <c r="C517">
         <v>52.8</v>
@@ -9186,7 +9186,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>7.4</v>
+        <v>18.65418591258773</v>
       </c>
       <c r="C518">
         <v>56.1</v>
@@ -9203,7 +9203,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>16.5</v>
+        <v>20.53387039741141</v>
       </c>
       <c r="C519">
         <v>41.9</v>
@@ -9220,7 +9220,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>5.1</v>
+        <v>17.13540163939884</v>
       </c>
       <c r="C520">
         <v>41.3</v>
@@ -9237,7 +9237,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>6.2</v>
+        <v>18.22990996244878</v>
       </c>
       <c r="C521">
         <v>49.6</v>
@@ -9254,7 +9254,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>12.6</v>
+        <v>19.7460734387917</v>
       </c>
       <c r="C522">
         <v>53.8</v>
@@ -9271,7 +9271,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>16.6</v>
+        <v>20.53940620321379</v>
       </c>
       <c r="C523">
         <v>59.1</v>
@@ -9288,7 +9288,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>7.7</v>
+        <v>18.73950002784296</v>
       </c>
       <c r="C524">
         <v>48</v>
@@ -9305,7 +9305,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>10.5</v>
+        <v>19.36220343694267</v>
       </c>
       <c r="C525">
         <v>49.7</v>
@@ -9322,7 +9322,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>13.9</v>
+        <v>19.99593693826067</v>
       </c>
       <c r="C526">
         <v>55</v>
@@ -9339,7 +9339,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>8.9</v>
+        <v>19.02173269249607</v>
       </c>
       <c r="C527">
         <v>56.6</v>
@@ -9356,7 +9356,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>16.5</v>
+        <v>20.51866729118487</v>
       </c>
       <c r="C528">
         <v>52.7</v>
@@ -9373,7 +9373,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>16.6</v>
+        <v>20.53799701169607</v>
       </c>
       <c r="C529">
         <v>42.2</v>
@@ -9390,7 +9390,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>15.2</v>
+        <v>20.23199829692244</v>
       </c>
       <c r="C530">
         <v>43.7</v>
@@ -9407,7 +9407,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>17.7</v>
+        <v>20.83925943537759</v>
       </c>
       <c r="C531">
         <v>54.7</v>
@@ -9424,7 +9424,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>9.199999999999999</v>
+        <v>19.10345019711631</v>
       </c>
       <c r="C532">
         <v>43.6</v>
@@ -9441,7 +9441,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>12</v>
+        <v>19.63634968293227</v>
       </c>
       <c r="C533">
         <v>44.4</v>
@@ -9458,7 +9458,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>6.1</v>
+        <v>18.15486288451834</v>
       </c>
       <c r="C534">
         <v>48</v>
@@ -9475,7 +9475,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>5.8</v>
+        <v>17.99210474543986</v>
       </c>
       <c r="C535">
         <v>50.9</v>
@@ -9492,7 +9492,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>12.5</v>
+        <v>19.73771301880728</v>
       </c>
       <c r="C536">
         <v>44.9</v>
@@ -9509,7 +9509,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>15.4</v>
+        <v>20.27839533325572</v>
       </c>
       <c r="C537">
         <v>57.40000000000001</v>
@@ -9526,7 +9526,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>16.1</v>
+        <v>20.42105289556896</v>
       </c>
       <c r="C538">
         <v>58.6</v>
@@ -9543,7 +9543,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>14.5</v>
+        <v>20.1027086847687</v>
       </c>
       <c r="C539">
         <v>58.5</v>
@@ -9560,7 +9560,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>13.5</v>
+        <v>19.91116286625708</v>
       </c>
       <c r="C540">
         <v>49.3</v>
@@ -9577,7 +9577,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>16</v>
+        <v>20.40316001052686</v>
       </c>
       <c r="C541">
         <v>47.4</v>
@@ -9594,7 +9594,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>10.9</v>
+        <v>19.43784538465598</v>
       </c>
       <c r="C542">
         <v>49.4</v>
@@ -9611,7 +9611,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>19.2</v>
+        <v>21.46817194014364</v>
       </c>
       <c r="C543">
         <v>45.9</v>
@@ -9628,7 +9628,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>10.4</v>
+        <v>19.33144313171538</v>
       </c>
       <c r="C544">
         <v>49.2</v>
@@ -9645,7 +9645,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>10</v>
+        <v>19.2674846437641</v>
       </c>
       <c r="C545">
         <v>51.7</v>
@@ -9662,7 +9662,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>17.1</v>
+        <v>20.66292998122046</v>
       </c>
       <c r="C546">
         <v>52.6</v>
@@ -9679,7 +9679,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>8.199999999999999</v>
+        <v>18.86098200043929</v>
       </c>
       <c r="C547">
         <v>43.5</v>
@@ -9696,7 +9696,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>6.5</v>
+        <v>18.32052591336428</v>
       </c>
       <c r="C548">
         <v>40.3</v>
@@ -9713,7 +9713,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>10.4</v>
+        <v>19.34825759866909</v>
       </c>
       <c r="C549">
         <v>56.90000000000001</v>
@@ -9730,7 +9730,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>9</v>
+        <v>19.05096934859181</v>
       </c>
       <c r="C550">
         <v>52.1</v>
@@ -9747,7 +9747,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>7.5</v>
+        <v>18.67550128582154</v>
       </c>
       <c r="C551">
         <v>46.8</v>
@@ -9764,7 +9764,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>19.6</v>
+        <v>21.77993084414223</v>
       </c>
       <c r="C552">
         <v>57</v>
@@ -9781,7 +9781,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>18.5</v>
+        <v>21.13050651706751</v>
       </c>
       <c r="C553">
         <v>56.1</v>
@@ -9798,7 +9798,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>12.4</v>
+        <v>19.71053173298021</v>
       </c>
       <c r="C554">
         <v>45.6</v>
@@ -9815,7 +9815,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>18.2</v>
+        <v>21.01483675619097</v>
       </c>
       <c r="C555">
         <v>56.40000000000001</v>
@@ -9832,7 +9832,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>5.7</v>
+        <v>17.90374253227952</v>
       </c>
       <c r="C556">
         <v>59.8</v>
@@ -9849,7 +9849,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>6.8</v>
+        <v>18.46856611121901</v>
       </c>
       <c r="C557">
         <v>44.2</v>
@@ -9866,7 +9866,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>15.3</v>
+        <v>20.27015523014426</v>
       </c>
       <c r="C558">
         <v>58.6</v>
@@ -9883,7 +9883,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>5.9</v>
+        <v>18.03903509010623</v>
       </c>
       <c r="C559">
         <v>53.6</v>
@@ -9900,7 +9900,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>14.7</v>
+        <v>20.14138240784256</v>
       </c>
       <c r="C560">
         <v>40.8</v>
@@ -9917,7 +9917,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>18.9</v>
+        <v>21.31520631194975</v>
       </c>
       <c r="C561">
         <v>48.7</v>
@@ -9934,7 +9934,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>9.4</v>
+        <v>19.14091281267815</v>
       </c>
       <c r="C562">
         <v>55.6</v>
@@ -9951,7 +9951,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>10.4</v>
+        <v>19.34193453625854</v>
       </c>
       <c r="C563">
         <v>56.90000000000001</v>
@@ -9968,7 +9968,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>19.3</v>
+        <v>21.52142857837419</v>
       </c>
       <c r="C564">
         <v>55</v>
@@ -9985,7 +9985,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>5</v>
+        <v>16.3652168906314</v>
       </c>
       <c r="C565">
         <v>51.2</v>
@@ -10002,7 +10002,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>7.5</v>
+        <v>18.67933608548094</v>
       </c>
       <c r="C566">
         <v>54.7</v>
@@ -10019,7 +10019,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>10.2</v>
+        <v>19.29791553377192</v>
       </c>
       <c r="C567">
         <v>43.8</v>
@@ -10036,7 +10036,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>18.4</v>
+        <v>21.06936708750039</v>
       </c>
       <c r="C568">
         <v>46.1</v>
@@ -10053,7 +10053,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>14.2</v>
+        <v>20.03721809160738</v>
       </c>
       <c r="C569">
         <v>54.8</v>
@@ -10070,7 +10070,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>8.699999999999999</v>
+        <v>18.98962527510579</v>
       </c>
       <c r="C570">
         <v>52</v>
@@ -10087,7 +10087,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>6.6</v>
+        <v>18.37229020130046</v>
       </c>
       <c r="C571">
         <v>49</v>
@@ -10104,7 +10104,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>9.800000000000001</v>
+        <v>19.22560214456299</v>
       </c>
       <c r="C572">
         <v>60</v>
@@ -10121,7 +10121,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>13.8</v>
+        <v>19.96652177915116</v>
       </c>
       <c r="C573">
         <v>59.1</v>
@@ -10138,7 +10138,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>7.2</v>
+        <v>18.57334101855881</v>
       </c>
       <c r="C574">
         <v>52.8</v>
@@ -10155,7 +10155,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>8.199999999999999</v>
+        <v>18.85600576421389</v>
       </c>
       <c r="C575">
         <v>53.9</v>
@@ -10172,7 +10172,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>9.4</v>
+        <v>19.12781045057736</v>
       </c>
       <c r="C576">
         <v>58.1</v>
@@ -10189,7 +10189,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>6</v>
+        <v>18.10248873226935</v>
       </c>
       <c r="C577">
         <v>51.3</v>
@@ -10206,7 +10206,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>8.9</v>
+        <v>19.03236577035648</v>
       </c>
       <c r="C578">
         <v>41.2</v>
@@ -10223,7 +10223,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>11</v>
+        <v>19.463032385036</v>
       </c>
       <c r="C579">
         <v>52.6</v>
@@ -10240,7 +10240,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>5.6</v>
+        <v>17.83520968072474</v>
       </c>
       <c r="C580">
         <v>45.7</v>
@@ -10257,7 +10257,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>14.5</v>
+        <v>20.09305091538683</v>
       </c>
       <c r="C581">
         <v>55.3</v>
@@ -10274,7 +10274,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>16.4</v>
+        <v>20.50605367389469</v>
       </c>
       <c r="C582">
         <v>51.3</v>
@@ -10291,7 +10291,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>9.600000000000001</v>
+        <v>19.18203798194557</v>
       </c>
       <c r="C583">
         <v>40.9</v>
@@ -10308,7 +10308,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>13.2</v>
+        <v>19.85888212950962</v>
       </c>
       <c r="C584">
         <v>57</v>
@@ -10325,7 +10325,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>6.9</v>
+        <v>18.48731479696802</v>
       </c>
       <c r="C585">
         <v>40.7</v>
@@ -10342,7 +10342,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>6.8</v>
+        <v>18.45505812171001</v>
       </c>
       <c r="C586">
         <v>45.1</v>
@@ -10359,7 +10359,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>17.2</v>
+        <v>20.70095980858456</v>
       </c>
       <c r="C587">
         <v>42.8</v>
@@ -10376,7 +10376,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>5.1</v>
+        <v>17.28063690949924</v>
       </c>
       <c r="C588">
         <v>48.2</v>
@@ -10393,7 +10393,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>17.8</v>
+        <v>20.87905440871786</v>
       </c>
       <c r="C589">
         <v>47.5</v>
@@ -10410,7 +10410,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>10.6</v>
+        <v>19.38332589562059</v>
       </c>
       <c r="C590">
         <v>59</v>
@@ -10427,7 +10427,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>12.8</v>
+        <v>19.77773962657511</v>
       </c>
       <c r="C591">
         <v>47.2</v>
@@ -10444,7 +10444,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>10.1</v>
+        <v>19.28632256957887</v>
       </c>
       <c r="C592">
         <v>50.4</v>
@@ -10461,7 +10461,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>14.4</v>
+        <v>20.07417410261601</v>
       </c>
       <c r="C593">
         <v>47.1</v>
@@ -10478,7 +10478,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>9.5</v>
+        <v>19.16059843772247</v>
       </c>
       <c r="C594">
         <v>51.9</v>
@@ -10495,7 +10495,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>9.300000000000001</v>
+        <v>19.12464892707323</v>
       </c>
       <c r="C595">
         <v>56.8</v>
@@ -10512,7 +10512,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>19.6</v>
+        <v>21.80749124345225</v>
       </c>
       <c r="C596">
         <v>46.9</v>
@@ -10529,7 +10529,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>17.9</v>
+        <v>20.91175869459418</v>
       </c>
       <c r="C597">
         <v>44</v>
@@ -10546,7 +10546,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>5.5</v>
+        <v>17.76017692870249</v>
       </c>
       <c r="C598">
         <v>51</v>
@@ -10563,7 +10563,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>11.4</v>
+        <v>19.53401186825547</v>
       </c>
       <c r="C599">
         <v>54.4</v>
@@ -10580,7 +10580,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>6.4</v>
+        <v>18.28710982601752</v>
       </c>
       <c r="C600">
         <v>45.2</v>
@@ -10597,7 +10597,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>17.3</v>
+        <v>20.73888832921196</v>
       </c>
       <c r="C601">
         <v>58.8</v>
@@ -10614,7 +10614,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>10.8</v>
+        <v>19.42203137669582</v>
       </c>
       <c r="C602">
         <v>44.1</v>
@@ -10631,7 +10631,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>5.2</v>
+        <v>17.43735537321955</v>
       </c>
       <c r="C603">
         <v>47.8</v>
@@ -10648,7 +10648,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>19.5</v>
+        <v>21.73842386308211</v>
       </c>
       <c r="C604">
         <v>42.7</v>
@@ -10665,7 +10665,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>19.9</v>
+        <v>22.21357781673722</v>
       </c>
       <c r="C605">
         <v>41.4</v>
@@ -10682,7 +10682,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>12.9</v>
+        <v>19.80738108564064</v>
       </c>
       <c r="C606">
         <v>57.6</v>
@@ -10699,7 +10699,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>19</v>
+        <v>21.33950068419873</v>
       </c>
       <c r="C607">
         <v>45.6</v>
@@ -10716,7 +10716,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>9</v>
+        <v>19.04734139542295</v>
       </c>
       <c r="C608">
         <v>40</v>
@@ -10733,7 +10733,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>10.1</v>
+        <v>19.2735752658413</v>
       </c>
       <c r="C609">
         <v>49.9</v>
@@ -10750,7 +10750,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>17.5</v>
+        <v>20.77444285896939</v>
       </c>
       <c r="C610">
         <v>54.3</v>
@@ -10767,7 +10767,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>8.5</v>
+        <v>18.94180642065806</v>
       </c>
       <c r="C611">
         <v>58.8</v>
@@ -10784,7 +10784,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>15.6</v>
+        <v>20.33255112490387</v>
       </c>
       <c r="C612">
         <v>49.1</v>
@@ -10801,7 +10801,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>12.3</v>
+        <v>19.68504333058334</v>
       </c>
       <c r="C613">
         <v>55.7</v>
@@ -10818,7 +10818,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>11.1</v>
+        <v>19.46622400388124</v>
       </c>
       <c r="C614">
         <v>50.6</v>
@@ -10835,7 +10835,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>8.9</v>
+        <v>19.0392793530725</v>
       </c>
       <c r="C615">
         <v>58.3</v>
@@ -10852,7 +10852,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>7.1</v>
+        <v>18.5641420050341</v>
       </c>
       <c r="C616">
         <v>54.8</v>
@@ -10869,7 +10869,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>7.7</v>
+        <v>18.72842356992114</v>
       </c>
       <c r="C617">
         <v>56.7</v>
@@ -10886,7 +10886,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>15</v>
+        <v>20.19272735429542</v>
       </c>
       <c r="C618">
         <v>45.5</v>
@@ -10903,7 +10903,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>12.8</v>
+        <v>19.7768503395234</v>
       </c>
       <c r="C619">
         <v>44</v>
@@ -10920,7 +10920,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>19</v>
+        <v>21.3330879863616</v>
       </c>
       <c r="C620">
         <v>50.7</v>
@@ -10937,7 +10937,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>16.3</v>
+        <v>20.47512918786343</v>
       </c>
       <c r="C621">
         <v>56.7</v>
@@ -10954,7 +10954,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>18.4</v>
+        <v>21.09871836812354</v>
       </c>
       <c r="C622">
         <v>43.1</v>
@@ -10971,7 +10971,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>12.3</v>
+        <v>19.6949420074433</v>
       </c>
       <c r="C623">
         <v>53.1</v>
@@ -10988,7 +10988,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>11</v>
+        <v>19.45314363647746</v>
       </c>
       <c r="C624">
         <v>47.6</v>
@@ -11005,7 +11005,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>5.6</v>
+        <v>17.87121185313357</v>
       </c>
       <c r="C625">
         <v>42.6</v>
@@ -11022,7 +11022,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>11.6</v>
+        <v>19.55762434819824</v>
       </c>
       <c r="C626">
         <v>59.3</v>
@@ -11039,7 +11039,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>12.4</v>
+        <v>19.704151425033</v>
       </c>
       <c r="C627">
         <v>57.5</v>
@@ -11056,7 +11056,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>18.4</v>
+        <v>21.07784506733062</v>
       </c>
       <c r="C628">
         <v>40.6</v>
@@ -11073,7 +11073,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>15.9</v>
+        <v>20.38105732059701</v>
       </c>
       <c r="C629">
         <v>45.4</v>
@@ -11090,7 +11090,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>14.9</v>
+        <v>20.18357577769655</v>
       </c>
       <c r="C630">
         <v>41.8</v>
@@ -11107,7 +11107,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>7.7</v>
+        <v>18.72960472593322</v>
       </c>
       <c r="C631">
         <v>53.2</v>
@@ -11124,7 +11124,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>10.9</v>
+        <v>19.42825614470912</v>
       </c>
       <c r="C632">
         <v>55.4</v>
@@ -11141,7 +11141,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>10.6</v>
+        <v>19.38143646257967</v>
       </c>
       <c r="C633">
         <v>43.6</v>
@@ -11158,7 +11158,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>6.8</v>
+        <v>18.45795104011193</v>
       </c>
       <c r="C634">
         <v>40.4</v>
@@ -11175,7 +11175,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>11.1</v>
+        <v>19.47156609186217</v>
       </c>
       <c r="C635">
         <v>42.8</v>
@@ -11192,7 +11192,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>19.3</v>
+        <v>21.54667174258953</v>
       </c>
       <c r="C636">
         <v>41.4</v>
@@ -11209,7 +11209,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>10.4</v>
+        <v>19.33753139941057</v>
       </c>
       <c r="C637">
         <v>58.1</v>
@@ -11226,7 +11226,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>19.3</v>
+        <v>21.50965605714543</v>
       </c>
       <c r="C638">
         <v>55.9</v>
@@ -11243,7 +11243,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>13.7</v>
+        <v>19.94678895975169</v>
       </c>
       <c r="C639">
         <v>41.9</v>
@@ -11260,7 +11260,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>19.2</v>
+        <v>21.45664361051968</v>
       </c>
       <c r="C640">
         <v>46.9</v>
@@ -11277,7 +11277,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>5.7</v>
+        <v>17.95170331553705</v>
       </c>
       <c r="C641">
         <v>58.5</v>
@@ -11294,7 +11294,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>10.8</v>
+        <v>19.40731206090646</v>
       </c>
       <c r="C642">
         <v>52</v>
@@ -11311,7 +11311,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>11.4</v>
+        <v>19.52962689130791</v>
       </c>
       <c r="C643">
         <v>46.3</v>
@@ -11328,7 +11328,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>15.6</v>
+        <v>20.31469844231221</v>
       </c>
       <c r="C644">
         <v>58.3</v>
@@ -11345,7 +11345,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>15.6</v>
+        <v>20.31774606791604</v>
       </c>
       <c r="C645">
         <v>56.6</v>
@@ -11362,7 +11362,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>12.6</v>
+        <v>19.75269944453819</v>
       </c>
       <c r="C646">
         <v>59.1</v>
@@ -11379,7 +11379,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>9.300000000000001</v>
+        <v>19.11705894529813</v>
       </c>
       <c r="C647">
         <v>46.7</v>
@@ -11396,7 +11396,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>6.3</v>
+        <v>18.27007052287169</v>
       </c>
       <c r="C648">
         <v>52.3</v>
@@ -11413,7 +11413,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>12.3</v>
+        <v>19.69184901674411</v>
       </c>
       <c r="C649">
         <v>49.9</v>
@@ -11430,7 +11430,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>7.800000000000001</v>
+        <v>18.75820766463962</v>
       </c>
       <c r="C650">
         <v>42.2</v>
@@ -11447,7 +11447,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>16.5</v>
+        <v>20.5294531609142</v>
       </c>
       <c r="C651">
         <v>48.1</v>
@@ -11464,7 +11464,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>19.3</v>
+        <v>21.55684440979261</v>
       </c>
       <c r="C652">
         <v>54.2</v>
@@ -11481,7 +11481,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>14.8</v>
+        <v>20.15342891650178</v>
       </c>
       <c r="C653">
         <v>52.2</v>
@@ -11498,7 +11498,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>18.7</v>
+        <v>21.20479122979579</v>
       </c>
       <c r="C654">
         <v>41.1</v>
@@ -11515,7 +11515,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>18.7</v>
+        <v>21.19355165127369</v>
       </c>
       <c r="C655">
         <v>45.5</v>
@@ -11532,7 +11532,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>9.800000000000001</v>
+        <v>19.21966023561976</v>
       </c>
       <c r="C656">
         <v>55.6</v>
@@ -11549,7 +11549,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>17.8</v>
+        <v>20.86522122502416</v>
       </c>
       <c r="C657">
         <v>48.7</v>
@@ -11566,7 +11566,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>12.2</v>
+        <v>19.67039232288563</v>
       </c>
       <c r="C658">
         <v>44.3</v>
@@ -11583,7 +11583,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>20</v>
+        <v>22.46539264143816</v>
       </c>
       <c r="C659">
         <v>49.4</v>
@@ -11600,7 +11600,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>14.7</v>
+        <v>20.13603480746212</v>
       </c>
       <c r="C660">
         <v>45.7</v>
@@ -11617,7 +11617,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>16.9</v>
+        <v>20.6200114740631</v>
       </c>
       <c r="C661">
         <v>42.9</v>
@@ -11634,7 +11634,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>5.5</v>
+        <v>17.7492343475935</v>
       </c>
       <c r="C662">
         <v>56.40000000000001</v>
@@ -11651,7 +11651,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>7.9</v>
+        <v>18.78743844076135</v>
       </c>
       <c r="C663">
         <v>42.5</v>
@@ -11668,7 +11668,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>6.7</v>
+        <v>18.41614818533724</v>
       </c>
       <c r="C664">
         <v>47.3</v>
@@ -11685,7 +11685,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>16.3</v>
+        <v>20.48553678704194</v>
       </c>
       <c r="C665">
         <v>42.8</v>
@@ -11702,7 +11702,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>6.8</v>
+        <v>18.44686302087047</v>
       </c>
       <c r="C666">
         <v>43</v>
@@ -11719,7 +11719,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>11.2</v>
+        <v>19.49163846238982</v>
       </c>
       <c r="C667">
         <v>44.4</v>
@@ -11736,7 +11736,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>7.9</v>
+        <v>18.78323794383376</v>
       </c>
       <c r="C668">
         <v>56.1</v>
@@ -11753,7 +11753,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>16.2</v>
+        <v>20.44298013477662</v>
       </c>
       <c r="C669">
         <v>43.7</v>
@@ -11770,7 +11770,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>11.7</v>
+        <v>19.58296907919452</v>
       </c>
       <c r="C670">
         <v>55.6</v>
@@ -11787,7 +11787,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>14.7</v>
+        <v>20.14197559037645</v>
       </c>
       <c r="C671">
         <v>57.7</v>
@@ -11804,7 +11804,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>8.1</v>
+        <v>18.82930410924992</v>
       </c>
       <c r="C672">
         <v>44.6</v>
@@ -11821,7 +11821,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>17.9</v>
+        <v>20.89910443060847</v>
       </c>
       <c r="C673">
         <v>53</v>
@@ -11838,7 +11838,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>19</v>
+        <v>21.37759706432448</v>
       </c>
       <c r="C674">
         <v>42.3</v>
@@ -11855,7 +11855,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>10.7</v>
+        <v>19.39965724771827</v>
       </c>
       <c r="C675">
         <v>40</v>
@@ -11872,7 +11872,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>11.4</v>
+        <v>19.53672417852904</v>
       </c>
       <c r="C676">
         <v>58.7</v>
@@ -11889,7 +11889,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>6.5</v>
+        <v>18.34339614792452</v>
       </c>
       <c r="C677">
         <v>50.9</v>
@@ -11906,7 +11906,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>15.6</v>
+        <v>20.3230027902965</v>
       </c>
       <c r="C678">
         <v>53.1</v>
@@ -11923,7 +11923,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>11.8</v>
+        <v>19.60617075302256</v>
       </c>
       <c r="C679">
         <v>52.2</v>
@@ -11940,7 +11940,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>5.4</v>
+        <v>17.66639253768118</v>
       </c>
       <c r="C680">
         <v>56.3</v>
@@ -11957,7 +11957,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>17.5</v>
+        <v>20.79191523519537</v>
       </c>
       <c r="C681">
         <v>55.5</v>
@@ -11974,7 +11974,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>16</v>
+        <v>20.40885267612239</v>
       </c>
       <c r="C682">
         <v>42.2</v>
@@ -11991,7 +11991,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>17.6</v>
+        <v>20.81306933525486</v>
       </c>
       <c r="C683">
         <v>42.4</v>
@@ -12008,7 +12008,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>18.8</v>
+        <v>21.2491732327108</v>
       </c>
       <c r="C684">
         <v>42.9</v>
@@ -12025,7 +12025,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>8.4</v>
+        <v>18.92453219233872</v>
       </c>
       <c r="C685">
         <v>59.8</v>
@@ -12042,7 +12042,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>7.6</v>
+        <v>18.71114998418075</v>
       </c>
       <c r="C686">
         <v>58.5</v>
@@ -12059,7 +12059,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>17.2</v>
+        <v>20.70903720970456</v>
       </c>
       <c r="C687">
         <v>41.9</v>
@@ -12076,7 +12076,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>8.4</v>
+        <v>18.91949274484857</v>
       </c>
       <c r="C688">
         <v>50.7</v>
@@ -12093,7 +12093,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>7.300000000000001</v>
+        <v>18.60719812575768</v>
       </c>
       <c r="C689">
         <v>43.1</v>
@@ -12110,7 +12110,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>12.5</v>
+        <v>19.73313668108828</v>
       </c>
       <c r="C690">
         <v>40.8</v>
@@ -12127,7 +12127,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>12.4</v>
+        <v>19.71279286203471</v>
       </c>
       <c r="C691">
         <v>41.6</v>
@@ -12144,7 +12144,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>15.6</v>
+        <v>20.32773920443031</v>
       </c>
       <c r="C692">
         <v>49.6</v>
@@ -12161,7 +12161,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>10</v>
+        <v>19.26347187807755</v>
       </c>
       <c r="C693">
         <v>40</v>
@@ -12178,7 +12178,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>19.8</v>
+        <v>22.05981778551727</v>
       </c>
       <c r="C694">
         <v>52.1</v>
@@ -12195,7 +12195,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>8.300000000000001</v>
+        <v>18.88123075163531</v>
       </c>
       <c r="C695">
         <v>46.5</v>
@@ -12212,7 +12212,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>8.800000000000001</v>
+        <v>18.99937868591545</v>
       </c>
       <c r="C696">
         <v>47.1</v>
@@ -12229,7 +12229,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>17</v>
+        <v>20.6382637952802</v>
       </c>
       <c r="C697">
         <v>48.5</v>
@@ -12246,7 +12246,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>14.2</v>
+        <v>20.05083173683255</v>
       </c>
       <c r="C698">
         <v>54.4</v>
@@ -12263,7 +12263,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>9.600000000000001</v>
+        <v>19.17655195552763</v>
       </c>
       <c r="C699">
         <v>54.7</v>
@@ -12280,7 +12280,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>18.9</v>
+        <v>21.28355454794409</v>
       </c>
       <c r="C700">
         <v>42.5</v>
@@ -12297,7 +12297,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>11.2</v>
+        <v>19.49505295002782</v>
       </c>
       <c r="C701">
         <v>49.3</v>
@@ -12314,7 +12314,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>12.5</v>
+        <v>19.72263215278516</v>
       </c>
       <c r="C702">
         <v>56.3</v>
@@ -12331,7 +12331,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>13.7</v>
+        <v>19.9541029170617</v>
       </c>
       <c r="C703">
         <v>50.8</v>
@@ -12348,7 +12348,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>13.4</v>
+        <v>19.88712705924102</v>
       </c>
       <c r="C704">
         <v>43.5</v>
@@ -12365,7 +12365,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>6.1</v>
+        <v>18.14658817968433</v>
       </c>
       <c r="C705">
         <v>40.3</v>
@@ -12382,7 +12382,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>15.5</v>
+        <v>20.29940338171738</v>
       </c>
       <c r="C706">
         <v>47.3</v>
@@ -12399,7 +12399,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>8.9</v>
+        <v>19.01798428129033</v>
       </c>
       <c r="C707">
         <v>42.9</v>
@@ -12416,7 +12416,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>5.4</v>
+        <v>17.63354317079823</v>
       </c>
       <c r="C708">
         <v>44.9</v>
@@ -12433,7 +12433,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>9.9</v>
+        <v>19.23390388869914</v>
       </c>
       <c r="C709">
         <v>41</v>
@@ -12450,7 +12450,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>12.2</v>
+        <v>19.67907720234936</v>
       </c>
       <c r="C710">
         <v>58.3</v>
@@ -12467,7 +12467,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>14.5</v>
+        <v>20.10907077015251</v>
       </c>
       <c r="C711">
         <v>47.5</v>
@@ -12484,7 +12484,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>19.5</v>
+        <v>21.66510182125602</v>
       </c>
       <c r="C712">
         <v>45.8</v>
@@ -12501,7 +12501,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>18.3</v>
+        <v>21.03374838438852</v>
       </c>
       <c r="C713">
         <v>58.40000000000001</v>
@@ -12518,7 +12518,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>14.1</v>
+        <v>20.0175252564726</v>
       </c>
       <c r="C714">
         <v>55.1</v>
@@ -12535,7 +12535,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>18.9</v>
+        <v>21.29356606005452</v>
       </c>
       <c r="C715">
         <v>41</v>
@@ -12552,7 +12552,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>13.9</v>
+        <v>19.98439370745609</v>
       </c>
       <c r="C716">
         <v>59.5</v>
@@ -12569,7 +12569,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>18.1</v>
+        <v>20.96493135166529</v>
       </c>
       <c r="C717">
         <v>55</v>
@@ -12586,7 +12586,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>15.9</v>
+        <v>20.39618286168014</v>
       </c>
       <c r="C718">
         <v>43.6</v>
@@ -12603,7 +12603,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>9.300000000000001</v>
+        <v>19.11085385416831</v>
       </c>
       <c r="C719">
         <v>48.4</v>
@@ -12620,7 +12620,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>11.4</v>
+        <v>19.53208857751788</v>
       </c>
       <c r="C720">
         <v>50.1</v>
@@ -12637,7 +12637,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>15.2</v>
+        <v>20.24936113866955</v>
       </c>
       <c r="C721">
         <v>44.8</v>
@@ -12654,7 +12654,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>7.300000000000001</v>
+        <v>18.6045870211247</v>
       </c>
       <c r="C722">
         <v>50.5</v>
@@ -12671,7 +12671,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>15.8</v>
+        <v>20.3594509460678</v>
       </c>
       <c r="C723">
         <v>53</v>
@@ -12688,7 +12688,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>8</v>
+        <v>18.81613735592097</v>
       </c>
       <c r="C724">
         <v>42.7</v>
@@ -12705,7 +12705,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>8.199999999999999</v>
+        <v>18.8520037212599</v>
       </c>
       <c r="C725">
         <v>47.7</v>
@@ -12722,7 +12722,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>15.4</v>
+        <v>20.28370120178716</v>
       </c>
       <c r="C726">
         <v>41.7</v>
@@ -12739,7 +12739,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>15</v>
+        <v>20.19809852125598</v>
       </c>
       <c r="C727">
         <v>52.5</v>
@@ -12756,7 +12756,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>15.8</v>
+        <v>20.36532161093802</v>
       </c>
       <c r="C728">
         <v>44.8</v>
@@ -12773,7 +12773,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>9.800000000000001</v>
+        <v>19.21811762445013</v>
       </c>
       <c r="C729">
         <v>58.8</v>
@@ -12790,7 +12790,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>8.199999999999999</v>
+        <v>18.86836251026542</v>
       </c>
       <c r="C730">
         <v>48.5</v>
@@ -12807,7 +12807,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>10.4</v>
+        <v>19.33487363452869</v>
       </c>
       <c r="C731">
         <v>48.5</v>
@@ -12824,7 +12824,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>10.3</v>
+        <v>19.31907534022519</v>
       </c>
       <c r="C732">
         <v>57</v>
@@ -12841,7 +12841,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>9</v>
+        <v>19.04329059287817</v>
       </c>
       <c r="C733">
         <v>52.5</v>
@@ -12858,7 +12858,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>10</v>
+        <v>19.2692861990631</v>
       </c>
       <c r="C734">
         <v>55.4</v>
@@ -12875,7 +12875,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>17.6</v>
+        <v>20.81991806412741</v>
       </c>
       <c r="C735">
         <v>41.5</v>
@@ -12892,7 +12892,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>15.2</v>
+        <v>20.23724209566524</v>
       </c>
       <c r="C736">
         <v>52.7</v>
@@ -12909,7 +12909,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>11.3</v>
+        <v>19.51215107185934</v>
       </c>
       <c r="C737">
         <v>44.4</v>
@@ -12926,7 +12926,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>9.199999999999999</v>
+        <v>19.09232901837353</v>
       </c>
       <c r="C738">
         <v>49.2</v>
@@ -12943,7 +12943,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>15.1</v>
+        <v>20.22240051303674</v>
       </c>
       <c r="C739">
         <v>47.9</v>
@@ -12960,7 +12960,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>17.1</v>
+        <v>20.68410319089939</v>
       </c>
       <c r="C740">
         <v>53.6</v>
@@ -12977,7 +12977,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>8.4</v>
+        <v>18.91664458047627</v>
       </c>
       <c r="C741">
         <v>53</v>
@@ -12994,7 +12994,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>14.6</v>
+        <v>20.12338912856809</v>
       </c>
       <c r="C742">
         <v>50.6</v>
@@ -13011,7 +13011,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>6.3</v>
+        <v>18.24473606175508</v>
       </c>
       <c r="C743">
         <v>58.6</v>
@@ -13028,7 +13028,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>16.7</v>
+        <v>20.56611241402133</v>
       </c>
       <c r="C744">
         <v>59</v>
@@ -13045,7 +13045,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>15.7</v>
+        <v>20.34118786261547</v>
       </c>
       <c r="C745">
         <v>40.7</v>
@@ -13062,7 +13062,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>10.1</v>
+        <v>19.27780349843781</v>
       </c>
       <c r="C746">
         <v>44.1</v>
@@ -13079,7 +13079,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>17.5</v>
+        <v>20.78949452562323</v>
       </c>
       <c r="C747">
         <v>40.2</v>
@@ -13096,7 +13096,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>12.8</v>
+        <v>19.78053404737412</v>
       </c>
       <c r="C748">
         <v>41.2</v>
@@ -13113,7 +13113,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>13.1</v>
+        <v>19.83770233705167</v>
       </c>
       <c r="C749">
         <v>50.5</v>
@@ -13130,7 +13130,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>14.5</v>
+        <v>20.11065534286529</v>
       </c>
       <c r="C750">
         <v>43.9</v>
@@ -13147,7 +13147,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>6.2</v>
+        <v>18.2032568842877</v>
       </c>
       <c r="C751">
         <v>40.1</v>
@@ -13164,7 +13164,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>17.4</v>
+        <v>20.76195260290648</v>
       </c>
       <c r="C752">
         <v>41.3</v>
@@ -13181,7 +13181,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>14.6</v>
+        <v>20.12994930567582</v>
       </c>
       <c r="C753">
         <v>53.7</v>
@@ -13198,7 +13198,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>7.4</v>
+        <v>18.64266652512551</v>
       </c>
       <c r="C754">
         <v>43.4</v>
@@ -13215,7 +13215,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>10.6</v>
+        <v>19.37257917550188</v>
       </c>
       <c r="C755">
         <v>41.6</v>
@@ -13232,7 +13232,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>17.8</v>
+        <v>20.87276043727245</v>
       </c>
       <c r="C756">
         <v>40.5</v>
@@ -13249,7 +13249,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>12.1</v>
+        <v>19.6611443912291</v>
       </c>
       <c r="C757">
         <v>51</v>
@@ -13266,7 +13266,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>16.6</v>
+        <v>20.54463649246221</v>
       </c>
       <c r="C758">
         <v>43.2</v>
@@ -13283,7 +13283,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>13</v>
+        <v>19.81396910767814</v>
       </c>
       <c r="C759">
         <v>55.7</v>
@@ -13300,7 +13300,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>19.9</v>
+        <v>22.38820179043343</v>
       </c>
       <c r="C760">
         <v>48.1</v>
@@ -13317,7 +13317,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>15.8</v>
+        <v>20.35742588332193</v>
       </c>
       <c r="C761">
         <v>52.4</v>
@@ -13334,7 +13334,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>7</v>
+        <v>18.52941851369393</v>
       </c>
       <c r="C762">
         <v>57.3</v>
@@ -13351,7 +13351,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>10.8</v>
+        <v>19.41177329259921</v>
       </c>
       <c r="C763">
         <v>46</v>
@@ -13368,7 +13368,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>11</v>
+        <v>19.45785284088794</v>
       </c>
       <c r="C764">
         <v>47.6</v>
@@ -13385,7 +13385,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>14.9</v>
+        <v>20.17143413359278</v>
       </c>
       <c r="C765">
         <v>59.90000000000001</v>
@@ -13402,7 +13402,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>17.1</v>
+        <v>20.66066566952059</v>
       </c>
       <c r="C766">
         <v>48.8</v>
@@ -13419,7 +13419,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>11.5</v>
+        <v>19.55493115038585</v>
       </c>
       <c r="C767">
         <v>45.3</v>
@@ -13436,7 +13436,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>7.4</v>
+        <v>18.6564983812641</v>
       </c>
       <c r="C768">
         <v>53.8</v>
@@ -13453,7 +13453,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>14.1</v>
+        <v>20.02070526199184</v>
       </c>
       <c r="C769">
         <v>48.3</v>
@@ -13470,7 +13470,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>12.1</v>
+        <v>19.66639786900758</v>
       </c>
       <c r="C770">
         <v>52</v>
@@ -13487,7 +13487,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>17.3</v>
+        <v>20.72293663413445</v>
       </c>
       <c r="C771">
         <v>44.3</v>
@@ -13504,7 +13504,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>9.4</v>
+        <v>19.13134215155174</v>
       </c>
       <c r="C772">
         <v>40.8</v>
@@ -13521,7 +13521,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>5.8</v>
+        <v>18.00129769146442</v>
       </c>
       <c r="C773">
         <v>49</v>
@@ -13538,7 +13538,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>19.2</v>
+        <v>21.48027865944182</v>
       </c>
       <c r="C774">
         <v>42.3</v>
@@ -13555,7 +13555,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>6.4</v>
+        <v>18.28193549179441</v>
       </c>
       <c r="C775">
         <v>42.6</v>
@@ -13572,7 +13572,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>19.3</v>
+        <v>21.53239148924779</v>
       </c>
       <c r="C776">
         <v>40.7</v>
@@ -13589,7 +13589,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>11.1</v>
+        <v>19.47546825635167</v>
       </c>
       <c r="C777">
         <v>59</v>
@@ -13606,7 +13606,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>17.6</v>
+        <v>20.79839416950301</v>
       </c>
       <c r="C778">
         <v>51.5</v>
@@ -13623,7 +13623,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>17</v>
+        <v>20.65284530554902</v>
       </c>
       <c r="C779">
         <v>56.2</v>
@@ -13640,7 +13640,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>5.5</v>
+        <v>17.78922712308906</v>
       </c>
       <c r="C780">
         <v>59.2</v>
@@ -13657,7 +13657,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>16.6</v>
+        <v>20.55593004399207</v>
       </c>
       <c r="C781">
         <v>42.9</v>
@@ -13674,7 +13674,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>16</v>
+        <v>20.41100821122846</v>
       </c>
       <c r="C782">
         <v>56.1</v>
@@ -13691,7 +13691,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>12.3</v>
+        <v>19.68702819138424</v>
       </c>
       <c r="C783">
         <v>57.7</v>
@@ -13708,7 +13708,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>15.7</v>
+        <v>20.34954486881027</v>
       </c>
       <c r="C784">
         <v>47.1</v>
@@ -13725,7 +13725,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>8.5</v>
+        <v>18.93225454739853</v>
       </c>
       <c r="C785">
         <v>58.40000000000001</v>
@@ -13742,7 +13742,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>13.8</v>
+        <v>19.97628568269591</v>
       </c>
       <c r="C786">
         <v>46.4</v>
@@ -13759,7 +13759,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>10.7</v>
+        <v>19.40591700272557</v>
       </c>
       <c r="C787">
         <v>52.6</v>
@@ -13776,7 +13776,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>16.8</v>
+        <v>20.59760583564651</v>
       </c>
       <c r="C788">
         <v>46.2</v>
@@ -13793,7 +13793,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>16.8</v>
+        <v>20.60588104489484</v>
       </c>
       <c r="C789">
         <v>47.5</v>
@@ -13810,7 +13810,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>5.6</v>
+        <v>17.82469023741655</v>
       </c>
       <c r="C790">
         <v>41.6</v>
@@ -13827,7 +13827,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>14</v>
+        <v>20.01496780506531</v>
       </c>
       <c r="C791">
         <v>53.5</v>
@@ -13844,7 +13844,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>20</v>
+        <v>22.5904702338491</v>
       </c>
       <c r="C792">
         <v>54.8</v>
@@ -13861,7 +13861,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>6</v>
+        <v>18.08265720449521</v>
       </c>
       <c r="C793">
         <v>46</v>
@@ -13878,7 +13878,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>20</v>
+        <v>22.5143130749395</v>
       </c>
       <c r="C794">
         <v>53.1</v>
@@ -13895,7 +13895,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>17.2</v>
+        <v>20.69279915986438</v>
       </c>
       <c r="C795">
         <v>51.4</v>
@@ -13912,7 +13912,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>5.6</v>
+        <v>17.86629309518638</v>
       </c>
       <c r="C796">
         <v>59.2</v>
@@ -13929,7 +13929,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>18.9</v>
+        <v>21.3054449107547</v>
       </c>
       <c r="C797">
         <v>56.6</v>
@@ -13946,7 +13946,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>16</v>
+        <v>20.39982697523271</v>
       </c>
       <c r="C798">
         <v>48.6</v>
@@ -13963,7 +13963,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>9.199999999999999</v>
+        <v>19.09769483273755</v>
       </c>
       <c r="C799">
         <v>49.6</v>
@@ -13980,7 +13980,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>7.4</v>
+        <v>18.65003532414386</v>
       </c>
       <c r="C800">
         <v>47.1</v>
@@ -13997,7 +13997,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>5.1</v>
+        <v>17.18711134181519</v>
       </c>
       <c r="C801">
         <v>50.8</v>
@@ -14014,7 +14014,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>19.7</v>
+        <v>21.86072805155101</v>
       </c>
       <c r="C802">
         <v>49.4</v>
@@ -14031,7 +14031,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>15.9</v>
+        <v>20.39346570750882</v>
       </c>
       <c r="C803">
         <v>46.3</v>
@@ -14048,7 +14048,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>6.4</v>
+        <v>18.29932911443739</v>
       </c>
       <c r="C804">
         <v>55.1</v>
@@ -14065,7 +14065,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>18.2</v>
+        <v>20.99447616673889</v>
       </c>
       <c r="C805">
         <v>58.90000000000001</v>
@@ -14082,7 +14082,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>10</v>
+        <v>19.25119159670119</v>
       </c>
       <c r="C806">
         <v>50.1</v>
@@ -14099,7 +14099,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>13.5</v>
+        <v>19.92196322336964</v>
       </c>
       <c r="C807">
         <v>42.4</v>
@@ -14116,7 +14116,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>16.3</v>
+        <v>20.48293208820374</v>
       </c>
       <c r="C808">
         <v>47.8</v>
@@ -14133,7 +14133,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>5.2</v>
+        <v>17.41059562917261</v>
       </c>
       <c r="C809">
         <v>46.1</v>
@@ -14150,7 +14150,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>13.6</v>
+        <v>19.93156618462488</v>
       </c>
       <c r="C810">
         <v>50.4</v>
@@ -14167,7 +14167,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>13.9</v>
+        <v>19.98871400530241</v>
       </c>
       <c r="C811">
         <v>56.8</v>
@@ -14184,7 +14184,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>6</v>
+        <v>18.12186525431545</v>
       </c>
       <c r="C812">
         <v>59.7</v>
@@ -14201,7 +14201,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>5.3</v>
+        <v>17.5627452468008</v>
       </c>
       <c r="C813">
         <v>59.5</v>
@@ -14218,7 +14218,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>7.800000000000001</v>
+        <v>18.74920214792252</v>
       </c>
       <c r="C814">
         <v>55.2</v>
@@ -14235,7 +14235,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>6.5</v>
+        <v>18.32951250216982</v>
       </c>
       <c r="C815">
         <v>41.3</v>
@@ -14252,7 +14252,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>17.1</v>
+        <v>20.66696631320494</v>
       </c>
       <c r="C816">
         <v>44.2</v>
@@ -14269,7 +14269,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>14.9</v>
+        <v>20.188329036076</v>
       </c>
       <c r="C817">
         <v>55.9</v>
@@ -14286,7 +14286,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>5.2</v>
+        <v>17.35268475040574</v>
       </c>
       <c r="C818">
         <v>57.2</v>
@@ -14303,7 +14303,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>13.7</v>
+        <v>19.94994191602517</v>
       </c>
       <c r="C819">
         <v>57.2</v>
@@ -14320,7 +14320,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>11.1</v>
+        <v>19.47849127798859</v>
       </c>
       <c r="C820">
         <v>59.40000000000001</v>
@@ -14337,7 +14337,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>12.1</v>
+        <v>19.66365700304385</v>
       </c>
       <c r="C821">
         <v>47</v>
@@ -14354,7 +14354,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>10.8</v>
+        <v>19.41493479834412</v>
       </c>
       <c r="C822">
         <v>42.1</v>
@@ -14371,7 +14371,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>13.2</v>
+        <v>19.8518668567178</v>
       </c>
       <c r="C823">
         <v>50.4</v>
@@ -14388,7 +14388,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>16.2</v>
+        <v>20.44666942456379</v>
       </c>
       <c r="C824">
         <v>44.4</v>
@@ -14405,7 +14405,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>8.9</v>
+        <v>19.02524085302591</v>
       </c>
       <c r="C825">
         <v>44.8</v>
@@ -14422,7 +14422,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>13.8</v>
+        <v>19.96355052271545</v>
       </c>
       <c r="C826">
         <v>41</v>
@@ -14439,7 +14439,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>18.6</v>
+        <v>21.16888150894415</v>
       </c>
       <c r="C827">
         <v>56.90000000000001</v>
@@ -14456,7 +14456,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>5.6</v>
+        <v>17.85474423818209</v>
       </c>
       <c r="C828">
         <v>48.3</v>
@@ -14473,7 +14473,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>16.2</v>
+        <v>20.45144363742311</v>
       </c>
       <c r="C829">
         <v>53.2</v>
@@ -14490,7 +14490,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>16.8</v>
+        <v>20.59450917376945</v>
       </c>
       <c r="C830">
         <v>52.1</v>
@@ -14507,7 +14507,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>12.9</v>
+        <v>19.7965233592462</v>
       </c>
       <c r="C831">
         <v>57.90000000000001</v>
@@ -14524,7 +14524,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>6.6</v>
+        <v>18.39320032611607</v>
       </c>
       <c r="C832">
         <v>49.9</v>
@@ -14541,7 +14541,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>12</v>
+        <v>19.64597323391724</v>
       </c>
       <c r="C833">
         <v>40.1</v>
@@ -14558,7 +14558,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>11.1</v>
+        <v>19.48043184147451</v>
       </c>
       <c r="C834">
         <v>45.7</v>
@@ -14575,7 +14575,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>7</v>
+        <v>18.51401964241056</v>
       </c>
       <c r="C835">
         <v>50</v>
@@ -14592,7 +14592,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>14.4</v>
+        <v>20.07550820876891</v>
       </c>
       <c r="C836">
         <v>48.5</v>
@@ -14609,7 +14609,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>5.7</v>
+        <v>17.93704146768351</v>
       </c>
       <c r="C837">
         <v>54.6</v>
@@ -14626,7 +14626,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>10.6</v>
+        <v>19.37579654134205</v>
       </c>
       <c r="C838">
         <v>58.8</v>
@@ -14643,7 +14643,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>17.2</v>
+        <v>20.70650373734287</v>
       </c>
       <c r="C839">
         <v>56.5</v>
@@ -14660,7 +14660,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>18.5</v>
+        <v>21.1093089853891</v>
       </c>
       <c r="C840">
         <v>59.2</v>
@@ -14677,7 +14677,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>18.9</v>
+        <v>21.29790551633961</v>
       </c>
       <c r="C841">
         <v>45.2</v>
@@ -14694,7 +14694,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>7.1</v>
+        <v>18.55810327765353</v>
       </c>
       <c r="C842">
         <v>40.3</v>
@@ -14711,7 +14711,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>8.199999999999999</v>
+        <v>18.85274379812189</v>
       </c>
       <c r="C843">
         <v>45.1</v>
@@ -14728,7 +14728,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>6.4</v>
+        <v>18.31572005221241</v>
       </c>
       <c r="C844">
         <v>51.6</v>
@@ -14745,7 +14745,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>16.4</v>
+        <v>20.51108393595686</v>
       </c>
       <c r="C845">
         <v>49.8</v>
@@ -14762,7 +14762,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>8</v>
+        <v>18.80281627054283</v>
       </c>
       <c r="C846">
         <v>58.90000000000001</v>
@@ -14779,7 +14779,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>6.1</v>
+        <v>18.17286295611566</v>
       </c>
       <c r="C847">
         <v>51.1</v>
@@ -14796,7 +14796,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>8.300000000000001</v>
+        <v>18.88824195443614</v>
       </c>
       <c r="C848">
         <v>40.6</v>
@@ -14813,7 +14813,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>7.2</v>
+        <v>18.60104088763527</v>
       </c>
       <c r="C849">
         <v>59.1</v>
@@ -14830,7 +14830,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>17.8</v>
+        <v>20.88769759777873</v>
       </c>
       <c r="C850">
         <v>52.2</v>
@@ -14847,7 +14847,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>16.7</v>
+        <v>20.5701475792385</v>
       </c>
       <c r="C851">
         <v>51.6</v>
@@ -14864,7 +14864,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>11.9</v>
+        <v>19.623492514769</v>
       </c>
       <c r="C852">
         <v>53.5</v>
@@ -14881,7 +14881,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>14.9</v>
+        <v>20.17645727304766</v>
       </c>
       <c r="C853">
         <v>56.1</v>
@@ -14898,7 +14898,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>14.8</v>
+        <v>20.15771583122307</v>
       </c>
       <c r="C854">
         <v>41.3</v>
@@ -14915,7 +14915,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>8</v>
+        <v>18.80971662989829</v>
       </c>
       <c r="C855">
         <v>50.1</v>
@@ -14932,7 +14932,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>11.3</v>
+        <v>19.50335208508699</v>
       </c>
       <c r="C856">
         <v>48.6</v>
@@ -14949,7 +14949,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>14.4</v>
+        <v>20.08613846891678</v>
       </c>
       <c r="C857">
         <v>53.9</v>
@@ -14966,7 +14966,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>12.7</v>
+        <v>19.76418435491037</v>
       </c>
       <c r="C858">
         <v>45.2</v>
@@ -14983,7 +14983,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>12.2</v>
+        <v>19.67606349746171</v>
       </c>
       <c r="C859">
         <v>45.1</v>
@@ -15000,7 +15000,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>10.9</v>
+        <v>19.42963108487834</v>
       </c>
       <c r="C860">
         <v>44</v>
@@ -15017,7 +15017,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>6.9</v>
+        <v>18.49823744510438</v>
       </c>
       <c r="C861">
         <v>40.1</v>
@@ -15034,7 +15034,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>18.1</v>
+        <v>20.97996802609855</v>
       </c>
       <c r="C862">
         <v>56.2</v>
@@ -15051,7 +15051,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>13.9</v>
+        <v>19.99255532795834</v>
       </c>
       <c r="C863">
         <v>42.1</v>
@@ -15068,7 +15068,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>14.2</v>
+        <v>20.04050376475713</v>
       </c>
       <c r="C864">
         <v>43.4</v>
@@ -15085,7 +15085,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>7</v>
+        <v>18.52568888563911</v>
       </c>
       <c r="C865">
         <v>46.8</v>
@@ -15102,7 +15102,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>20</v>
+        <v>22.87376818980881</v>
       </c>
       <c r="C866">
         <v>50.9</v>
@@ -15119,7 +15119,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>19.1</v>
+        <v>21.44133858235838</v>
       </c>
       <c r="C867">
         <v>46.5</v>
@@ -15136,7 +15136,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>15.3</v>
+        <v>20.26547453931946</v>
       </c>
       <c r="C868">
         <v>52.2</v>
@@ -15153,7 +15153,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>19.6</v>
+        <v>21.753217580592</v>
       </c>
       <c r="C869">
         <v>55.7</v>
@@ -15170,7 +15170,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>17.3</v>
+        <v>20.71704453346464</v>
       </c>
       <c r="C870">
         <v>55</v>
@@ -15187,7 +15187,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>11.5</v>
+        <v>19.55182384659019</v>
       </c>
       <c r="C871">
         <v>46.4</v>
@@ -15204,7 +15204,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>17.6</v>
+        <v>20.80410058285273</v>
       </c>
       <c r="C872">
         <v>44.9</v>
@@ -15221,7 +15221,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>12.5</v>
+        <v>19.72704751426981</v>
       </c>
       <c r="C873">
         <v>50</v>
@@ -15238,7 +15238,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>9.199999999999999</v>
+        <v>19.08910240020104</v>
       </c>
       <c r="C874">
         <v>55.5</v>
@@ -15255,7 +15255,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>12.9</v>
+        <v>19.80101636709094</v>
       </c>
       <c r="C875">
         <v>51.6</v>
@@ -15272,7 +15272,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>19.5</v>
+        <v>21.68877193568097</v>
       </c>
       <c r="C876">
         <v>46.7</v>
@@ -15289,7 +15289,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>13.5</v>
+        <v>19.91897406102271</v>
       </c>
       <c r="C877">
         <v>59.2</v>
@@ -15306,7 +15306,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>12</v>
+        <v>19.63276750722778</v>
       </c>
       <c r="C878">
         <v>51.6</v>
@@ -15323,7 +15323,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>7.2</v>
+        <v>18.58136481468386</v>
       </c>
       <c r="C879">
         <v>51.1</v>
@@ -15340,7 +15340,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>7.6</v>
+        <v>18.71907721372915</v>
       </c>
       <c r="C880">
         <v>57.6</v>
@@ -15357,7 +15357,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>17.4</v>
+        <v>20.75096563886376</v>
       </c>
       <c r="C881">
         <v>45.8</v>
@@ -15374,7 +15374,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>15.2</v>
+        <v>20.2420496312347</v>
       </c>
       <c r="C882">
         <v>55.8</v>
@@ -15391,7 +15391,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>7.9</v>
+        <v>18.778858038213</v>
       </c>
       <c r="C883">
         <v>56.8</v>
@@ -15408,7 +15408,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>7.2</v>
+        <v>18.58447352837911</v>
       </c>
       <c r="C884">
         <v>56.7</v>
@@ -15425,7 +15425,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>18.6</v>
+        <v>21.16192868632317</v>
       </c>
       <c r="C885">
         <v>58</v>
@@ -15442,7 +15442,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>9</v>
+        <v>19.04557450097035</v>
       </c>
       <c r="C886">
         <v>44.7</v>
@@ -15459,7 +15459,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>6.7</v>
+        <v>18.41960437912727</v>
       </c>
       <c r="C887">
         <v>45.8</v>
@@ -15476,7 +15476,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>9.4</v>
+        <v>19.14482193991297</v>
       </c>
       <c r="C888">
         <v>41.3</v>
@@ -15493,7 +15493,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>8</v>
+        <v>18.82230848205182</v>
       </c>
       <c r="C889">
         <v>44.4</v>
@@ -15510,7 +15510,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>14.6</v>
+        <v>20.12008806625241</v>
       </c>
       <c r="C890">
         <v>52.1</v>
@@ -15527,7 +15527,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>5.9</v>
+        <v>18.06908386073023</v>
       </c>
       <c r="C891">
         <v>41.7</v>
@@ -15544,7 +15544,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>7</v>
+        <v>18.51019221351754</v>
       </c>
       <c r="C892">
         <v>48.1</v>
@@ -15561,7 +15561,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>10.2</v>
+        <v>19.30937620642739</v>
       </c>
       <c r="C893">
         <v>40.6</v>
@@ -15578,7 +15578,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>9.100000000000001</v>
+        <v>19.06824112988779</v>
       </c>
       <c r="C894">
         <v>49.5</v>
@@ -15595,7 +15595,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>11.5</v>
+        <v>19.53963050266908</v>
       </c>
       <c r="C895">
         <v>43.9</v>
@@ -15612,7 +15612,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>13.8</v>
+        <v>19.9601580509976</v>
       </c>
       <c r="C896">
         <v>57.2</v>
@@ -15629,7 +15629,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>10.8</v>
+        <v>19.41941536090803</v>
       </c>
       <c r="C897">
         <v>49</v>
@@ -15646,7 +15646,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>16</v>
+        <v>20.40608016751371</v>
       </c>
       <c r="C898">
         <v>44.7</v>
@@ -15663,7 +15663,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>14.1</v>
+        <v>20.03393764355681</v>
       </c>
       <c r="C899">
         <v>55.6</v>
@@ -15680,7 +15680,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>11.5</v>
+        <v>19.54477543670869</v>
       </c>
       <c r="C900">
         <v>43.1</v>
@@ -15697,7 +15697,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>10.7</v>
+        <v>19.39608821192288</v>
       </c>
       <c r="C901">
         <v>53.3</v>
@@ -15714,7 +15714,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>19.5</v>
+        <v>21.70194165846547</v>
       </c>
       <c r="C902">
         <v>55.8</v>
@@ -15731,7 +15731,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>8.1</v>
+        <v>18.84019951306889</v>
       </c>
       <c r="C903">
         <v>44.8</v>
@@ -15748,7 +15748,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>12.5</v>
+        <v>19.72944875297381</v>
       </c>
       <c r="C904">
         <v>54.1</v>
@@ -15765,7 +15765,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>16.9</v>
+        <v>20.62826155614468</v>
       </c>
       <c r="C905">
         <v>55.8</v>
@@ -15782,7 +15782,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>10.9</v>
+        <v>19.44159380405984</v>
       </c>
       <c r="C906">
         <v>58</v>
@@ -15799,7 +15799,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>7.4</v>
+        <v>18.63463312414956</v>
       </c>
       <c r="C907">
         <v>47.6</v>
@@ -15816,7 +15816,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>16.9</v>
+        <v>20.61360396482043</v>
       </c>
       <c r="C908">
         <v>58.2</v>
@@ -15833,7 +15833,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>14.1</v>
+        <v>20.0312174363522</v>
       </c>
       <c r="C909">
         <v>46.7</v>
@@ -15850,7 +15850,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>8.6</v>
+        <v>18.95427633757884</v>
       </c>
       <c r="C910">
         <v>43.3</v>
@@ -15867,7 +15867,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>10.5</v>
+        <v>19.34914195562767</v>
       </c>
       <c r="C911">
         <v>46.5</v>
@@ -15884,7 +15884,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>5.8</v>
+        <v>18.01507190003677</v>
       </c>
       <c r="C912">
         <v>40.1</v>
@@ -15901,7 +15901,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>8.1</v>
+        <v>18.83305050721547</v>
       </c>
       <c r="C913">
         <v>41.1</v>
@@ -15918,7 +15918,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>5.6</v>
+        <v>17.81426261048554</v>
       </c>
       <c r="C914">
         <v>40.5</v>
@@ -15935,7 +15935,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>20</v>
+        <v>22.73572137419476</v>
       </c>
       <c r="C915">
         <v>54</v>
@@ -15952,7 +15952,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>17.4</v>
+        <v>20.75677593201102</v>
       </c>
       <c r="C916">
         <v>56.2</v>
@@ -15969,7 +15969,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>9.100000000000001</v>
+        <v>19.07066565530935</v>
       </c>
       <c r="C917">
         <v>44</v>
@@ -15986,7 +15986,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>17</v>
+        <v>20.65552747003119</v>
       </c>
       <c r="C918">
         <v>46.2</v>
@@ -16003,7 +16003,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>19.1</v>
+        <v>21.42550524399397</v>
       </c>
       <c r="C919">
         <v>45.2</v>
@@ -16020,7 +16020,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>12.1</v>
+        <v>19.64897178584018</v>
       </c>
       <c r="C920">
         <v>43.5</v>
@@ -16037,7 +16037,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>16.2</v>
+        <v>20.44745511239178</v>
       </c>
       <c r="C921">
         <v>42.9</v>
@@ -16054,7 +16054,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>16.9</v>
+        <v>20.62437491959035</v>
       </c>
       <c r="C922">
         <v>42.7</v>
@@ -16071,7 +16071,7 @@
         <v>922</v>
       </c>
       <c r="B923">
-        <v>10.1</v>
+        <v>19.27541430482527</v>
       </c>
       <c r="C923">
         <v>51.2</v>
@@ -16088,7 +16088,7 @@
         <v>923</v>
       </c>
       <c r="B924">
-        <v>12.4</v>
+        <v>19.71673354916797</v>
       </c>
       <c r="C924">
         <v>40</v>
@@ -16105,7 +16105,7 @@
         <v>924</v>
       </c>
       <c r="B925">
-        <v>15.5</v>
+        <v>20.31240744771791</v>
       </c>
       <c r="C925">
         <v>48.7</v>
@@ -16122,7 +16122,7 @@
         <v>925</v>
       </c>
       <c r="B926">
-        <v>8.6</v>
+        <v>18.9578584865266</v>
       </c>
       <c r="C926">
         <v>58.7</v>
@@ -16139,7 +16139,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>19.1</v>
+        <v>21.41587406119609</v>
       </c>
       <c r="C927">
         <v>41.4</v>
@@ -16156,7 +16156,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>18.2</v>
+        <v>21.02168107782336</v>
       </c>
       <c r="C928">
         <v>40.6</v>
@@ -16173,7 +16173,7 @@
         <v>928</v>
       </c>
       <c r="B929">
-        <v>13.6</v>
+        <v>19.92865500478813</v>
       </c>
       <c r="C929">
         <v>59.90000000000001</v>
@@ -16190,7 +16190,7 @@
         <v>929</v>
       </c>
       <c r="B930">
-        <v>15.2</v>
+        <v>20.24539719063142</v>
       </c>
       <c r="C930">
         <v>48.8</v>
@@ -16207,7 +16207,7 @@
         <v>930</v>
       </c>
       <c r="B931">
-        <v>14.7</v>
+        <v>20.13493055830103</v>
       </c>
       <c r="C931">
         <v>47.6</v>
@@ -16224,7 +16224,7 @@
         <v>931</v>
       </c>
       <c r="B932">
-        <v>8.699999999999999</v>
+        <v>18.98385445876784</v>
       </c>
       <c r="C932">
         <v>43.2</v>
@@ -16241,7 +16241,7 @@
         <v>932</v>
       </c>
       <c r="B933">
-        <v>11.5</v>
+        <v>19.54507938999444</v>
       </c>
       <c r="C933">
         <v>47.9</v>
@@ -16258,7 +16258,7 @@
         <v>933</v>
       </c>
       <c r="B934">
-        <v>18</v>
+        <v>20.92714874793573</v>
       </c>
       <c r="C934">
         <v>47.9</v>
@@ -16275,7 +16275,7 @@
         <v>934</v>
       </c>
       <c r="B935">
-        <v>12</v>
+        <v>19.6421311056377</v>
       </c>
       <c r="C935">
         <v>56.7</v>
@@ -16292,7 +16292,7 @@
         <v>935</v>
       </c>
       <c r="B936">
-        <v>6.3</v>
+        <v>18.25812871267251</v>
       </c>
       <c r="C936">
         <v>55.4</v>
@@ -16309,7 +16309,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>18</v>
+        <v>20.94696634556528</v>
       </c>
       <c r="C937">
         <v>57.3</v>
@@ -16326,7 +16326,7 @@
         <v>937</v>
       </c>
       <c r="B938">
-        <v>10.9</v>
+        <v>19.43760903304206</v>
       </c>
       <c r="C938">
         <v>41.2</v>
@@ -16343,7 +16343,7 @@
         <v>938</v>
       </c>
       <c r="B939">
-        <v>17.8</v>
+        <v>20.86145850420723</v>
       </c>
       <c r="C939">
         <v>45.1</v>
@@ -16360,7 +16360,7 @@
         <v>939</v>
       </c>
       <c r="B940">
-        <v>11.9</v>
+        <v>19.62660530844219</v>
       </c>
       <c r="C940">
         <v>47.7</v>
@@ -16377,7 +16377,7 @@
         <v>940</v>
       </c>
       <c r="B941">
-        <v>17.6</v>
+        <v>20.82741178669996</v>
       </c>
       <c r="C941">
         <v>45.2</v>
@@ -16394,7 +16394,7 @@
         <v>941</v>
       </c>
       <c r="B942">
-        <v>17.4</v>
+        <v>20.76852845761154</v>
       </c>
       <c r="C942">
         <v>44.5</v>
@@ -16411,7 +16411,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>7.6</v>
+        <v>18.70206564821801</v>
       </c>
       <c r="C943">
         <v>43</v>
@@ -16428,7 +16428,7 @@
         <v>943</v>
       </c>
       <c r="B944">
-        <v>6</v>
+        <v>18.11568039986228</v>
       </c>
       <c r="C944">
         <v>53.4</v>
@@ -16445,7 +16445,7 @@
         <v>944</v>
       </c>
       <c r="B945">
-        <v>9.300000000000001</v>
+        <v>19.12095519895765</v>
       </c>
       <c r="C945">
         <v>59.6</v>
@@ -16462,7 +16462,7 @@
         <v>945</v>
       </c>
       <c r="B946">
-        <v>6.2</v>
+        <v>18.21041985404131</v>
       </c>
       <c r="C946">
         <v>49.7</v>
@@ -16479,7 +16479,7 @@
         <v>946</v>
       </c>
       <c r="B947">
-        <v>14.6</v>
+        <v>20.11790739214518</v>
       </c>
       <c r="C947">
         <v>53.3</v>
@@ -16496,7 +16496,7 @@
         <v>947</v>
       </c>
       <c r="B948">
-        <v>6.2</v>
+        <v>18.19774657409511</v>
       </c>
       <c r="C948">
         <v>40.9</v>
@@ -16513,7 +16513,7 @@
         <v>948</v>
       </c>
       <c r="B949">
-        <v>12.1</v>
+        <v>19.65771659452296</v>
       </c>
       <c r="C949">
         <v>51.5</v>
@@ -16530,7 +16530,7 @@
         <v>949</v>
       </c>
       <c r="B950">
-        <v>13.4</v>
+        <v>19.88799806496081</v>
       </c>
       <c r="C950">
         <v>43.3</v>
@@ -16547,7 +16547,7 @@
         <v>950</v>
       </c>
       <c r="B951">
-        <v>6.6</v>
+        <v>18.36554151078267</v>
       </c>
       <c r="C951">
         <v>52.6</v>
@@ -16564,7 +16564,7 @@
         <v>951</v>
       </c>
       <c r="B952">
-        <v>9</v>
+        <v>19.05517305184899</v>
       </c>
       <c r="C952">
         <v>51.4</v>
@@ -16581,7 +16581,7 @@
         <v>952</v>
       </c>
       <c r="B953">
-        <v>13.4</v>
+        <v>19.90102990323415</v>
       </c>
       <c r="C953">
         <v>58.7</v>
@@ -16598,7 +16598,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>10.2</v>
+        <v>19.29043401597388</v>
       </c>
       <c r="C954">
         <v>48.2</v>
@@ -16615,7 +16615,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>9.5</v>
+        <v>19.16702721159733</v>
       </c>
       <c r="C955">
         <v>56.40000000000001</v>
@@ -16632,7 +16632,7 @@
         <v>955</v>
       </c>
       <c r="B956">
-        <v>12.2</v>
+        <v>19.68262140033639</v>
       </c>
       <c r="C956">
         <v>51.8</v>
@@ -16649,7 +16649,7 @@
         <v>956</v>
       </c>
       <c r="B957">
-        <v>7.1</v>
+        <v>18.54647030889934</v>
       </c>
       <c r="C957">
         <v>50.8</v>
@@ -16666,7 +16666,7 @@
         <v>957</v>
       </c>
       <c r="B958">
-        <v>16.2</v>
+        <v>20.45860037242798</v>
       </c>
       <c r="C958">
         <v>53.3</v>
@@ -16683,7 +16683,7 @@
         <v>958</v>
       </c>
       <c r="B959">
-        <v>16.6</v>
+        <v>20.55116902990851</v>
       </c>
       <c r="C959">
         <v>49.4</v>
@@ -16700,7 +16700,7 @@
         <v>959</v>
       </c>
       <c r="B960">
-        <v>15.4</v>
+        <v>20.27203791625535</v>
       </c>
       <c r="C960">
         <v>50.7</v>
@@ -16717,7 +16717,7 @@
         <v>960</v>
       </c>
       <c r="B961">
-        <v>14.4</v>
+        <v>20.08968564353578</v>
       </c>
       <c r="C961">
         <v>54.5</v>
@@ -16734,7 +16734,7 @@
         <v>961</v>
       </c>
       <c r="B962">
-        <v>13.1</v>
+        <v>19.84612745273125</v>
       </c>
       <c r="C962">
         <v>47.2</v>
@@ -16751,7 +16751,7 @@
         <v>962</v>
       </c>
       <c r="B963">
-        <v>16.4</v>
+        <v>20.49033581977601</v>
       </c>
       <c r="C963">
         <v>44.9</v>
@@ -16768,7 +16768,7 @@
         <v>963</v>
       </c>
       <c r="B964">
-        <v>5</v>
+        <v>16.86860612373506</v>
       </c>
       <c r="C964">
         <v>54.1</v>
@@ -16785,7 +16785,7 @@
         <v>964</v>
       </c>
       <c r="B965">
-        <v>6.9</v>
+        <v>18.50470627981425</v>
       </c>
       <c r="C965">
         <v>40.5</v>
@@ -16802,7 +16802,7 @@
         <v>965</v>
       </c>
       <c r="B966">
-        <v>9</v>
+        <v>19.06217818046974</v>
       </c>
       <c r="C966">
         <v>48.7</v>
@@ -16819,7 +16819,7 @@
         <v>966</v>
       </c>
       <c r="B967">
-        <v>13.1</v>
+        <v>19.84130201566271</v>
       </c>
       <c r="C967">
         <v>44.8</v>
@@ -16836,7 +16836,7 @@
         <v>967</v>
       </c>
       <c r="B968">
-        <v>8.699999999999999</v>
+        <v>18.98092625138459</v>
       </c>
       <c r="C968">
         <v>60</v>
@@ -16853,7 +16853,7 @@
         <v>968</v>
       </c>
       <c r="B969">
-        <v>8.199999999999999</v>
+        <v>18.8646979794549</v>
       </c>
       <c r="C969">
         <v>57.40000000000001</v>
@@ -16870,7 +16870,7 @@
         <v>969</v>
       </c>
       <c r="B970">
-        <v>9.5</v>
+        <v>19.15861607571487</v>
       </c>
       <c r="C970">
         <v>57.1</v>
@@ -16887,7 +16887,7 @@
         <v>970</v>
       </c>
       <c r="B971">
-        <v>15.1</v>
+        <v>20.22475843082656</v>
       </c>
       <c r="C971">
         <v>50.1</v>
@@ -16904,7 +16904,7 @@
         <v>971</v>
       </c>
       <c r="B972">
-        <v>17.2</v>
+        <v>20.68989772229785</v>
       </c>
       <c r="C972">
         <v>46.5</v>
@@ -16921,7 +16921,7 @@
         <v>972</v>
       </c>
       <c r="B973">
-        <v>6.1</v>
+        <v>18.18032016475891</v>
       </c>
       <c r="C973">
         <v>46.2</v>
@@ -16938,7 +16938,7 @@
         <v>973</v>
       </c>
       <c r="B974">
-        <v>12.8</v>
+        <v>19.78389691546242</v>
       </c>
       <c r="C974">
         <v>49.1</v>
@@ -16955,7 +16955,7 @@
         <v>974</v>
       </c>
       <c r="B975">
-        <v>5.1</v>
+        <v>17.24374453971307</v>
       </c>
       <c r="C975">
         <v>52.7</v>
@@ -16972,7 +16972,7 @@
         <v>975</v>
       </c>
       <c r="B976">
-        <v>13.3</v>
+        <v>19.88461560289502</v>
       </c>
       <c r="C976">
         <v>54.7</v>
@@ -16989,7 +16989,7 @@
         <v>976</v>
       </c>
       <c r="B977">
-        <v>14.8</v>
+        <v>20.16594874420235</v>
       </c>
       <c r="C977">
         <v>41.5</v>
@@ -17006,7 +17006,7 @@
         <v>977</v>
       </c>
       <c r="B978">
-        <v>15.5</v>
+        <v>20.29260439335933</v>
       </c>
       <c r="C978">
         <v>57.7</v>
@@ -17023,7 +17023,7 @@
         <v>978</v>
       </c>
       <c r="B979">
-        <v>11.6</v>
+        <v>19.56775698913497</v>
       </c>
       <c r="C979">
         <v>54.9</v>
@@ -17040,7 +17040,7 @@
         <v>979</v>
       </c>
       <c r="B980">
-        <v>17.7</v>
+        <v>20.84948122745595</v>
       </c>
       <c r="C980">
         <v>46.5</v>
@@ -17057,7 +17057,7 @@
         <v>980</v>
       </c>
       <c r="B981">
-        <v>11.3</v>
+        <v>19.51463963693394</v>
       </c>
       <c r="C981">
         <v>43.1</v>
@@ -17074,7 +17074,7 @@
         <v>981</v>
       </c>
       <c r="B982">
-        <v>10.9</v>
+        <v>19.4260238254369</v>
       </c>
       <c r="C982">
         <v>54.5</v>
@@ -17091,7 +17091,7 @@
         <v>982</v>
       </c>
       <c r="B983">
-        <v>7.7</v>
+        <v>18.74180652640238</v>
       </c>
       <c r="C983">
         <v>59.40000000000001</v>
@@ -17108,7 +17108,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>18.2</v>
+        <v>21.00838237607828</v>
       </c>
       <c r="C984">
         <v>57.40000000000001</v>
@@ -17125,7 +17125,7 @@
         <v>984</v>
       </c>
       <c r="B985">
-        <v>17.4</v>
+        <v>20.7599775686998</v>
       </c>
       <c r="C985">
         <v>40.9</v>
@@ -17142,7 +17142,7 @@
         <v>985</v>
       </c>
       <c r="B986">
-        <v>19.3</v>
+        <v>21.57061404633033</v>
       </c>
       <c r="C986">
         <v>55.4</v>
@@ -17159,7 +17159,7 @@
         <v>986</v>
       </c>
       <c r="B987">
-        <v>18.3</v>
+        <v>21.02706759216829</v>
       </c>
       <c r="C987">
         <v>55.2</v>
@@ -17176,7 +17176,7 @@
         <v>987</v>
       </c>
       <c r="B988">
-        <v>5.2</v>
+        <v>17.39507273982059</v>
       </c>
       <c r="C988">
         <v>59.90000000000001</v>
@@ -17193,7 +17193,7 @@
         <v>988</v>
       </c>
       <c r="B989">
-        <v>15.3</v>
+        <v>20.258943458433</v>
       </c>
       <c r="C989">
         <v>59.6</v>
@@ -17210,7 +17210,7 @@
         <v>989</v>
       </c>
       <c r="B990">
-        <v>15.1</v>
+        <v>20.21249645272012</v>
       </c>
       <c r="C990">
         <v>51.9</v>
@@ -17227,7 +17227,7 @@
         <v>990</v>
       </c>
       <c r="B991">
-        <v>6.9</v>
+        <v>18.49696205082296</v>
       </c>
       <c r="C991">
         <v>44.5</v>
@@ -17244,7 +17244,7 @@
         <v>991</v>
       </c>
       <c r="B992">
-        <v>8.5</v>
+        <v>18.93339740066934</v>
       </c>
       <c r="C992">
         <v>51.8</v>
@@ -17261,7 +17261,7 @@
         <v>992</v>
       </c>
       <c r="B993">
-        <v>13</v>
+        <v>19.82434463644805</v>
       </c>
       <c r="C993">
         <v>54.7</v>
@@ -17278,7 +17278,7 @@
         <v>993</v>
       </c>
       <c r="B994">
-        <v>15.8</v>
+        <v>20.37540877577379</v>
       </c>
       <c r="C994">
         <v>52.3</v>
@@ -17295,7 +17295,7 @@
         <v>994</v>
       </c>
       <c r="B995">
-        <v>16.1</v>
+        <v>20.42590553721116</v>
       </c>
       <c r="C995">
         <v>47</v>
@@ -17312,7 +17312,7 @@
         <v>995</v>
       </c>
       <c r="B996">
-        <v>8.800000000000001</v>
+        <v>19.00530652485542</v>
       </c>
       <c r="C996">
         <v>45.8</v>
@@ -17329,7 +17329,7 @@
         <v>996</v>
       </c>
       <c r="B997">
-        <v>14.2</v>
+        <v>20.04731145832469</v>
       </c>
       <c r="C997">
         <v>58.8</v>
@@ -17346,7 +17346,7 @@
         <v>997</v>
       </c>
       <c r="B998">
-        <v>5.2</v>
+        <v>17.31968673869346</v>
       </c>
       <c r="C998">
         <v>57.2</v>
@@ -17363,7 +17363,7 @@
         <v>998</v>
       </c>
       <c r="B999">
-        <v>12.7</v>
+        <v>19.7710962665768</v>
       </c>
       <c r="C999">
         <v>42.1</v>
@@ -17380,7 +17380,7 @@
         <v>999</v>
       </c>
       <c r="B1000">
-        <v>15.2</v>
+        <v>20.23068975766061</v>
       </c>
       <c r="C1000">
         <v>42</v>
@@ -17397,7 +17397,7 @@
         <v>1000</v>
       </c>
       <c r="B1001">
-        <v>12.6</v>
+        <v>19.75651161235079</v>
       </c>
       <c r="C1001">
         <v>49.7</v>
